--- a/documentos/LIBRO SUELDO DIGITAL LIQUIDACION NOV2021.xlsx
+++ b/documentos/LIBRO SUELDO DIGITAL LIQUIDACION NOV2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis documentos\GRUPO PERSOGLIA\LUIS PERSOGLIA SRL\LABORAL\libro sueldo digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56F3A4-E8B5-4339-ADFF-5DDD7A5FD900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="PASO 1" sheetId="5" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="OCT" sheetId="2" r:id="rId5"/>
     <sheet name="sept" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +412,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +425,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -450,13 +455,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,11 +628,56 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -927,31 +988,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="13" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="15" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -960,48 +1025,48 @@
         <v>20</v>
       </c>
       <c r="C1" s="38">
+        <v>31</v>
+      </c>
+      <c r="D1" s="38">
+        <v>32</v>
+      </c>
+      <c r="E1" s="38">
+        <v>51</v>
+      </c>
+      <c r="F1" s="38">
+        <v>4</v>
+      </c>
+      <c r="G1" s="38">
+        <v>17</v>
+      </c>
+      <c r="H1" s="38">
+        <v>22</v>
+      </c>
+      <c r="I1" s="38">
+        <v>41</v>
+      </c>
+      <c r="J1" s="38">
+        <v>55</v>
+      </c>
+      <c r="K1" s="38">
+        <v>35</v>
+      </c>
+      <c r="L1" s="38">
+        <v>44</v>
+      </c>
+      <c r="M1" s="38">
+        <v>46</v>
+      </c>
+      <c r="N1" s="38">
         <v>52</v>
-      </c>
-      <c r="D1" s="38">
-        <v>31</v>
-      </c>
-      <c r="E1" s="38">
-        <v>32</v>
-      </c>
-      <c r="F1" s="38">
-        <v>51</v>
-      </c>
-      <c r="G1" s="38">
-        <v>4</v>
-      </c>
-      <c r="H1" s="38">
-        <v>17</v>
-      </c>
-      <c r="I1" s="38">
-        <v>22</v>
-      </c>
-      <c r="J1" s="38">
-        <v>41</v>
-      </c>
-      <c r="K1" s="38">
-        <v>55</v>
-      </c>
-      <c r="L1" s="38">
-        <v>35</v>
-      </c>
-      <c r="M1" s="38">
-        <v>44</v>
-      </c>
-      <c r="N1" s="38">
-        <v>46</v>
       </c>
       <c r="O1" s="38">
         <v>56</v>
       </c>
       <c r="P1" s="38"/>
       <c r="Q1" s="26">
-        <f>COUNT(D1:P1)</f>
-        <v>12</v>
+        <f>COUNT(C1:P1)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1009,40 +1074,40 @@
         <v>21</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>64</v>
       </c>
       <c r="O2" s="39" t="s">
         <v>66</v>
@@ -1057,40 +1122,40 @@
         <v>22</v>
       </c>
       <c r="C3" s="42">
+        <v>23373230529</v>
+      </c>
+      <c r="D3" s="42">
+        <v>20412270089</v>
+      </c>
+      <c r="E3" s="42">
+        <v>20363899952</v>
+      </c>
+      <c r="F3" s="42">
+        <v>20280474682</v>
+      </c>
+      <c r="G3" s="42">
+        <v>20177508293</v>
+      </c>
+      <c r="H3" s="42">
+        <v>20215465676</v>
+      </c>
+      <c r="I3" s="43">
+        <v>20302390224</v>
+      </c>
+      <c r="J3" s="42">
+        <v>20397771262</v>
+      </c>
+      <c r="K3" s="42">
+        <v>20222706042</v>
+      </c>
+      <c r="L3" s="42">
+        <v>20146494669</v>
+      </c>
+      <c r="M3" s="42">
+        <v>20260202031</v>
+      </c>
+      <c r="N3" s="42">
         <v>20229337700</v>
-      </c>
-      <c r="D3" s="42">
-        <v>23373230529</v>
-      </c>
-      <c r="E3" s="42">
-        <v>20412270089</v>
-      </c>
-      <c r="F3" s="42">
-        <v>20363899952</v>
-      </c>
-      <c r="G3" s="42">
-        <v>20280474682</v>
-      </c>
-      <c r="H3" s="42">
-        <v>20177508293</v>
-      </c>
-      <c r="I3" s="42">
-        <v>20215465676</v>
-      </c>
-      <c r="J3" s="43">
-        <v>20302390224</v>
-      </c>
-      <c r="K3" s="42">
-        <v>20397771262</v>
-      </c>
-      <c r="L3" s="42">
-        <v>20222706042</v>
-      </c>
-      <c r="M3" s="42">
-        <v>20146494669</v>
-      </c>
-      <c r="N3" s="42">
-        <v>20260202031</v>
       </c>
       <c r="O3" s="42">
         <v>20179209927</v>
@@ -1102,52 +1167,52 @@
         <v>44</v>
       </c>
       <c r="C4" s="44">
-        <f>+C30+C37</f>
-        <v>62374.879999999997</v>
+        <f t="shared" ref="C4:F4" si="0">+C30+C37</f>
+        <v>58574.82</v>
       </c>
       <c r="D4" s="44">
-        <f t="shared" ref="D4:G4" si="0">+D30+D37</f>
-        <v>58574.82</v>
+        <f t="shared" si="0"/>
+        <v>62053.26</v>
       </c>
       <c r="E4" s="44">
         <f t="shared" si="0"/>
-        <v>62053.26</v>
+        <v>59444.43</v>
       </c>
       <c r="F4" s="44">
         <f t="shared" si="0"/>
-        <v>59444.43</v>
+        <v>85679.010000000009</v>
       </c>
       <c r="G4" s="44">
-        <f t="shared" si="0"/>
-        <v>85679.010000000009</v>
+        <f>+G30+G37</f>
+        <v>77043</v>
       </c>
       <c r="H4" s="44">
-        <f>+H30+H37</f>
-        <v>77043</v>
+        <f t="shared" ref="H4:O4" si="1">+H30+H37</f>
+        <v>85947.329999999987</v>
       </c>
       <c r="I4" s="44">
-        <f t="shared" ref="I4:O4" si="1">+I30+I37</f>
-        <v>85947.329999999987</v>
+        <f t="shared" si="1"/>
+        <v>64884.25</v>
       </c>
       <c r="J4" s="44">
         <f t="shared" si="1"/>
-        <v>64884.25</v>
+        <v>58199.42</v>
       </c>
       <c r="K4" s="44">
         <f t="shared" si="1"/>
-        <v>58199.42</v>
+        <v>92558.15</v>
       </c>
       <c r="L4" s="44">
         <f t="shared" si="1"/>
-        <v>92558.15</v>
+        <v>79783</v>
       </c>
       <c r="M4" s="44">
         <f t="shared" si="1"/>
-        <v>79783</v>
+        <v>64202.3</v>
       </c>
       <c r="N4" s="44">
         <f t="shared" si="1"/>
-        <v>64202.3</v>
+        <v>66784.88</v>
       </c>
       <c r="O4" s="44">
         <f t="shared" si="1"/>
@@ -1155,8 +1220,8 @@
       </c>
       <c r="P4" s="45"/>
       <c r="Q4" s="46">
-        <f>SUM(D4:P4)</f>
-        <v>851496.75000000012</v>
+        <f>SUM(C4:P4)</f>
+        <v>918281.63000000012</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -1206,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>0</v>
       </c>
@@ -1347,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>0</v>
       </c>
@@ -1394,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>0</v>
       </c>
@@ -1458,2340 +1523,2366 @@
       <c r="O11" s="44"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11:Q29" si="2">SUM(D11:P11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+        <f t="shared" ref="Q11:Q46" si="2">SUM(C11:P11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="D12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0</v>
+      </c>
+      <c r="F12" s="81">
+        <v>62822.36</v>
+      </c>
+      <c r="G12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="H12" s="81">
+        <v>62822.36</v>
+      </c>
+      <c r="I12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="J12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="K12" s="81">
+        <v>66271.149999999994</v>
+      </c>
+      <c r="L12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="M12" s="81">
+        <v>51660</v>
+      </c>
+      <c r="N12" s="81">
         <v>55121.36</v>
       </c>
-      <c r="D12" s="13">
+      <c r="O12" s="81">
         <v>51660</v>
       </c>
-      <c r="E12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>62822.36</v>
-      </c>
-      <c r="H12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="I12" s="13">
-        <v>62822.36</v>
-      </c>
-      <c r="J12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="K12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="L12" s="13">
-        <v>66271.149999999994</v>
-      </c>
-      <c r="M12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="N12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="O12" s="13">
-        <v>51660</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="4">
+      <c r="P12" s="80"/>
+      <c r="Q12" s="82">
         <f t="shared" si="2"/>
-        <v>605195.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+        <v>660317.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81">
         <v>12964.44</v>
       </c>
-      <c r="H13" s="13">
+      <c r="G13" s="81">
         <v>16388</v>
       </c>
-      <c r="I13" s="13">
+      <c r="H13" s="81">
         <v>17421</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13">
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81">
         <v>18061</v>
       </c>
-      <c r="M13" s="13">
+      <c r="L13" s="81">
         <v>18267</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="4">
+      <c r="M13" s="81">
+        <v>0</v>
+      </c>
+      <c r="N13" s="81">
+        <v>0</v>
+      </c>
+      <c r="O13" s="81">
+        <v>0</v>
+      </c>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="82">
         <f t="shared" si="2"/>
         <v>83101.440000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13">
-        <v>-2205</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="81">
         <v>-3444</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="D14" s="81"/>
+      <c r="E14" s="81">
         <v>-2583</v>
       </c>
-      <c r="G14" s="13">
+      <c r="F14" s="81">
         <v>-2094</v>
       </c>
-      <c r="H14" s="13">
+      <c r="G14" s="81">
         <v>-861</v>
       </c>
-      <c r="I14" s="13">
+      <c r="H14" s="81">
         <v>-6282.24</v>
       </c>
-      <c r="J14" s="13">
+      <c r="I14" s="81">
         <v>-861</v>
       </c>
-      <c r="K14" s="13">
+      <c r="J14" s="81">
         <v>-4305</v>
       </c>
-      <c r="L14" s="13">
+      <c r="K14" s="81">
         <v>-4418</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="4">
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81">
+        <v>0</v>
+      </c>
+      <c r="O14" s="81">
+        <v>0</v>
+      </c>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="82">
         <f t="shared" si="2"/>
         <v>-24848.239999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="15" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
         <v>4</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13">
+      <c r="C15" s="81">
         <v>2066</v>
       </c>
-      <c r="E15" s="13">
+      <c r="D15" s="81">
         <v>2066</v>
       </c>
-      <c r="F15" s="13">
+      <c r="E15" s="81">
         <v>2066</v>
       </c>
-      <c r="G15" s="13">
+      <c r="F15" s="81">
         <v>2513</v>
       </c>
-      <c r="H15" s="13">
+      <c r="G15" s="81">
         <v>2066</v>
       </c>
-      <c r="I15" s="13">
+      <c r="H15" s="81">
         <v>2513</v>
       </c>
-      <c r="J15" s="13">
+      <c r="I15" s="81">
         <v>2066</v>
       </c>
-      <c r="K15" s="13">
+      <c r="J15" s="81">
         <v>2066</v>
       </c>
-      <c r="L15" s="13">
+      <c r="K15" s="81">
         <v>2651</v>
       </c>
-      <c r="M15" s="13">
+      <c r="L15" s="81">
         <v>2066</v>
       </c>
-      <c r="N15" s="13">
+      <c r="M15" s="81">
         <v>2066</v>
       </c>
-      <c r="O15" s="13">
+      <c r="N15" s="81">
+        <v>2205</v>
+      </c>
+      <c r="O15" s="81">
         <v>2066</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="4">
+      <c r="P15" s="80"/>
+      <c r="Q15" s="82">
         <f t="shared" si="2"/>
-        <v>26271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+        <v>28476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
         <v>5</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81">
         <v>51660</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="4">
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="82">
         <f t="shared" si="2"/>
         <v>51660</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="4">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81">
+        <v>0</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
         <v>8</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="4">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="4">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="4">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="4">
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="22" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="4">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
         <v>23</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="4">
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
         <v>24</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81">
         <v>1586</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="4">
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="82">
         <f t="shared" si="2"/>
         <v>1586</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+    <row r="25" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79">
         <v>33</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="81">
+        <v>502.82</v>
+      </c>
+      <c r="D25" s="81">
+        <v>537.26</v>
+      </c>
+      <c r="E25" s="81">
+        <v>511.43</v>
+      </c>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81">
+        <v>2643.25</v>
+      </c>
+      <c r="J25" s="81">
+        <v>988.42</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81">
+        <v>2686.3</v>
+      </c>
+      <c r="N25" s="81">
         <v>1146.52</v>
       </c>
-      <c r="D25" s="13">
-        <v>502.82</v>
-      </c>
-      <c r="E25" s="13">
-        <v>537.26</v>
-      </c>
-      <c r="F25" s="13">
-        <v>511.43</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13">
-        <v>2643.25</v>
-      </c>
-      <c r="K25" s="13">
-        <v>988.42</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13">
-        <v>2686.3</v>
-      </c>
-      <c r="O25" s="13">
+      <c r="O25" s="81">
         <v>1611.78</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="4">
+      <c r="P25" s="80"/>
+      <c r="Q25" s="82">
         <f t="shared" si="2"/>
-        <v>9481.26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+        <v>10627.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
         <v>36</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="4">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    <row r="27" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
         <v>37</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="4">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+    <row r="28" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79">
         <v>90</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="4">
+      <c r="C28" s="81">
+        <v>0</v>
+      </c>
+      <c r="D28" s="81">
+        <v>0</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0</v>
+      </c>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    <row r="29" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79">
         <v>39</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="4">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:17" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="84"/>
+      <c r="B30" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="19">
-        <f>SUM(C12:C29)</f>
-        <v>54062.879999999997</v>
-      </c>
-      <c r="D30" s="19">
-        <f t="shared" ref="D30:Q30" si="3">SUM(D12:D29)</f>
+      <c r="C30" s="86">
+        <f t="shared" ref="C30:Q30" si="3">SUM(C12:C29)</f>
         <v>50784.82</v>
       </c>
-      <c r="E30" s="19">
+      <c r="D30" s="86">
         <f t="shared" si="3"/>
         <v>54263.26</v>
       </c>
-      <c r="F30" s="19">
+      <c r="E30" s="86">
         <f t="shared" si="3"/>
         <v>51654.43</v>
       </c>
-      <c r="G30" s="19">
+      <c r="F30" s="86">
         <f t="shared" si="3"/>
         <v>76205.8</v>
       </c>
-      <c r="H30" s="19">
+      <c r="G30" s="86">
         <f t="shared" si="3"/>
         <v>69253</v>
       </c>
-      <c r="I30" s="19">
+      <c r="H30" s="86">
         <f t="shared" si="3"/>
         <v>76474.12</v>
       </c>
-      <c r="J30" s="19">
+      <c r="I30" s="86">
         <f t="shared" si="3"/>
         <v>57094.25</v>
       </c>
-      <c r="K30" s="19">
+      <c r="J30" s="86">
         <f t="shared" si="3"/>
         <v>50409.42</v>
       </c>
-      <c r="L30" s="19">
+      <c r="K30" s="86">
         <f t="shared" si="3"/>
         <v>82565.149999999994</v>
       </c>
-      <c r="M30" s="19">
+      <c r="L30" s="86">
         <f t="shared" si="3"/>
         <v>71993</v>
       </c>
-      <c r="N30" s="19">
+      <c r="M30" s="86">
         <f t="shared" si="3"/>
         <v>56412.3</v>
       </c>
-      <c r="O30" s="19">
+      <c r="N30" s="86">
+        <f t="shared" si="3"/>
+        <v>58472.88</v>
+      </c>
+      <c r="O30" s="86">
         <f t="shared" si="3"/>
         <v>55337.78</v>
       </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19">
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86">
         <f t="shared" si="3"/>
-        <v>752447.33000000007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="4">
-        <f t="shared" ref="Q31:Q36" si="4">SUM(D31:P31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+        <v>810920.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79">
         <v>61</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="4">
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="79">
+        <v>65</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
+        <v>66</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <v>67</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
+        <v>68</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="D36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="E36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="F36" s="81">
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="G36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="H36" s="81">
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="I36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="J36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="K36" s="81">
+        <v>9993</v>
+      </c>
+      <c r="L36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="M36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="N36" s="81">
+        <v>8312</v>
+      </c>
+      <c r="O36" s="81">
+        <v>7790</v>
+      </c>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="82">
+        <f t="shared" si="2"/>
+        <v>107361.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="69">
+        <f t="shared" ref="C37:F37" si="4">SUM(C32:C36)</f>
+        <v>7790</v>
+      </c>
+      <c r="D37" s="69">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>65</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="4">
+        <v>7790</v>
+      </c>
+      <c r="E37" s="69">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>66</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="4">
+        <v>7790</v>
+      </c>
+      <c r="F37" s="69">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>67</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>68</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="13">
-        <v>8312</v>
-      </c>
-      <c r="D36" s="13">
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="G37" s="69">
+        <f>SUM(G32:G36)</f>
         <v>7790</v>
       </c>
-      <c r="E36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="F36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="H37" s="69">
+        <f t="shared" ref="H37:Q37" si="5">SUM(H32:H36)</f>
         <v>9473.2099999999991</v>
       </c>
-      <c r="H36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="I36" s="13">
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="J36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="K36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="L36" s="13">
-        <v>9993</v>
-      </c>
-      <c r="M36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="N36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="O36" s="13">
-        <v>7790</v>
-      </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="4">
-        <f t="shared" si="4"/>
-        <v>99049.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="19">
-        <f>SUM(C32:C36)</f>
-        <v>8312</v>
-      </c>
-      <c r="D37" s="19">
-        <f t="shared" ref="D37:G37" si="5">SUM(D32:D36)</f>
-        <v>7790</v>
-      </c>
-      <c r="E37" s="19">
+      <c r="I37" s="69">
         <f t="shared" si="5"/>
         <v>7790</v>
       </c>
-      <c r="F37" s="19">
+      <c r="J37" s="69">
         <f t="shared" si="5"/>
         <v>7790</v>
       </c>
-      <c r="G37" s="19">
+      <c r="K37" s="69">
         <f t="shared" si="5"/>
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="H37" s="19">
-        <f>SUM(H32:H36)</f>
+        <v>9993</v>
+      </c>
+      <c r="L37" s="69">
+        <f t="shared" si="5"/>
         <v>7790</v>
       </c>
-      <c r="I37" s="19">
-        <f t="shared" ref="I37:Q37" si="6">SUM(I32:I36)</f>
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="J37" s="19">
+      <c r="M37" s="69">
+        <f t="shared" si="5"/>
+        <v>7790</v>
+      </c>
+      <c r="N37" s="69">
+        <f t="shared" si="5"/>
+        <v>8312</v>
+      </c>
+      <c r="O37" s="69">
+        <f t="shared" si="5"/>
+        <v>7790</v>
+      </c>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69">
+        <f t="shared" si="5"/>
+        <v>107361.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="63">
+        <v>72</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="70">
+        <f t="shared" ref="C39:O39" si="6">+C4*0.03</f>
+        <v>1757.2446</v>
+      </c>
+      <c r="D39" s="70">
         <f t="shared" si="6"/>
-        <v>7790</v>
-      </c>
-      <c r="K37" s="19">
+        <v>1861.5978</v>
+      </c>
+      <c r="E39" s="70">
         <f t="shared" si="6"/>
-        <v>7790</v>
-      </c>
-      <c r="L37" s="19">
+        <v>1783.3328999999999</v>
+      </c>
+      <c r="F39" s="70">
         <f t="shared" si="6"/>
-        <v>9993</v>
-      </c>
-      <c r="M37" s="19">
+        <v>2570.3703</v>
+      </c>
+      <c r="G39" s="70">
         <f t="shared" si="6"/>
-        <v>7790</v>
-      </c>
-      <c r="N37" s="19">
+        <v>2311.29</v>
+      </c>
+      <c r="H39" s="70">
         <f t="shared" si="6"/>
-        <v>7790</v>
-      </c>
-      <c r="O37" s="19">
+        <v>2578.4198999999994</v>
+      </c>
+      <c r="I39" s="70">
         <f t="shared" si="6"/>
-        <v>7790</v>
-      </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19">
+        <v>1946.5274999999999</v>
+      </c>
+      <c r="J39" s="70">
         <f t="shared" si="6"/>
-        <v>99049.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="4">
-        <f t="shared" ref="Q38:Q46" si="7">SUM(D38:P38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>72</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="14">
-        <f>+C4*0.03</f>
-        <v>1871.2463999999998</v>
-      </c>
-      <c r="D39" s="14">
-        <f t="shared" ref="D39:O39" si="8">+D4*0.03</f>
-        <v>1757.2446</v>
-      </c>
-      <c r="E39" s="14">
+        <v>1745.9825999999998</v>
+      </c>
+      <c r="K39" s="70">
+        <f t="shared" si="6"/>
+        <v>2776.7444999999998</v>
+      </c>
+      <c r="L39" s="70">
+        <f t="shared" si="6"/>
+        <v>2393.4899999999998</v>
+      </c>
+      <c r="M39" s="70">
+        <f t="shared" si="6"/>
+        <v>1926.069</v>
+      </c>
+      <c r="N39" s="70">
+        <f t="shared" si="6"/>
+        <v>2003.5464000000002</v>
+      </c>
+      <c r="O39" s="70">
+        <f t="shared" si="6"/>
+        <v>1893.8334</v>
+      </c>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="66">
+        <f t="shared" si="2"/>
+        <v>27548.448899999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="63">
+        <v>79</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="70">
+        <f t="shared" ref="C40:O40" si="7">+C30*0.02</f>
+        <v>1015.6964</v>
+      </c>
+      <c r="D40" s="70">
+        <f t="shared" si="7"/>
+        <v>1085.2652</v>
+      </c>
+      <c r="E40" s="70">
+        <f t="shared" si="7"/>
+        <v>1033.0886</v>
+      </c>
+      <c r="F40" s="70">
+        <f t="shared" si="7"/>
+        <v>1524.116</v>
+      </c>
+      <c r="G40" s="70">
+        <f t="shared" si="7"/>
+        <v>1385.06</v>
+      </c>
+      <c r="H40" s="70">
+        <f t="shared" si="7"/>
+        <v>1529.4823999999999</v>
+      </c>
+      <c r="I40" s="70">
+        <f t="shared" si="7"/>
+        <v>1141.885</v>
+      </c>
+      <c r="J40" s="70">
+        <f t="shared" si="7"/>
+        <v>1008.1884</v>
+      </c>
+      <c r="K40" s="70">
+        <f t="shared" si="7"/>
+        <v>1651.3029999999999</v>
+      </c>
+      <c r="L40" s="70">
+        <f t="shared" si="7"/>
+        <v>1439.8600000000001</v>
+      </c>
+      <c r="M40" s="70">
+        <f t="shared" si="7"/>
+        <v>1128.2460000000001</v>
+      </c>
+      <c r="N40" s="70">
+        <f t="shared" si="7"/>
+        <v>1169.4576</v>
+      </c>
+      <c r="O40" s="70">
+        <f t="shared" si="7"/>
+        <v>1106.7556</v>
+      </c>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="66">
+        <f t="shared" si="2"/>
+        <v>16218.404199999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="63">
+        <v>81</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="70">
+        <f t="shared" ref="C41:O41" si="8">+C30*0.11</f>
+        <v>5586.3302000000003</v>
+      </c>
+      <c r="D41" s="70">
         <f t="shared" si="8"/>
-        <v>1861.5978</v>
-      </c>
-      <c r="F39" s="14">
+        <v>5968.9585999999999</v>
+      </c>
+      <c r="E41" s="70">
         <f t="shared" si="8"/>
-        <v>1783.3328999999999</v>
-      </c>
-      <c r="G39" s="14">
+        <v>5681.9872999999998</v>
+      </c>
+      <c r="F41" s="70">
         <f t="shared" si="8"/>
-        <v>2570.3703</v>
-      </c>
-      <c r="H39" s="14">
+        <v>8382.6380000000008</v>
+      </c>
+      <c r="G41" s="70">
         <f t="shared" si="8"/>
-        <v>2311.29</v>
-      </c>
-      <c r="I39" s="14">
+        <v>7617.83</v>
+      </c>
+      <c r="H41" s="70">
         <f t="shared" si="8"/>
-        <v>2578.4198999999994</v>
-      </c>
-      <c r="J39" s="14">
+        <v>8412.1531999999988</v>
+      </c>
+      <c r="I41" s="70">
         <f t="shared" si="8"/>
-        <v>1946.5274999999999</v>
-      </c>
-      <c r="K39" s="14">
+        <v>6280.3675000000003</v>
+      </c>
+      <c r="J41" s="70">
         <f t="shared" si="8"/>
-        <v>1745.9825999999998</v>
-      </c>
-      <c r="L39" s="14">
+        <v>5545.0361999999996</v>
+      </c>
+      <c r="K41" s="70">
         <f t="shared" si="8"/>
-        <v>2776.7444999999998</v>
-      </c>
-      <c r="M39" s="14">
+        <v>9082.1664999999994</v>
+      </c>
+      <c r="L41" s="70">
         <f t="shared" si="8"/>
-        <v>2393.4899999999998</v>
-      </c>
-      <c r="N39" s="14">
+        <v>7919.2300000000005</v>
+      </c>
+      <c r="M41" s="70">
         <f t="shared" si="8"/>
-        <v>1926.069</v>
-      </c>
-      <c r="O39" s="14">
+        <v>6205.3530000000001</v>
+      </c>
+      <c r="N41" s="70">
         <f t="shared" si="8"/>
-        <v>1893.8334</v>
-      </c>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="4">
-        <f t="shared" si="7"/>
-        <v>25544.902499999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+        <v>6432.0167999999994</v>
+      </c>
+      <c r="O41" s="70">
+        <f t="shared" si="8"/>
+        <v>6087.1557999999995</v>
+      </c>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="66">
+        <f t="shared" si="2"/>
+        <v>89201.223100000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="63">
+        <v>82</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="70">
+        <f t="shared" ref="C42:O42" si="9">+C30*0.03</f>
+        <v>1523.5445999999999</v>
+      </c>
+      <c r="D42" s="70">
+        <f t="shared" si="9"/>
+        <v>1627.8978</v>
+      </c>
+      <c r="E42" s="70">
+        <f t="shared" si="9"/>
+        <v>1549.6329000000001</v>
+      </c>
+      <c r="F42" s="70">
+        <f t="shared" si="9"/>
+        <v>2286.174</v>
+      </c>
+      <c r="G42" s="70">
+        <f t="shared" si="9"/>
+        <v>2077.59</v>
+      </c>
+      <c r="H42" s="70">
+        <f t="shared" si="9"/>
+        <v>2294.2235999999998</v>
+      </c>
+      <c r="I42" s="70">
+        <f t="shared" si="9"/>
+        <v>1712.8274999999999</v>
+      </c>
+      <c r="J42" s="70">
+        <f t="shared" si="9"/>
+        <v>1512.2826</v>
+      </c>
+      <c r="K42" s="70">
+        <f t="shared" si="9"/>
+        <v>2476.9544999999998</v>
+      </c>
+      <c r="L42" s="70">
+        <f t="shared" si="9"/>
+        <v>2159.79</v>
+      </c>
+      <c r="M42" s="70">
+        <f t="shared" si="9"/>
+        <v>1692.3689999999999</v>
+      </c>
+      <c r="N42" s="70">
+        <f t="shared" si="9"/>
+        <v>1754.1863999999998</v>
+      </c>
+      <c r="O42" s="70">
+        <f t="shared" si="9"/>
+        <v>1660.1333999999999</v>
+      </c>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="66">
+        <f t="shared" si="2"/>
+        <v>24327.606299999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="63">
+        <v>83</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="70">
+        <f t="shared" ref="C43:O43" si="10">+C30*0.0075</f>
+        <v>380.88614999999999</v>
+      </c>
+      <c r="D43" s="70">
+        <f t="shared" si="10"/>
+        <v>406.97444999999999</v>
+      </c>
+      <c r="E43" s="70">
+        <f t="shared" si="10"/>
+        <v>387.40822500000002</v>
+      </c>
+      <c r="F43" s="70">
+        <f t="shared" si="10"/>
+        <v>571.54349999999999</v>
+      </c>
+      <c r="G43" s="70">
+        <f t="shared" si="10"/>
+        <v>519.39750000000004</v>
+      </c>
+      <c r="H43" s="70">
+        <f t="shared" si="10"/>
+        <v>573.55589999999995</v>
+      </c>
+      <c r="I43" s="70">
+        <f t="shared" si="10"/>
+        <v>428.20687499999997</v>
+      </c>
+      <c r="J43" s="70">
+        <f t="shared" si="10"/>
+        <v>378.07065</v>
+      </c>
+      <c r="K43" s="70">
+        <f t="shared" si="10"/>
+        <v>619.23862499999996</v>
+      </c>
+      <c r="L43" s="70">
+        <f t="shared" si="10"/>
+        <v>539.94749999999999</v>
+      </c>
+      <c r="M43" s="70">
+        <f t="shared" si="10"/>
+        <v>423.09224999999998</v>
+      </c>
+      <c r="N43" s="70">
+        <f t="shared" si="10"/>
+        <v>438.54659999999996</v>
+      </c>
+      <c r="O43" s="70">
+        <f t="shared" si="10"/>
+        <v>415.03334999999998</v>
+      </c>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="66">
+        <f t="shared" si="2"/>
+        <v>6081.901574999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63">
+        <v>85</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="70">
+        <f t="shared" ref="C44:O44" si="11">+C37*0.02</f>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="D44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="E44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="F44" s="70">
+        <f t="shared" si="11"/>
+        <v>189.46419999999998</v>
+      </c>
+      <c r="G44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="H44" s="70">
+        <f t="shared" si="11"/>
+        <v>189.46419999999998</v>
+      </c>
+      <c r="I44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="J44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="K44" s="70">
+        <f t="shared" si="11"/>
+        <v>199.86</v>
+      </c>
+      <c r="L44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="M44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="N44" s="70">
+        <f t="shared" si="11"/>
+        <v>166.24</v>
+      </c>
+      <c r="O44" s="70">
+        <f t="shared" si="11"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="66">
+        <f t="shared" si="2"/>
+        <v>2147.2284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63">
+        <v>87</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="70">
+        <f t="shared" ref="C45:O45" si="12">+C30*0.015</f>
+        <v>761.77229999999997</v>
+      </c>
+      <c r="D45" s="70">
+        <f t="shared" si="12"/>
+        <v>813.94889999999998</v>
+      </c>
+      <c r="E45" s="70">
+        <f t="shared" si="12"/>
+        <v>774.81645000000003</v>
+      </c>
+      <c r="F45" s="70">
+        <f t="shared" si="12"/>
+        <v>1143.087</v>
+      </c>
+      <c r="G45" s="70">
+        <f t="shared" si="12"/>
+        <v>1038.7950000000001</v>
+      </c>
+      <c r="H45" s="70">
+        <f t="shared" si="12"/>
+        <v>1147.1117999999999</v>
+      </c>
+      <c r="I45" s="70">
+        <f t="shared" si="12"/>
+        <v>856.41374999999994</v>
+      </c>
+      <c r="J45" s="70">
+        <f t="shared" si="12"/>
+        <v>756.1413</v>
+      </c>
+      <c r="K45" s="70">
+        <f t="shared" si="12"/>
+        <v>1238.4772499999999</v>
+      </c>
+      <c r="L45" s="70">
+        <f t="shared" si="12"/>
+        <v>1079.895</v>
+      </c>
+      <c r="M45" s="70">
+        <f t="shared" si="12"/>
+        <v>846.18449999999996</v>
+      </c>
+      <c r="N45" s="70">
+        <f t="shared" si="12"/>
+        <v>877.09319999999991</v>
+      </c>
+      <c r="O45" s="70">
+        <f t="shared" si="12"/>
+        <v>830.06669999999997</v>
+      </c>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="66">
+        <f t="shared" si="2"/>
+        <v>12163.803149999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="63">
+        <v>91</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="70">
+        <v>650</v>
+      </c>
+      <c r="D46" s="70">
+        <v>650</v>
+      </c>
+      <c r="E46" s="70">
+        <v>650</v>
+      </c>
+      <c r="F46" s="70">
+        <v>1630</v>
+      </c>
+      <c r="G46" s="70">
+        <v>650</v>
+      </c>
+      <c r="H46" s="70">
+        <v>1630</v>
+      </c>
+      <c r="I46" s="70">
+        <v>4330</v>
+      </c>
+      <c r="J46" s="70">
+        <v>0</v>
+      </c>
+      <c r="K46" s="70">
+        <v>1630</v>
+      </c>
+      <c r="L46" s="70">
+        <v>800</v>
+      </c>
+      <c r="M46" s="70">
+        <v>800</v>
+      </c>
+      <c r="N46" s="70">
+        <v>650</v>
+      </c>
+      <c r="O46" s="70">
+        <v>8730</v>
+      </c>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="66">
+        <f t="shared" si="2"/>
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71"/>
+      <c r="B47" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="69">
+        <f t="shared" ref="C47:Q47" si="13">SUM(C39:C46)</f>
+        <v>11831.274249999999</v>
+      </c>
+      <c r="D47" s="69">
+        <f t="shared" si="13"/>
+        <v>12570.442749999998</v>
+      </c>
+      <c r="E47" s="69">
+        <f t="shared" si="13"/>
+        <v>12016.066374999999</v>
+      </c>
+      <c r="F47" s="69">
+        <f t="shared" si="13"/>
+        <v>18297.393000000004</v>
+      </c>
+      <c r="G47" s="69">
+        <f t="shared" si="13"/>
+        <v>15755.762499999999</v>
+      </c>
+      <c r="H47" s="69">
+        <f t="shared" si="13"/>
+        <v>18354.410999999996</v>
+      </c>
+      <c r="I47" s="69">
+        <f t="shared" si="13"/>
+        <v>16852.028124999997</v>
+      </c>
+      <c r="J47" s="69">
+        <f t="shared" si="13"/>
+        <v>11101.501749999998</v>
+      </c>
+      <c r="K47" s="69">
+        <f t="shared" si="13"/>
+        <v>19674.744374999998</v>
+      </c>
+      <c r="L47" s="69">
+        <f t="shared" si="13"/>
+        <v>16488.012499999997</v>
+      </c>
+      <c r="M47" s="69">
+        <f t="shared" si="13"/>
+        <v>13177.113749999999</v>
+      </c>
+      <c r="N47" s="69">
+        <f t="shared" si="13"/>
+        <v>13491.086999999998</v>
+      </c>
+      <c r="O47" s="69">
+        <f t="shared" si="13"/>
+        <v>20878.778249999999</v>
+      </c>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69">
+        <f t="shared" si="13"/>
+        <v>200488.61562499998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="72"/>
+      <c r="B48" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="65">
+        <f t="shared" ref="C48:O48" si="14">+C30+C37-C47</f>
+        <v>46743.545750000005</v>
+      </c>
+      <c r="D48" s="65">
+        <f t="shared" si="14"/>
+        <v>49482.817250000007</v>
+      </c>
+      <c r="E48" s="65">
+        <f t="shared" si="14"/>
+        <v>47428.363624999998</v>
+      </c>
+      <c r="F48" s="65">
+        <f t="shared" si="14"/>
+        <v>67381.616999999998</v>
+      </c>
+      <c r="G48" s="65">
+        <f t="shared" si="14"/>
+        <v>61287.237500000003</v>
+      </c>
+      <c r="H48" s="65">
+        <f t="shared" si="14"/>
+        <v>67592.918999999994</v>
+      </c>
+      <c r="I48" s="65">
+        <f t="shared" si="14"/>
+        <v>48032.221875000003</v>
+      </c>
+      <c r="J48" s="65">
+        <f t="shared" si="14"/>
+        <v>47097.918250000002</v>
+      </c>
+      <c r="K48" s="65">
+        <f t="shared" si="14"/>
+        <v>72883.405624999999</v>
+      </c>
+      <c r="L48" s="65">
+        <f t="shared" si="14"/>
+        <v>63294.987500000003</v>
+      </c>
+      <c r="M48" s="65">
+        <f t="shared" si="14"/>
+        <v>51025.186250000006</v>
+      </c>
+      <c r="N48" s="65">
+        <f t="shared" si="14"/>
+        <v>53293.793000000005</v>
+      </c>
+      <c r="O48" s="65">
+        <f t="shared" si="14"/>
+        <v>42249.001749999996</v>
+      </c>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="74">
+        <f>+Q30+Q37-Q47</f>
+        <v>717793.01437500003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="72"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="73"/>
+    </row>
+    <row r="50" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="76">
+        <f>+C30</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D50" s="76">
+        <f t="shared" ref="D50:O50" si="15">+D30</f>
+        <v>54263.26</v>
+      </c>
+      <c r="E50" s="76">
+        <f t="shared" si="15"/>
+        <v>51654.43</v>
+      </c>
+      <c r="F50" s="76">
+        <f t="shared" si="15"/>
+        <v>76205.8</v>
+      </c>
+      <c r="G50" s="76">
+        <f t="shared" si="15"/>
+        <v>69253</v>
+      </c>
+      <c r="H50" s="76">
+        <f t="shared" si="15"/>
+        <v>76474.12</v>
+      </c>
+      <c r="I50" s="76">
+        <f t="shared" si="15"/>
+        <v>57094.25</v>
+      </c>
+      <c r="J50" s="76">
+        <f t="shared" si="15"/>
+        <v>50409.42</v>
+      </c>
+      <c r="K50" s="76">
+        <f t="shared" si="15"/>
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L50" s="76">
+        <f t="shared" si="15"/>
+        <v>71993</v>
+      </c>
+      <c r="M50" s="76">
+        <f t="shared" si="15"/>
+        <v>56412.3</v>
+      </c>
+      <c r="N50" s="76">
+        <f t="shared" si="15"/>
+        <v>58472.88</v>
+      </c>
+      <c r="O50" s="76">
+        <f t="shared" si="15"/>
+        <v>55337.78</v>
+      </c>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="77">
+        <f>SUM(C50:O50)</f>
+        <v>810920.21000000008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="76">
+        <f>+C30</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D51" s="76">
+        <f t="shared" ref="D51:O51" si="16">+D30</f>
+        <v>54263.26</v>
+      </c>
+      <c r="E51" s="76">
+        <f t="shared" si="16"/>
+        <v>51654.43</v>
+      </c>
+      <c r="F51" s="76">
+        <f t="shared" si="16"/>
+        <v>76205.8</v>
+      </c>
+      <c r="G51" s="76">
+        <f t="shared" si="16"/>
+        <v>69253</v>
+      </c>
+      <c r="H51" s="76">
+        <f t="shared" si="16"/>
+        <v>76474.12</v>
+      </c>
+      <c r="I51" s="76">
+        <f t="shared" si="16"/>
+        <v>57094.25</v>
+      </c>
+      <c r="J51" s="76">
+        <f t="shared" si="16"/>
+        <v>50409.42</v>
+      </c>
+      <c r="K51" s="76">
+        <f t="shared" si="16"/>
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L51" s="76">
+        <f t="shared" si="16"/>
+        <v>71993</v>
+      </c>
+      <c r="M51" s="76">
+        <f t="shared" si="16"/>
+        <v>56412.3</v>
+      </c>
+      <c r="N51" s="76">
+        <f t="shared" si="16"/>
+        <v>58472.88</v>
+      </c>
+      <c r="O51" s="76">
+        <f t="shared" si="16"/>
+        <v>55337.78</v>
+      </c>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="77">
+        <f t="shared" ref="Q51:Q62" si="17">SUM(C51:O51)</f>
+        <v>810920.21000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="76">
+        <f>+C30</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D52" s="76">
+        <f t="shared" ref="D52:O52" si="18">+D30</f>
+        <v>54263.26</v>
+      </c>
+      <c r="E52" s="76">
+        <f t="shared" si="18"/>
+        <v>51654.43</v>
+      </c>
+      <c r="F52" s="76">
+        <f t="shared" si="18"/>
+        <v>76205.8</v>
+      </c>
+      <c r="G52" s="76">
+        <f t="shared" si="18"/>
+        <v>69253</v>
+      </c>
+      <c r="H52" s="76">
+        <f t="shared" si="18"/>
+        <v>76474.12</v>
+      </c>
+      <c r="I52" s="76">
+        <f t="shared" si="18"/>
+        <v>57094.25</v>
+      </c>
+      <c r="J52" s="76">
+        <f t="shared" si="18"/>
+        <v>50409.42</v>
+      </c>
+      <c r="K52" s="76">
+        <f t="shared" si="18"/>
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L52" s="76">
+        <f t="shared" si="18"/>
+        <v>71993</v>
+      </c>
+      <c r="M52" s="76">
+        <f t="shared" si="18"/>
+        <v>56412.3</v>
+      </c>
+      <c r="N52" s="76">
+        <f t="shared" si="18"/>
+        <v>58472.88</v>
+      </c>
+      <c r="O52" s="76">
+        <f t="shared" si="18"/>
+        <v>55337.78</v>
+      </c>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="77">
+        <f t="shared" si="17"/>
+        <v>810920.21000000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="14">
-        <f>+C30*0.02</f>
-        <v>1081.2575999999999</v>
-      </c>
-      <c r="D40" s="14">
-        <f t="shared" ref="D40:O40" si="9">+D30*0.02</f>
-        <v>1015.6964</v>
-      </c>
-      <c r="E40" s="14">
-        <f t="shared" si="9"/>
-        <v>1085.2652</v>
-      </c>
-      <c r="F40" s="14">
-        <f t="shared" si="9"/>
-        <v>1033.0886</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="9"/>
-        <v>1524.116</v>
-      </c>
-      <c r="H40" s="14">
-        <f t="shared" si="9"/>
-        <v>1385.06</v>
-      </c>
-      <c r="I40" s="14">
-        <f t="shared" si="9"/>
-        <v>1529.4823999999999</v>
-      </c>
-      <c r="J40" s="14">
-        <f t="shared" si="9"/>
-        <v>1141.885</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="9"/>
-        <v>1008.1884</v>
-      </c>
-      <c r="L40" s="14">
-        <f t="shared" si="9"/>
-        <v>1651.3029999999999</v>
-      </c>
-      <c r="M40" s="14">
-        <f t="shared" si="9"/>
-        <v>1439.8600000000001</v>
-      </c>
-      <c r="N40" s="14">
-        <f t="shared" si="9"/>
-        <v>1128.2460000000001</v>
-      </c>
-      <c r="O40" s="14">
-        <f t="shared" si="9"/>
-        <v>1106.7556</v>
-      </c>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="4">
-        <f t="shared" si="7"/>
-        <v>15048.946599999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="B53" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="76">
+        <f>+C37+C30</f>
+        <v>58574.82</v>
+      </c>
+      <c r="D53" s="76">
+        <f t="shared" ref="D53:O53" si="19">+D37+D30</f>
+        <v>62053.26</v>
+      </c>
+      <c r="E53" s="76">
+        <f t="shared" si="19"/>
+        <v>59444.43</v>
+      </c>
+      <c r="F53" s="76">
+        <f t="shared" si="19"/>
+        <v>85679.010000000009</v>
+      </c>
+      <c r="G53" s="76">
+        <f t="shared" si="19"/>
+        <v>77043</v>
+      </c>
+      <c r="H53" s="76">
+        <f t="shared" si="19"/>
+        <v>85947.329999999987</v>
+      </c>
+      <c r="I53" s="76">
+        <f t="shared" si="19"/>
+        <v>64884.25</v>
+      </c>
+      <c r="J53" s="76">
+        <f t="shared" si="19"/>
+        <v>58199.42</v>
+      </c>
+      <c r="K53" s="76">
+        <f t="shared" si="19"/>
+        <v>92558.15</v>
+      </c>
+      <c r="L53" s="76">
+        <f t="shared" si="19"/>
+        <v>79783</v>
+      </c>
+      <c r="M53" s="76">
+        <f t="shared" si="19"/>
+        <v>64202.3</v>
+      </c>
+      <c r="N53" s="76">
+        <f t="shared" si="19"/>
+        <v>66784.88</v>
+      </c>
+      <c r="O53" s="76">
+        <f t="shared" si="19"/>
+        <v>63127.78</v>
+      </c>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="77">
+        <f t="shared" si="17"/>
+        <v>918281.63000000012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="14">
-        <f>+C30*0.11</f>
-        <v>5946.9168</v>
-      </c>
-      <c r="D41" s="14">
-        <f t="shared" ref="D41:O41" si="10">+D30*0.11</f>
-        <v>5586.3302000000003</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" si="10"/>
-        <v>5968.9585999999999</v>
-      </c>
-      <c r="F41" s="14">
-        <f t="shared" si="10"/>
-        <v>5681.9872999999998</v>
-      </c>
-      <c r="G41" s="14">
-        <f t="shared" si="10"/>
-        <v>8382.6380000000008</v>
-      </c>
-      <c r="H41" s="14">
-        <f t="shared" si="10"/>
-        <v>7617.83</v>
-      </c>
-      <c r="I41" s="14">
-        <f t="shared" si="10"/>
-        <v>8412.1531999999988</v>
-      </c>
-      <c r="J41" s="14">
-        <f t="shared" si="10"/>
-        <v>6280.3675000000003</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="10"/>
-        <v>5545.0361999999996</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" si="10"/>
-        <v>9082.1664999999994</v>
-      </c>
-      <c r="M41" s="14">
-        <f t="shared" si="10"/>
-        <v>7919.2300000000005</v>
-      </c>
-      <c r="N41" s="14">
-        <f t="shared" si="10"/>
-        <v>6205.3530000000001</v>
-      </c>
-      <c r="O41" s="14">
-        <f t="shared" si="10"/>
-        <v>6087.1557999999995</v>
-      </c>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="4">
-        <f t="shared" si="7"/>
-        <v>82769.206300000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="B54" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="14">
-        <f>+C30*0.03</f>
-        <v>1621.8863999999999</v>
-      </c>
-      <c r="D42" s="14">
-        <f t="shared" ref="D42:O42" si="11">+D30*0.03</f>
-        <v>1523.5445999999999</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="11"/>
-        <v>1627.8978</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="11"/>
-        <v>1549.6329000000001</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="11"/>
-        <v>2286.174</v>
-      </c>
-      <c r="H42" s="14">
-        <f t="shared" si="11"/>
-        <v>2077.59</v>
-      </c>
-      <c r="I42" s="14">
-        <f t="shared" si="11"/>
-        <v>2294.2235999999998</v>
-      </c>
-      <c r="J42" s="14">
-        <f t="shared" si="11"/>
-        <v>1712.8274999999999</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="11"/>
-        <v>1512.2826</v>
-      </c>
-      <c r="L42" s="14">
-        <f t="shared" si="11"/>
-        <v>2476.9544999999998</v>
-      </c>
-      <c r="M42" s="14">
-        <f t="shared" si="11"/>
-        <v>2159.79</v>
-      </c>
-      <c r="N42" s="14">
-        <f t="shared" si="11"/>
-        <v>1692.3689999999999</v>
-      </c>
-      <c r="O42" s="14">
-        <f t="shared" si="11"/>
-        <v>1660.1333999999999</v>
-      </c>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="4">
-        <f t="shared" si="7"/>
-        <v>22573.419899999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>83</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="14">
-        <f>+C30*0.0075</f>
-        <v>405.47159999999997</v>
-      </c>
-      <c r="D43" s="14">
-        <f t="shared" ref="D43:O43" si="12">+D30*0.0075</f>
-        <v>380.88614999999999</v>
-      </c>
-      <c r="E43" s="14">
-        <f t="shared" si="12"/>
-        <v>406.97444999999999</v>
-      </c>
-      <c r="F43" s="14">
-        <f t="shared" si="12"/>
-        <v>387.40822500000002</v>
-      </c>
-      <c r="G43" s="14">
-        <f t="shared" si="12"/>
-        <v>571.54349999999999</v>
-      </c>
-      <c r="H43" s="14">
-        <f t="shared" si="12"/>
-        <v>519.39750000000004</v>
-      </c>
-      <c r="I43" s="14">
-        <f t="shared" si="12"/>
-        <v>573.55589999999995</v>
-      </c>
-      <c r="J43" s="14">
-        <f t="shared" si="12"/>
-        <v>428.20687499999997</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="shared" si="12"/>
-        <v>378.07065</v>
-      </c>
-      <c r="L43" s="14">
-        <f t="shared" si="12"/>
-        <v>619.23862499999996</v>
-      </c>
-      <c r="M43" s="14">
-        <f t="shared" si="12"/>
-        <v>539.94749999999999</v>
-      </c>
-      <c r="N43" s="14">
-        <f t="shared" si="12"/>
-        <v>423.09224999999998</v>
-      </c>
-      <c r="O43" s="14">
-        <f t="shared" si="12"/>
-        <v>415.03334999999998</v>
-      </c>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="4">
-        <f t="shared" si="7"/>
-        <v>5643.3549749999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>85</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="14">
-        <f>+C37*0.02</f>
-        <v>166.24</v>
-      </c>
-      <c r="D44" s="14">
-        <f t="shared" ref="D44:O44" si="13">+D37*0.02</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="E44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="F44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="G44" s="14">
-        <f t="shared" si="13"/>
-        <v>189.46419999999998</v>
-      </c>
-      <c r="H44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="I44" s="14">
-        <f t="shared" si="13"/>
-        <v>189.46419999999998</v>
-      </c>
-      <c r="J44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="K44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="L44" s="14">
-        <f t="shared" si="13"/>
-        <v>199.86</v>
-      </c>
-      <c r="M44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="N44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="O44" s="14">
-        <f t="shared" si="13"/>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="4">
-        <f t="shared" si="7"/>
-        <v>1980.9884</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>87</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="14">
-        <f>+C30*0.015</f>
-        <v>810.94319999999993</v>
-      </c>
-      <c r="D45" s="14">
-        <f t="shared" ref="D45:O45" si="14">+D30*0.015</f>
-        <v>761.77229999999997</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="14"/>
-        <v>813.94889999999998</v>
-      </c>
-      <c r="F45" s="14">
-        <f t="shared" si="14"/>
-        <v>774.81645000000003</v>
-      </c>
-      <c r="G45" s="14">
-        <f t="shared" si="14"/>
-        <v>1143.087</v>
-      </c>
-      <c r="H45" s="14">
-        <f t="shared" si="14"/>
-        <v>1038.7950000000001</v>
-      </c>
-      <c r="I45" s="14">
-        <f t="shared" si="14"/>
-        <v>1147.1117999999999</v>
-      </c>
-      <c r="J45" s="14">
-        <f t="shared" si="14"/>
-        <v>856.41374999999994</v>
-      </c>
-      <c r="K45" s="14">
-        <f t="shared" si="14"/>
-        <v>756.1413</v>
-      </c>
-      <c r="L45" s="14">
-        <f t="shared" si="14"/>
-        <v>1238.4772499999999</v>
-      </c>
-      <c r="M45" s="14">
-        <f t="shared" si="14"/>
-        <v>1079.895</v>
-      </c>
-      <c r="N45" s="14">
-        <f t="shared" si="14"/>
-        <v>846.18449999999996</v>
-      </c>
-      <c r="O45" s="14">
-        <f t="shared" si="14"/>
-        <v>830.06669999999997</v>
-      </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="4">
-        <f t="shared" si="7"/>
-        <v>11286.709949999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>91</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="14">
-        <v>650</v>
-      </c>
-      <c r="D46" s="14">
-        <v>650</v>
-      </c>
-      <c r="E46" s="14">
-        <v>650</v>
-      </c>
-      <c r="F46" s="14">
-        <v>650</v>
-      </c>
-      <c r="G46" s="14">
-        <v>1630</v>
-      </c>
-      <c r="H46" s="14">
-        <v>650</v>
-      </c>
-      <c r="I46" s="14">
-        <v>1630</v>
-      </c>
-      <c r="J46" s="14">
-        <v>4330</v>
-      </c>
-      <c r="K46" s="14">
-        <v>0</v>
-      </c>
-      <c r="L46" s="14">
-        <v>1630</v>
-      </c>
-      <c r="M46" s="14">
-        <v>800</v>
-      </c>
-      <c r="N46" s="14">
-        <v>800</v>
-      </c>
-      <c r="O46" s="14">
-        <v>8730</v>
-      </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="4">
-        <f t="shared" si="7"/>
-        <v>22150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="19">
-        <f>SUM(C39:C46)</f>
-        <v>12553.962</v>
-      </c>
-      <c r="D47" s="19">
-        <f t="shared" ref="D47:Q47" si="15">SUM(D39:D46)</f>
-        <v>11831.274249999999</v>
-      </c>
-      <c r="E47" s="19">
-        <f t="shared" si="15"/>
-        <v>12570.442749999998</v>
-      </c>
-      <c r="F47" s="19">
-        <f t="shared" si="15"/>
-        <v>12016.066374999999</v>
-      </c>
-      <c r="G47" s="19">
-        <f t="shared" si="15"/>
-        <v>18297.393000000004</v>
-      </c>
-      <c r="H47" s="19">
-        <f t="shared" si="15"/>
-        <v>15755.762499999999</v>
-      </c>
-      <c r="I47" s="19">
-        <f t="shared" si="15"/>
-        <v>18354.410999999996</v>
-      </c>
-      <c r="J47" s="19">
-        <f t="shared" si="15"/>
-        <v>16852.028124999997</v>
-      </c>
-      <c r="K47" s="19">
-        <f t="shared" si="15"/>
-        <v>11101.501749999998</v>
-      </c>
-      <c r="L47" s="19">
-        <f t="shared" si="15"/>
-        <v>19674.744374999998</v>
-      </c>
-      <c r="M47" s="19">
-        <f t="shared" si="15"/>
-        <v>16488.012499999997</v>
-      </c>
-      <c r="N47" s="19">
-        <f t="shared" si="15"/>
-        <v>13177.113749999999</v>
-      </c>
-      <c r="O47" s="19">
-        <f t="shared" si="15"/>
-        <v>20878.778249999999</v>
-      </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19">
-        <f t="shared" si="15"/>
-        <v>186997.52862499998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="13">
-        <f>+C30+C37-C47</f>
-        <v>49820.917999999998</v>
-      </c>
-      <c r="D48" s="13">
-        <f t="shared" ref="D48:O48" si="16">+D30+D37-D47</f>
-        <v>46743.545750000005</v>
-      </c>
-      <c r="E48" s="13">
-        <f t="shared" si="16"/>
-        <v>49482.817250000007</v>
-      </c>
-      <c r="F48" s="13">
-        <f t="shared" si="16"/>
-        <v>47428.363624999998</v>
-      </c>
-      <c r="G48" s="13">
-        <f t="shared" si="16"/>
-        <v>67381.616999999998</v>
-      </c>
-      <c r="H48" s="13">
-        <f t="shared" si="16"/>
-        <v>61287.237500000003</v>
-      </c>
-      <c r="I48" s="13">
-        <f t="shared" si="16"/>
-        <v>67592.918999999994</v>
-      </c>
-      <c r="J48" s="13">
-        <f t="shared" si="16"/>
-        <v>48032.221875000003</v>
-      </c>
-      <c r="K48" s="13">
-        <f t="shared" si="16"/>
-        <v>47097.918250000002</v>
-      </c>
-      <c r="L48" s="13">
-        <f t="shared" si="16"/>
-        <v>72883.405624999999</v>
-      </c>
-      <c r="M48" s="13">
-        <f t="shared" si="16"/>
-        <v>63294.987500000003</v>
-      </c>
-      <c r="N48" s="13">
-        <f t="shared" si="16"/>
-        <v>51025.186250000006</v>
-      </c>
-      <c r="O48" s="13">
-        <f t="shared" si="16"/>
-        <v>42249.001749999996</v>
-      </c>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="2">
-        <f>+Q30+Q37-Q47</f>
-        <v>664499.2213750002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="1"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="36">
+      <c r="C54" s="76">
         <f>+C30</f>
-        <v>54062.879999999997</v>
-      </c>
-      <c r="D50" s="36">
-        <f>+D30</f>
         <v>50784.82</v>
       </c>
-      <c r="E50" s="36">
-        <f t="shared" ref="E50:O50" si="17">+E30</f>
+      <c r="D54" s="76">
+        <f t="shared" ref="D54:O54" si="20">+D30</f>
         <v>54263.26</v>
       </c>
-      <c r="F50" s="36">
-        <f t="shared" si="17"/>
-        <v>51654.43</v>
-      </c>
-      <c r="G50" s="36">
-        <f t="shared" si="17"/>
-        <v>76205.8</v>
-      </c>
-      <c r="H50" s="36">
-        <f t="shared" si="17"/>
-        <v>69253</v>
-      </c>
-      <c r="I50" s="36">
-        <f t="shared" si="17"/>
-        <v>76474.12</v>
-      </c>
-      <c r="J50" s="36">
-        <f t="shared" si="17"/>
-        <v>57094.25</v>
-      </c>
-      <c r="K50" s="36">
-        <f t="shared" si="17"/>
-        <v>50409.42</v>
-      </c>
-      <c r="L50" s="36">
-        <f t="shared" si="17"/>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="M50" s="36">
-        <f t="shared" si="17"/>
-        <v>71993</v>
-      </c>
-      <c r="N50" s="36">
-        <f t="shared" si="17"/>
-        <v>56412.3</v>
-      </c>
-      <c r="O50" s="36">
-        <f t="shared" si="17"/>
-        <v>55337.78</v>
-      </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="16">
-        <f t="shared" ref="Q50:Q62" si="18">SUM(D50:O50)</f>
-        <v>752447.33000000007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="36">
-        <f>+C30</f>
-        <v>54062.879999999997</v>
-      </c>
-      <c r="D51" s="36">
-        <f>+D30</f>
-        <v>50784.82</v>
-      </c>
-      <c r="E51" s="36">
-        <f t="shared" ref="E51:O51" si="19">+E30</f>
-        <v>54263.26</v>
-      </c>
-      <c r="F51" s="36">
-        <f t="shared" si="19"/>
-        <v>51654.43</v>
-      </c>
-      <c r="G51" s="36">
-        <f t="shared" si="19"/>
-        <v>76205.8</v>
-      </c>
-      <c r="H51" s="36">
-        <f t="shared" si="19"/>
-        <v>69253</v>
-      </c>
-      <c r="I51" s="36">
-        <f t="shared" si="19"/>
-        <v>76474.12</v>
-      </c>
-      <c r="J51" s="36">
-        <f t="shared" si="19"/>
-        <v>57094.25</v>
-      </c>
-      <c r="K51" s="36">
-        <f t="shared" si="19"/>
-        <v>50409.42</v>
-      </c>
-      <c r="L51" s="36">
-        <f t="shared" si="19"/>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="M51" s="36">
-        <f t="shared" si="19"/>
-        <v>71993</v>
-      </c>
-      <c r="N51" s="36">
-        <f t="shared" si="19"/>
-        <v>56412.3</v>
-      </c>
-      <c r="O51" s="36">
-        <f t="shared" si="19"/>
-        <v>55337.78</v>
-      </c>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="16">
-        <f t="shared" si="18"/>
-        <v>752447.33000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="36">
-        <f>+C30</f>
-        <v>54062.879999999997</v>
-      </c>
-      <c r="D52" s="36">
-        <f>+D30</f>
-        <v>50784.82</v>
-      </c>
-      <c r="E52" s="36">
-        <f t="shared" ref="E52:O52" si="20">+E30</f>
-        <v>54263.26</v>
-      </c>
-      <c r="F52" s="36">
+      <c r="E54" s="76">
         <f t="shared" si="20"/>
         <v>51654.43</v>
       </c>
-      <c r="G52" s="36">
+      <c r="F54" s="76">
         <f t="shared" si="20"/>
         <v>76205.8</v>
       </c>
-      <c r="H52" s="36">
+      <c r="G54" s="76">
         <f t="shared" si="20"/>
         <v>69253</v>
       </c>
-      <c r="I52" s="36">
+      <c r="H54" s="76">
         <f t="shared" si="20"/>
         <v>76474.12</v>
       </c>
-      <c r="J52" s="36">
+      <c r="I54" s="76">
         <f t="shared" si="20"/>
         <v>57094.25</v>
       </c>
-      <c r="K52" s="36">
+      <c r="J54" s="76">
         <f t="shared" si="20"/>
         <v>50409.42</v>
       </c>
-      <c r="L52" s="36">
+      <c r="K54" s="76">
         <f t="shared" si="20"/>
         <v>82565.149999999994</v>
       </c>
-      <c r="M52" s="36">
+      <c r="L54" s="76">
         <f t="shared" si="20"/>
         <v>71993</v>
       </c>
-      <c r="N52" s="36">
+      <c r="M54" s="76">
         <f t="shared" si="20"/>
         <v>56412.3</v>
       </c>
-      <c r="O52" s="36">
+      <c r="N54" s="76">
+        <f t="shared" si="20"/>
+        <v>58472.88</v>
+      </c>
+      <c r="O54" s="76">
         <f t="shared" si="20"/>
         <v>55337.78</v>
       </c>
-      <c r="Q52" s="16">
-        <f t="shared" si="18"/>
-        <v>752447.33000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="36">
+      <c r="P54" s="64"/>
+      <c r="Q54" s="77">
+        <f t="shared" si="17"/>
+        <v>810920.21000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="76">
+        <v>0</v>
+      </c>
+      <c r="D55" s="76">
+        <v>0</v>
+      </c>
+      <c r="E55" s="76">
+        <v>0</v>
+      </c>
+      <c r="F55" s="76">
+        <v>0</v>
+      </c>
+      <c r="G55" s="76">
+        <v>0</v>
+      </c>
+      <c r="H55" s="76">
+        <v>0</v>
+      </c>
+      <c r="I55" s="76">
+        <v>0</v>
+      </c>
+      <c r="J55" s="76">
+        <v>0</v>
+      </c>
+      <c r="K55" s="76">
+        <v>0</v>
+      </c>
+      <c r="L55" s="76">
+        <v>0</v>
+      </c>
+      <c r="M55" s="76">
+        <v>0</v>
+      </c>
+      <c r="N55" s="76">
+        <v>0</v>
+      </c>
+      <c r="O55" s="76">
+        <v>0</v>
+      </c>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="76">
+        <v>0</v>
+      </c>
+      <c r="D56" s="76">
+        <v>0</v>
+      </c>
+      <c r="E56" s="76">
+        <v>0</v>
+      </c>
+      <c r="F56" s="76">
+        <v>0</v>
+      </c>
+      <c r="G56" s="76">
+        <v>0</v>
+      </c>
+      <c r="H56" s="76">
+        <v>0</v>
+      </c>
+      <c r="I56" s="76">
+        <v>0</v>
+      </c>
+      <c r="J56" s="76">
+        <v>0</v>
+      </c>
+      <c r="K56" s="76">
+        <v>0</v>
+      </c>
+      <c r="L56" s="76">
+        <v>0</v>
+      </c>
+      <c r="M56" s="76">
+        <v>0</v>
+      </c>
+      <c r="N56" s="76">
+        <v>0</v>
+      </c>
+      <c r="O56" s="76">
+        <v>0</v>
+      </c>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="76">
         <f>+C37+C30</f>
-        <v>62374.879999999997</v>
-      </c>
-      <c r="D53" s="36">
-        <f>+D37+D30</f>
         <v>58574.82</v>
       </c>
-      <c r="E53" s="36">
-        <f t="shared" ref="E53:O53" si="21">+E37+E30</f>
+      <c r="D57" s="76">
+        <f t="shared" ref="D57:O57" si="21">+D37+D30</f>
         <v>62053.26</v>
       </c>
-      <c r="F53" s="36">
+      <c r="E57" s="76">
         <f t="shared" si="21"/>
         <v>59444.43</v>
       </c>
-      <c r="G53" s="36">
+      <c r="F57" s="76">
         <f t="shared" si="21"/>
         <v>85679.010000000009</v>
       </c>
-      <c r="H53" s="36">
+      <c r="G57" s="76">
         <f t="shared" si="21"/>
         <v>77043</v>
       </c>
-      <c r="I53" s="36">
+      <c r="H57" s="76">
         <f t="shared" si="21"/>
         <v>85947.329999999987</v>
       </c>
-      <c r="J53" s="36">
+      <c r="I57" s="76">
         <f t="shared" si="21"/>
         <v>64884.25</v>
       </c>
-      <c r="K53" s="36">
+      <c r="J57" s="76">
         <f t="shared" si="21"/>
         <v>58199.42</v>
       </c>
-      <c r="L53" s="36">
+      <c r="K57" s="76">
         <f t="shared" si="21"/>
         <v>92558.15</v>
       </c>
-      <c r="M53" s="36">
+      <c r="L57" s="76">
         <f t="shared" si="21"/>
         <v>79783</v>
       </c>
-      <c r="N53" s="36">
+      <c r="M57" s="76">
         <f t="shared" si="21"/>
         <v>64202.3</v>
       </c>
-      <c r="O53" s="36">
+      <c r="N57" s="76">
+        <f t="shared" si="21"/>
+        <v>66784.88</v>
+      </c>
+      <c r="O57" s="76">
         <f t="shared" si="21"/>
         <v>63127.78</v>
       </c>
-      <c r="Q53" s="16">
-        <f t="shared" si="18"/>
-        <v>851496.75000000012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="36">
-        <f>+C30</f>
-        <v>54062.879999999997</v>
-      </c>
-      <c r="D54" s="36">
-        <f>+D30</f>
-        <v>50784.82</v>
-      </c>
-      <c r="E54" s="36">
-        <f t="shared" ref="E54:O54" si="22">+E30</f>
-        <v>54263.26</v>
-      </c>
-      <c r="F54" s="36">
+      <c r="P57" s="75"/>
+      <c r="Q57" s="77">
+        <f t="shared" si="17"/>
+        <v>918281.63000000012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="76">
+        <f>+C37+C30</f>
+        <v>58574.82</v>
+      </c>
+      <c r="D58" s="76">
+        <f t="shared" ref="D58:O58" si="22">+D37+D30</f>
+        <v>62053.26</v>
+      </c>
+      <c r="E58" s="76">
         <f t="shared" si="22"/>
-        <v>51654.43</v>
-      </c>
-      <c r="G54" s="36">
+        <v>59444.43</v>
+      </c>
+      <c r="F58" s="76">
         <f t="shared" si="22"/>
-        <v>76205.8</v>
-      </c>
-      <c r="H54" s="36">
+        <v>85679.010000000009</v>
+      </c>
+      <c r="G58" s="76">
         <f t="shared" si="22"/>
-        <v>69253</v>
-      </c>
-      <c r="I54" s="36">
+        <v>77043</v>
+      </c>
+      <c r="H58" s="76">
         <f t="shared" si="22"/>
-        <v>76474.12</v>
-      </c>
-      <c r="J54" s="36">
+        <v>85947.329999999987</v>
+      </c>
+      <c r="I58" s="76">
         <f t="shared" si="22"/>
-        <v>57094.25</v>
-      </c>
-      <c r="K54" s="36">
+        <v>64884.25</v>
+      </c>
+      <c r="J58" s="76">
         <f t="shared" si="22"/>
-        <v>50409.42</v>
-      </c>
-      <c r="L54" s="36">
+        <v>58199.42</v>
+      </c>
+      <c r="K58" s="76">
         <f t="shared" si="22"/>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="M54" s="36">
+        <v>92558.15</v>
+      </c>
+      <c r="L58" s="76">
         <f t="shared" si="22"/>
-        <v>71993</v>
-      </c>
-      <c r="N54" s="36">
+        <v>79783</v>
+      </c>
+      <c r="M58" s="76">
         <f t="shared" si="22"/>
-        <v>56412.3</v>
-      </c>
-      <c r="O54" s="36">
+        <v>64202.3</v>
+      </c>
+      <c r="N58" s="76">
         <f t="shared" si="22"/>
-        <v>55337.78</v>
-      </c>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="16">
-        <f t="shared" si="18"/>
-        <v>752447.33000000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="36">
-        <v>0</v>
-      </c>
-      <c r="D55" s="36">
-        <v>0</v>
-      </c>
-      <c r="E55" s="36">
-        <v>0</v>
-      </c>
-      <c r="F55" s="36">
-        <v>0</v>
-      </c>
-      <c r="G55" s="36">
-        <v>0</v>
-      </c>
-      <c r="H55" s="36">
-        <v>0</v>
-      </c>
-      <c r="I55" s="36">
-        <v>0</v>
-      </c>
-      <c r="J55" s="36">
-        <v>0</v>
-      </c>
-      <c r="K55" s="36">
-        <v>0</v>
-      </c>
-      <c r="L55" s="36">
-        <v>0</v>
-      </c>
-      <c r="M55" s="36">
-        <v>0</v>
-      </c>
-      <c r="N55" s="36">
-        <v>0</v>
-      </c>
-      <c r="O55" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="36">
-        <v>0</v>
-      </c>
-      <c r="D56" s="36">
-        <v>0</v>
-      </c>
-      <c r="E56" s="36">
-        <v>0</v>
-      </c>
-      <c r="F56" s="36">
-        <v>0</v>
-      </c>
-      <c r="G56" s="36">
-        <v>0</v>
-      </c>
-      <c r="H56" s="36">
-        <v>0</v>
-      </c>
-      <c r="I56" s="36">
-        <v>0</v>
-      </c>
-      <c r="J56" s="36">
-        <v>0</v>
-      </c>
-      <c r="K56" s="36">
-        <v>0</v>
-      </c>
-      <c r="L56" s="36">
-        <v>0</v>
-      </c>
-      <c r="M56" s="36">
-        <v>0</v>
-      </c>
-      <c r="N56" s="36">
-        <v>0</v>
-      </c>
-      <c r="O56" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="36">
-        <f>+C37+C30</f>
-        <v>62374.879999999997</v>
-      </c>
-      <c r="D57" s="36">
-        <f>+D37+D30</f>
-        <v>58574.82</v>
-      </c>
-      <c r="E57" s="36">
-        <f t="shared" ref="E57:O57" si="23">+E37+E30</f>
-        <v>62053.26</v>
-      </c>
-      <c r="F57" s="36">
+        <v>66784.88</v>
+      </c>
+      <c r="O58" s="76">
+        <f t="shared" si="22"/>
+        <v>63127.78</v>
+      </c>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="77">
+        <f t="shared" si="17"/>
+        <v>918281.63000000012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="76">
+        <v>0</v>
+      </c>
+      <c r="D59" s="76">
+        <v>0</v>
+      </c>
+      <c r="E59" s="76">
+        <v>0</v>
+      </c>
+      <c r="F59" s="76">
+        <v>0</v>
+      </c>
+      <c r="G59" s="76">
+        <v>0</v>
+      </c>
+      <c r="H59" s="76">
+        <v>0</v>
+      </c>
+      <c r="I59" s="76">
+        <v>0</v>
+      </c>
+      <c r="J59" s="76">
+        <v>0</v>
+      </c>
+      <c r="K59" s="76">
+        <v>0</v>
+      </c>
+      <c r="L59" s="76">
+        <v>0</v>
+      </c>
+      <c r="M59" s="76">
+        <v>0</v>
+      </c>
+      <c r="N59" s="76">
+        <v>0</v>
+      </c>
+      <c r="O59" s="76">
+        <v>0</v>
+      </c>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="76">
+        <v>0</v>
+      </c>
+      <c r="D60" s="76">
+        <v>0</v>
+      </c>
+      <c r="E60" s="76">
+        <v>0</v>
+      </c>
+      <c r="F60" s="76">
+        <v>0</v>
+      </c>
+      <c r="G60" s="76">
+        <v>0</v>
+      </c>
+      <c r="H60" s="76">
+        <v>0</v>
+      </c>
+      <c r="I60" s="76">
+        <v>0</v>
+      </c>
+      <c r="J60" s="76">
+        <v>0</v>
+      </c>
+      <c r="K60" s="76">
+        <v>0</v>
+      </c>
+      <c r="L60" s="76">
+        <v>0</v>
+      </c>
+      <c r="M60" s="76">
+        <v>0</v>
+      </c>
+      <c r="N60" s="76">
+        <v>0</v>
+      </c>
+      <c r="O60" s="76">
+        <v>0</v>
+      </c>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="76">
+        <f>+C50-C62</f>
+        <v>43781.14</v>
+      </c>
+      <c r="D61" s="76">
+        <f t="shared" ref="D61:O61" si="23">+D50-D62</f>
+        <v>47259.58</v>
+      </c>
+      <c r="E61" s="76">
         <f t="shared" si="23"/>
-        <v>59444.43</v>
-      </c>
-      <c r="G57" s="36">
+        <v>44650.75</v>
+      </c>
+      <c r="F61" s="76">
         <f t="shared" si="23"/>
-        <v>85679.010000000009</v>
-      </c>
-      <c r="H57" s="36">
+        <v>69202.12</v>
+      </c>
+      <c r="G61" s="76">
         <f t="shared" si="23"/>
-        <v>77043</v>
-      </c>
-      <c r="I57" s="36">
+        <v>62249.32</v>
+      </c>
+      <c r="H61" s="76">
         <f t="shared" si="23"/>
-        <v>85947.329999999987</v>
-      </c>
-      <c r="J57" s="36">
+        <v>69470.44</v>
+      </c>
+      <c r="I61" s="76">
         <f t="shared" si="23"/>
-        <v>64884.25</v>
-      </c>
-      <c r="K57" s="36">
+        <v>50090.57</v>
+      </c>
+      <c r="J61" s="76">
         <f t="shared" si="23"/>
-        <v>58199.42</v>
-      </c>
-      <c r="L57" s="36">
+        <v>43405.74</v>
+      </c>
+      <c r="K61" s="76">
         <f t="shared" si="23"/>
-        <v>92558.15</v>
-      </c>
-      <c r="M57" s="36">
+        <v>75561.47</v>
+      </c>
+      <c r="L61" s="76">
         <f t="shared" si="23"/>
-        <v>79783</v>
-      </c>
-      <c r="N57" s="36">
+        <v>64989.32</v>
+      </c>
+      <c r="M61" s="76">
         <f t="shared" si="23"/>
-        <v>64202.3</v>
-      </c>
-      <c r="O57" s="36">
+        <v>49408.62</v>
+      </c>
+      <c r="N61" s="76">
         <f t="shared" si="23"/>
-        <v>63127.78</v>
-      </c>
-      <c r="Q57" s="16">
-        <f t="shared" si="18"/>
-        <v>851496.75000000012</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="36">
-        <f>+C37+C30</f>
-        <v>62374.879999999997</v>
-      </c>
-      <c r="D58" s="36">
-        <f>+D37+D30</f>
-        <v>58574.82</v>
-      </c>
-      <c r="E58" s="36">
-        <f t="shared" ref="E58:O58" si="24">+E37+E30</f>
-        <v>62053.26</v>
-      </c>
-      <c r="F58" s="36">
-        <f t="shared" si="24"/>
-        <v>59444.43</v>
-      </c>
-      <c r="G58" s="36">
-        <f t="shared" si="24"/>
-        <v>85679.010000000009</v>
-      </c>
-      <c r="H58" s="36">
-        <f t="shared" si="24"/>
-        <v>77043</v>
-      </c>
-      <c r="I58" s="36">
-        <f t="shared" si="24"/>
-        <v>85947.329999999987</v>
-      </c>
-      <c r="J58" s="36">
-        <f t="shared" si="24"/>
-        <v>64884.25</v>
-      </c>
-      <c r="K58" s="36">
-        <f t="shared" si="24"/>
-        <v>58199.42</v>
-      </c>
-      <c r="L58" s="36">
-        <f t="shared" si="24"/>
-        <v>92558.15</v>
-      </c>
-      <c r="M58" s="36">
-        <f t="shared" si="24"/>
-        <v>79783</v>
-      </c>
-      <c r="N58" s="36">
-        <f t="shared" si="24"/>
-        <v>64202.3</v>
-      </c>
-      <c r="O58" s="36">
-        <f t="shared" si="24"/>
-        <v>63127.78</v>
-      </c>
-      <c r="Q58" s="16">
-        <f t="shared" si="18"/>
-        <v>851496.75000000012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="36">
-        <v>0</v>
-      </c>
-      <c r="D59" s="36">
-        <v>0</v>
-      </c>
-      <c r="E59" s="36">
-        <v>0</v>
-      </c>
-      <c r="F59" s="36">
-        <v>0</v>
-      </c>
-      <c r="G59" s="36">
-        <v>0</v>
-      </c>
-      <c r="H59" s="36">
-        <v>0</v>
-      </c>
-      <c r="I59" s="36">
-        <v>0</v>
-      </c>
-      <c r="J59" s="36">
-        <v>0</v>
-      </c>
-      <c r="K59" s="36">
-        <v>0</v>
-      </c>
-      <c r="L59" s="36">
-        <v>0</v>
-      </c>
-      <c r="M59" s="36">
-        <v>0</v>
-      </c>
-      <c r="N59" s="36">
-        <v>0</v>
-      </c>
-      <c r="O59" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="36">
-        <v>0</v>
-      </c>
-      <c r="D60" s="36">
-        <v>0</v>
-      </c>
-      <c r="E60" s="36">
-        <v>0</v>
-      </c>
-      <c r="F60" s="36">
-        <v>0</v>
-      </c>
-      <c r="G60" s="36">
-        <v>0</v>
-      </c>
-      <c r="H60" s="36">
-        <v>0</v>
-      </c>
-      <c r="I60" s="36">
-        <v>0</v>
-      </c>
-      <c r="J60" s="36">
-        <v>0</v>
-      </c>
-      <c r="K60" s="36">
-        <v>0</v>
-      </c>
-      <c r="L60" s="36">
-        <v>0</v>
-      </c>
-      <c r="M60" s="36">
-        <v>0</v>
-      </c>
-      <c r="N60" s="36">
-        <v>0</v>
-      </c>
-      <c r="O60" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="36">
-        <f>+C50-C62</f>
-        <v>47059.199999999997</v>
-      </c>
-      <c r="D61" s="36">
-        <f>+D50-D62</f>
-        <v>43781.14</v>
-      </c>
-      <c r="E61" s="36">
-        <f t="shared" ref="E61:O61" si="25">+E50-E62</f>
-        <v>47259.58</v>
-      </c>
-      <c r="F61" s="36">
-        <f t="shared" si="25"/>
-        <v>44650.75</v>
-      </c>
-      <c r="G61" s="36">
-        <f t="shared" si="25"/>
-        <v>69202.12</v>
-      </c>
-      <c r="H61" s="36">
-        <f t="shared" si="25"/>
-        <v>62249.32</v>
-      </c>
-      <c r="I61" s="36">
-        <f t="shared" si="25"/>
-        <v>69470.44</v>
-      </c>
-      <c r="J61" s="36">
-        <f t="shared" si="25"/>
-        <v>50090.57</v>
-      </c>
-      <c r="K61" s="36">
-        <f t="shared" si="25"/>
-        <v>43405.74</v>
-      </c>
-      <c r="L61" s="36">
-        <f t="shared" si="25"/>
-        <v>75561.47</v>
-      </c>
-      <c r="M61" s="36">
-        <f t="shared" si="25"/>
-        <v>64989.32</v>
-      </c>
-      <c r="N61" s="36">
-        <f t="shared" si="25"/>
-        <v>49408.62</v>
-      </c>
-      <c r="O61" s="36">
-        <f t="shared" si="25"/>
+        <v>51469.2</v>
+      </c>
+      <c r="O61" s="76">
+        <f t="shared" si="23"/>
         <v>48334.1</v>
       </c>
-      <c r="Q61" s="16">
-        <f t="shared" si="18"/>
-        <v>668403.16999999993</v>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="77">
+        <f t="shared" si="17"/>
+        <v>719872.36999999988</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="M62" s="36">
+      <c r="M62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="O62" s="36">
+      <c r="O62" s="76">
         <v>7003.68</v>
       </c>
-      <c r="Q62" s="16">
-        <f t="shared" si="18"/>
-        <v>84044.160000000003</v>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="77">
+        <f t="shared" si="17"/>
+        <v>91047.84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.43307086614173229" right="0.39370078740157483" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="5" scale="75" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3822,51 +3913,51 @@
         <v>0</v>
       </c>
       <c r="C1" s="50" t="str">
+        <f>+'PASO 1'!C2</f>
+        <v>PEDROZO DANTE OSVALDO</v>
+      </c>
+      <c r="D1" s="50" t="str">
         <f>+'PASO 1'!D2</f>
-        <v>PEDROZO DANTE OSVALDO</v>
-      </c>
-      <c r="D1" s="50" t="str">
+        <v>BRIZUELA JUAN ANDRES RAMON</v>
+      </c>
+      <c r="E1" s="50" t="str">
         <f>+'PASO 1'!E2</f>
-        <v>BRIZUELA JUAN ANDRES RAMON</v>
-      </c>
-      <c r="E1" s="50" t="str">
+        <v>NAVARRO JANATAN FACUNDO</v>
+      </c>
+      <c r="F1" s="50" t="str">
         <f>+'PASO 1'!F2</f>
-        <v>NAVARRO JANATAN FACUNDO</v>
-      </c>
-      <c r="F1" s="50" t="str">
+        <v>MAIDANA ALBERTO AMERICO</v>
+      </c>
+      <c r="G1" s="50" t="str">
         <f>+'PASO 1'!G2</f>
-        <v>MAIDANA ALBERTO AMERICO</v>
-      </c>
-      <c r="G1" s="50" t="str">
+        <v>MIRANDA DANIEL ENRIQUE</v>
+      </c>
+      <c r="H1" s="50" t="str">
         <f>+'PASO 1'!H2</f>
-        <v>MIRANDA DANIEL ENRIQUE</v>
-      </c>
-      <c r="H1" s="50" t="str">
+        <v>PRIETO JOSE ROBERTO</v>
+      </c>
+      <c r="I1" s="50" t="str">
         <f>+'PASO 1'!I2</f>
-        <v>PRIETO JOSE ROBERTO</v>
-      </c>
-      <c r="I1" s="50" t="str">
+        <v>AVALOS EDUARDO SIMON</v>
+      </c>
+      <c r="J1" s="50" t="str">
         <f>+'PASO 1'!J2</f>
-        <v>AVALOS EDUARDO SIMON</v>
-      </c>
-      <c r="J1" s="50" t="str">
+        <v>FERNANDEZ, NICOLAS</v>
+      </c>
+      <c r="K1" s="50" t="str">
         <f>+'PASO 1'!K2</f>
-        <v>FERNANDEZ, NICOLAS</v>
-      </c>
-      <c r="K1" s="50" t="str">
+        <v>QUINTANA RAMON DE JESUS</v>
+      </c>
+      <c r="L1" s="50" t="str">
         <f>+'PASO 1'!L2</f>
-        <v>QUINTANA RAMON DE JESUS</v>
-      </c>
-      <c r="L1" s="50" t="str">
+        <v>BEUVAIS RODOLFO CARLOS</v>
+      </c>
+      <c r="M1" s="50" t="str">
         <f>+'PASO 1'!M2</f>
-        <v>BEUVAIS RODOLFO CARLOS</v>
-      </c>
-      <c r="M1" s="50" t="str">
+        <v>BEUVAIS ANTONIO</v>
+      </c>
+      <c r="N1" s="50" t="str">
         <f>+'PASO 1'!N2</f>
-        <v>BEUVAIS ANTONIO</v>
-      </c>
-      <c r="N1" s="50" t="str">
-        <f>+'PASO 1'!C2</f>
         <v>BEUVAIS JOSE</v>
       </c>
       <c r="O1" s="50" t="str">
@@ -3884,51 +3975,51 @@
         <v>0</v>
       </c>
       <c r="C2" s="50">
+        <f>+'PASO 1'!C3</f>
+        <v>23373230529</v>
+      </c>
+      <c r="D2" s="50">
         <f>+'PASO 1'!D3</f>
-        <v>23373230529</v>
-      </c>
-      <c r="D2" s="50">
+        <v>20412270089</v>
+      </c>
+      <c r="E2" s="50">
         <f>+'PASO 1'!E3</f>
-        <v>20412270089</v>
-      </c>
-      <c r="E2" s="50">
+        <v>20363899952</v>
+      </c>
+      <c r="F2" s="50">
         <f>+'PASO 1'!F3</f>
-        <v>20363899952</v>
-      </c>
-      <c r="F2" s="50">
+        <v>20280474682</v>
+      </c>
+      <c r="G2" s="50">
         <f>+'PASO 1'!G3</f>
-        <v>20280474682</v>
-      </c>
-      <c r="G2" s="50">
+        <v>20177508293</v>
+      </c>
+      <c r="H2" s="50">
         <f>+'PASO 1'!H3</f>
-        <v>20177508293</v>
-      </c>
-      <c r="H2" s="50">
+        <v>20215465676</v>
+      </c>
+      <c r="I2" s="50">
         <f>+'PASO 1'!I3</f>
-        <v>20215465676</v>
-      </c>
-      <c r="I2" s="50">
+        <v>20302390224</v>
+      </c>
+      <c r="J2" s="50">
         <f>+'PASO 1'!J3</f>
-        <v>20302390224</v>
-      </c>
-      <c r="J2" s="50">
+        <v>20397771262</v>
+      </c>
+      <c r="K2" s="50">
         <f>+'PASO 1'!K3</f>
-        <v>20397771262</v>
-      </c>
-      <c r="K2" s="50">
+        <v>20222706042</v>
+      </c>
+      <c r="L2" s="50">
         <f>+'PASO 1'!L3</f>
-        <v>20222706042</v>
-      </c>
-      <c r="L2" s="50">
+        <v>20146494669</v>
+      </c>
+      <c r="M2" s="50">
         <f>+'PASO 1'!M3</f>
-        <v>20146494669</v>
-      </c>
-      <c r="M2" s="50">
+        <v>20260202031</v>
+      </c>
+      <c r="N2" s="50">
         <f>+'PASO 1'!N3</f>
-        <v>20260202031</v>
-      </c>
-      <c r="N2" s="50">
-        <f>+'PASO 1'!C3</f>
         <v>20229337700</v>
       </c>
       <c r="O2" s="50">
@@ -3946,52 +4037,52 @@
         <v>0</v>
       </c>
       <c r="C3" s="50">
+        <f>+'PASO 1'!C4</f>
+        <v>58574.82</v>
+      </c>
+      <c r="D3" s="50">
         <f>+'PASO 1'!D4</f>
-        <v>58574.82</v>
-      </c>
-      <c r="D3" s="50">
+        <v>62053.26</v>
+      </c>
+      <c r="E3" s="50">
         <f>+'PASO 1'!E4</f>
-        <v>62053.26</v>
-      </c>
-      <c r="E3" s="50">
+        <v>59444.43</v>
+      </c>
+      <c r="F3" s="50">
         <f>+'PASO 1'!F4</f>
-        <v>59444.43</v>
-      </c>
-      <c r="F3" s="50">
+        <v>85679.010000000009</v>
+      </c>
+      <c r="G3" s="50">
         <f>+'PASO 1'!G4</f>
-        <v>85679.010000000009</v>
-      </c>
-      <c r="G3" s="50">
+        <v>77043</v>
+      </c>
+      <c r="H3" s="50">
         <f>+'PASO 1'!H4</f>
-        <v>77043</v>
-      </c>
-      <c r="H3" s="50">
+        <v>85947.329999999987</v>
+      </c>
+      <c r="I3" s="50">
         <f>+'PASO 1'!I4</f>
-        <v>85947.329999999987</v>
-      </c>
-      <c r="I3" s="50">
+        <v>64884.25</v>
+      </c>
+      <c r="J3" s="50">
         <f>+'PASO 1'!J4</f>
-        <v>64884.25</v>
-      </c>
-      <c r="J3" s="50">
+        <v>58199.42</v>
+      </c>
+      <c r="K3" s="50">
         <f>+'PASO 1'!K4</f>
-        <v>58199.42</v>
-      </c>
-      <c r="K3" s="50">
+        <v>92558.15</v>
+      </c>
+      <c r="L3" s="50">
         <f>+'PASO 1'!L4</f>
-        <v>92558.15</v>
-      </c>
-      <c r="L3" s="50">
+        <v>79783</v>
+      </c>
+      <c r="M3" s="50">
         <f>+'PASO 1'!M4</f>
-        <v>79783</v>
-      </c>
-      <c r="M3" s="50">
+        <v>64202.3</v>
+      </c>
+      <c r="N3" s="50">
         <f>+'PASO 1'!N4</f>
-        <v>64202.3</v>
-      </c>
-      <c r="N3" s="50">
-        <f>+'PASO 1'!C4</f>
-        <v>62374.879999999997</v>
+        <v>66784.88</v>
       </c>
       <c r="O3" s="50">
         <f>+'PASO 1'!O4</f>
@@ -4290,51 +4381,51 @@
         <v>SUELDO</v>
       </c>
       <c r="C10" s="56">
+        <f>+'PASO 1'!C12</f>
+        <v>51660</v>
+      </c>
+      <c r="D10" s="56">
         <f>+'PASO 1'!D12</f>
         <v>51660</v>
       </c>
-      <c r="D10" s="56">
+      <c r="E10" s="56">
         <f>+'PASO 1'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="56">
+        <f>+'PASO 1'!F12</f>
+        <v>62822.36</v>
+      </c>
+      <c r="G10" s="56">
+        <f>+'PASO 1'!G12</f>
         <v>51660</v>
       </c>
-      <c r="E10" s="56">
-        <f>+'PASO 1'!F12</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="56">
-        <f>+'PASO 1'!G12</f>
+      <c r="H10" s="56">
+        <f>+'PASO 1'!H12</f>
         <v>62822.36</v>
       </c>
-      <c r="G10" s="56">
-        <f>+'PASO 1'!H12</f>
+      <c r="I10" s="56">
+        <f>+'PASO 1'!I12</f>
         <v>51660</v>
       </c>
-      <c r="H10" s="56">
-        <f>+'PASO 1'!I12</f>
-        <v>62822.36</v>
-      </c>
-      <c r="I10" s="56">
+      <c r="J10" s="56">
         <f>+'PASO 1'!J12</f>
         <v>51660</v>
       </c>
-      <c r="J10" s="56">
+      <c r="K10" s="56">
         <f>+'PASO 1'!K12</f>
+        <v>66271.149999999994</v>
+      </c>
+      <c r="L10" s="56">
+        <f>+'PASO 1'!L12</f>
         <v>51660</v>
       </c>
-      <c r="K10" s="56">
-        <f>+'PASO 1'!L12</f>
-        <v>66271.149999999994</v>
-      </c>
-      <c r="L10" s="56">
+      <c r="M10" s="56">
         <f>+'PASO 1'!M12</f>
         <v>51660</v>
       </c>
-      <c r="M10" s="56">
+      <c r="N10" s="56">
         <f>+'PASO 1'!N12</f>
-        <v>51660</v>
-      </c>
-      <c r="N10" s="56">
-        <f>+'PASO 1'!C12</f>
         <v>55121.36</v>
       </c>
       <c r="O10" s="56">
@@ -4353,51 +4444,51 @@
         <v>ANTIGÜEDAD  1,5% LEY 26727</v>
       </c>
       <c r="C11" s="56">
+        <f>+'PASO 1'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="56">
         <f>+'PASO 1'!D13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="56">
+      <c r="E11" s="56">
         <f>+'PASO 1'!E13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="56">
+      <c r="F11" s="56">
         <f>+'PASO 1'!F13</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="56">
+        <v>12964.44</v>
+      </c>
+      <c r="G11" s="56">
         <f>+'PASO 1'!G13</f>
-        <v>12964.44</v>
-      </c>
-      <c r="G11" s="56">
+        <v>16388</v>
+      </c>
+      <c r="H11" s="56">
         <f>+'PASO 1'!H13</f>
-        <v>16388</v>
-      </c>
-      <c r="H11" s="56">
+        <v>17421</v>
+      </c>
+      <c r="I11" s="56">
         <f>+'PASO 1'!I13</f>
-        <v>17421</v>
-      </c>
-      <c r="I11" s="56">
+        <v>0</v>
+      </c>
+      <c r="J11" s="56">
         <f>+'PASO 1'!J13</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56">
+      <c r="K11" s="56">
         <f>+'PASO 1'!K13</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="56">
+        <v>18061</v>
+      </c>
+      <c r="L11" s="56">
         <f>+'PASO 1'!L13</f>
-        <v>18061</v>
-      </c>
-      <c r="L11" s="56">
+        <v>18267</v>
+      </c>
+      <c r="M11" s="56">
         <f>+'PASO 1'!M13</f>
-        <v>18267</v>
-      </c>
-      <c r="M11" s="56">
+        <v>0</v>
+      </c>
+      <c r="N11" s="56">
         <f>+'PASO 1'!N13</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="56">
-        <f>+'PASO 1'!C13</f>
         <v>0</v>
       </c>
       <c r="O11" s="56">
@@ -4416,52 +4507,52 @@
         <v>DESCUENTO POR AUSENCIA</v>
       </c>
       <c r="C12" s="56">
+        <f>+'PASO 1'!C14</f>
+        <v>-3444</v>
+      </c>
+      <c r="D12" s="56">
         <f>+'PASO 1'!D14</f>
-        <v>-3444</v>
-      </c>
-      <c r="D12" s="56">
+        <v>0</v>
+      </c>
+      <c r="E12" s="56">
         <f>+'PASO 1'!E14</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="56">
+        <v>-2583</v>
+      </c>
+      <c r="F12" s="56">
         <f>+'PASO 1'!F14</f>
-        <v>-2583</v>
-      </c>
-      <c r="F12" s="56">
+        <v>-2094</v>
+      </c>
+      <c r="G12" s="56">
         <f>+'PASO 1'!G14</f>
-        <v>-2094</v>
-      </c>
-      <c r="G12" s="56">
+        <v>-861</v>
+      </c>
+      <c r="H12" s="56">
         <f>+'PASO 1'!H14</f>
+        <v>-6282.24</v>
+      </c>
+      <c r="I12" s="56">
+        <f>+'PASO 1'!I14</f>
         <v>-861</v>
       </c>
-      <c r="H12" s="56">
-        <f>+'PASO 1'!I14</f>
-        <v>-6282.24</v>
-      </c>
-      <c r="I12" s="56">
+      <c r="J12" s="56">
         <f>+'PASO 1'!J14</f>
-        <v>-861</v>
-      </c>
-      <c r="J12" s="56">
+        <v>-4305</v>
+      </c>
+      <c r="K12" s="56">
         <f>+'PASO 1'!K14</f>
-        <v>-4305</v>
-      </c>
-      <c r="K12" s="56">
+        <v>-4418</v>
+      </c>
+      <c r="L12" s="56">
         <f>+'PASO 1'!L14</f>
-        <v>-4418</v>
-      </c>
-      <c r="L12" s="56">
+        <v>0</v>
+      </c>
+      <c r="M12" s="56">
         <f>+'PASO 1'!M14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="56">
+      <c r="N12" s="56">
         <f>+'PASO 1'!N14</f>
         <v>0</v>
-      </c>
-      <c r="N12" s="56">
-        <f>+'PASO 1'!C14</f>
-        <v>-2205</v>
       </c>
       <c r="O12" s="56">
         <f>+'PASO 1'!O14</f>
@@ -4479,52 +4570,52 @@
         <v>DIA ADICIONAL FERIADO</v>
       </c>
       <c r="C13" s="56">
+        <f>+'PASO 1'!C15</f>
+        <v>2066</v>
+      </c>
+      <c r="D13" s="56">
         <f>+'PASO 1'!D15</f>
         <v>2066</v>
       </c>
-      <c r="D13" s="56">
+      <c r="E13" s="56">
         <f>+'PASO 1'!E15</f>
         <v>2066</v>
       </c>
-      <c r="E13" s="56">
+      <c r="F13" s="56">
         <f>+'PASO 1'!F15</f>
+        <v>2513</v>
+      </c>
+      <c r="G13" s="56">
+        <f>+'PASO 1'!G15</f>
         <v>2066</v>
       </c>
-      <c r="F13" s="56">
-        <f>+'PASO 1'!G15</f>
+      <c r="H13" s="56">
+        <f>+'PASO 1'!H15</f>
         <v>2513</v>
       </c>
-      <c r="G13" s="56">
-        <f>+'PASO 1'!H15</f>
+      <c r="I13" s="56">
+        <f>+'PASO 1'!I15</f>
         <v>2066</v>
       </c>
-      <c r="H13" s="56">
-        <f>+'PASO 1'!I15</f>
-        <v>2513</v>
-      </c>
-      <c r="I13" s="56">
+      <c r="J13" s="56">
         <f>+'PASO 1'!J15</f>
         <v>2066</v>
       </c>
-      <c r="J13" s="56">
+      <c r="K13" s="56">
         <f>+'PASO 1'!K15</f>
+        <v>2651</v>
+      </c>
+      <c r="L13" s="56">
+        <f>+'PASO 1'!L15</f>
         <v>2066</v>
       </c>
-      <c r="K13" s="56">
-        <f>+'PASO 1'!L15</f>
-        <v>2651</v>
-      </c>
-      <c r="L13" s="56">
+      <c r="M13" s="56">
         <f>+'PASO 1'!M15</f>
         <v>2066</v>
       </c>
-      <c r="M13" s="56">
+      <c r="N13" s="56">
         <f>+'PASO 1'!N15</f>
-        <v>2066</v>
-      </c>
-      <c r="N13" s="56">
-        <f>+'PASO 1'!C15</f>
-        <v>0</v>
+        <v>2205</v>
       </c>
       <c r="O13" s="56">
         <f>+'PASO 1'!O15</f>
@@ -4542,51 +4633,51 @@
         <v xml:space="preserve"> JORNAL PERSONAL TEMPORARIO LEY 26727</v>
       </c>
       <c r="C14" s="56">
+        <f>+'PASO 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="56">
         <f>+'PASO 1'!D16</f>
         <v>0</v>
       </c>
-      <c r="D14" s="56">
+      <c r="E14" s="56">
         <f>+'PASO 1'!E16</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="56">
+        <v>51660</v>
+      </c>
+      <c r="F14" s="56">
         <f>+'PASO 1'!F16</f>
-        <v>51660</v>
-      </c>
-      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56">
         <f>+'PASO 1'!G16</f>
         <v>0</v>
       </c>
-      <c r="G14" s="56">
+      <c r="H14" s="56">
         <f>+'PASO 1'!H16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="56">
+      <c r="I14" s="56">
         <f>+'PASO 1'!I16</f>
         <v>0</v>
       </c>
-      <c r="I14" s="56">
+      <c r="J14" s="56">
         <f>+'PASO 1'!J16</f>
         <v>0</v>
       </c>
-      <c r="J14" s="56">
+      <c r="K14" s="56">
         <f>+'PASO 1'!K16</f>
         <v>0</v>
       </c>
-      <c r="K14" s="56">
+      <c r="L14" s="56">
         <f>+'PASO 1'!L16</f>
         <v>0</v>
       </c>
-      <c r="L14" s="56">
+      <c r="M14" s="56">
         <f>+'PASO 1'!M16</f>
         <v>0</v>
       </c>
-      <c r="M14" s="56">
+      <c r="N14" s="56">
         <f>+'PASO 1'!N16</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="56">
-        <f>+'PASO 1'!C16</f>
         <v>0</v>
       </c>
       <c r="O14" s="56">
@@ -4605,51 +4696,51 @@
         <v xml:space="preserve">DIA ADICIONAL </v>
       </c>
       <c r="C15" s="56">
+        <f>+'PASO 1'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="56">
         <f>+'PASO 1'!D17</f>
         <v>0</v>
       </c>
-      <c r="D15" s="56">
+      <c r="E15" s="56">
         <f>+'PASO 1'!E17</f>
         <v>0</v>
       </c>
-      <c r="E15" s="56">
+      <c r="F15" s="56">
         <f>+'PASO 1'!F17</f>
         <v>0</v>
       </c>
-      <c r="F15" s="56">
+      <c r="G15" s="56">
         <f>+'PASO 1'!G17</f>
         <v>0</v>
       </c>
-      <c r="G15" s="56">
+      <c r="H15" s="56">
         <f>+'PASO 1'!H17</f>
         <v>0</v>
       </c>
-      <c r="H15" s="56">
+      <c r="I15" s="56">
         <f>+'PASO 1'!I17</f>
         <v>0</v>
       </c>
-      <c r="I15" s="56">
+      <c r="J15" s="56">
         <f>+'PASO 1'!J17</f>
         <v>0</v>
       </c>
-      <c r="J15" s="56">
+      <c r="K15" s="56">
         <f>+'PASO 1'!K17</f>
         <v>0</v>
       </c>
-      <c r="K15" s="56">
+      <c r="L15" s="56">
         <f>+'PASO 1'!L17</f>
         <v>0</v>
       </c>
-      <c r="L15" s="56">
+      <c r="M15" s="56">
         <f>+'PASO 1'!M17</f>
         <v>0</v>
       </c>
-      <c r="M15" s="56">
+      <c r="N15" s="56">
         <f>+'PASO 1'!N17</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="56">
-        <f>+'PASO 1'!C17</f>
         <v>0</v>
       </c>
       <c r="O15" s="56">
@@ -4668,51 +4759,51 @@
         <v>SUSPENSION POR SANCION DISCIPLINARIA</v>
       </c>
       <c r="C16" s="56">
+        <f>+'PASO 1'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="56">
         <f>+'PASO 1'!D18</f>
         <v>0</v>
       </c>
-      <c r="D16" s="56">
+      <c r="E16" s="56">
         <f>+'PASO 1'!E18</f>
         <v>0</v>
       </c>
-      <c r="E16" s="56">
+      <c r="F16" s="56">
         <f>+'PASO 1'!F18</f>
         <v>0</v>
       </c>
-      <c r="F16" s="56">
+      <c r="G16" s="56">
         <f>+'PASO 1'!G18</f>
         <v>0</v>
       </c>
-      <c r="G16" s="56">
+      <c r="H16" s="56">
         <f>+'PASO 1'!H18</f>
         <v>0</v>
       </c>
-      <c r="H16" s="56">
+      <c r="I16" s="56">
         <f>+'PASO 1'!I18</f>
         <v>0</v>
       </c>
-      <c r="I16" s="56">
+      <c r="J16" s="56">
         <f>+'PASO 1'!J18</f>
         <v>0</v>
       </c>
-      <c r="J16" s="56">
+      <c r="K16" s="56">
         <f>+'PASO 1'!K18</f>
         <v>0</v>
       </c>
-      <c r="K16" s="56">
+      <c r="L16" s="56">
         <f>+'PASO 1'!L18</f>
         <v>0</v>
       </c>
-      <c r="L16" s="56">
+      <c r="M16" s="56">
         <f>+'PASO 1'!M18</f>
         <v>0</v>
       </c>
-      <c r="M16" s="56">
+      <c r="N16" s="56">
         <f>+'PASO 1'!N18</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="56">
-        <f>+'PASO 1'!C18</f>
         <v>0</v>
       </c>
       <c r="O16" s="56">
@@ -4731,51 +4822,51 @@
         <v>A CUENTA FUTURO AUMENTO</v>
       </c>
       <c r="C17" s="56">
+        <f>+'PASO 1'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="56">
         <f>+'PASO 1'!D19</f>
         <v>0</v>
       </c>
-      <c r="D17" s="56">
+      <c r="E17" s="56">
         <f>+'PASO 1'!E19</f>
         <v>0</v>
       </c>
-      <c r="E17" s="56">
+      <c r="F17" s="56">
         <f>+'PASO 1'!F19</f>
         <v>0</v>
       </c>
-      <c r="F17" s="56">
+      <c r="G17" s="56">
         <f>+'PASO 1'!G19</f>
         <v>0</v>
       </c>
-      <c r="G17" s="56">
+      <c r="H17" s="56">
         <f>+'PASO 1'!H19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="56">
+      <c r="I17" s="56">
         <f>+'PASO 1'!I19</f>
         <v>0</v>
       </c>
-      <c r="I17" s="56">
+      <c r="J17" s="56">
         <f>+'PASO 1'!J19</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56">
+      <c r="K17" s="56">
         <f>+'PASO 1'!K19</f>
         <v>0</v>
       </c>
-      <c r="K17" s="56">
+      <c r="L17" s="56">
         <f>+'PASO 1'!L19</f>
         <v>0</v>
       </c>
-      <c r="L17" s="56">
+      <c r="M17" s="56">
         <f>+'PASO 1'!M19</f>
         <v>0</v>
       </c>
-      <c r="M17" s="56">
+      <c r="N17" s="56">
         <f>+'PASO 1'!N19</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="56">
-        <f>+'PASO 1'!C19</f>
         <v>0</v>
       </c>
       <c r="O17" s="56">
@@ -4794,51 +4885,51 @@
         <v xml:space="preserve">AJUSTE RETROACTIVO SUELDO MES </v>
       </c>
       <c r="C18" s="56">
+        <f>+'PASO 1'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="56">
         <f>+'PASO 1'!D20</f>
         <v>0</v>
       </c>
-      <c r="D18" s="56">
+      <c r="E18" s="56">
         <f>+'PASO 1'!E20</f>
         <v>0</v>
       </c>
-      <c r="E18" s="56">
+      <c r="F18" s="56">
         <f>+'PASO 1'!F20</f>
         <v>0</v>
       </c>
-      <c r="F18" s="56">
+      <c r="G18" s="56">
         <f>+'PASO 1'!G20</f>
         <v>0</v>
       </c>
-      <c r="G18" s="56">
+      <c r="H18" s="56">
         <f>+'PASO 1'!H20</f>
         <v>0</v>
       </c>
-      <c r="H18" s="56">
+      <c r="I18" s="56">
         <f>+'PASO 1'!I20</f>
         <v>0</v>
       </c>
-      <c r="I18" s="56">
+      <c r="J18" s="56">
         <f>+'PASO 1'!J20</f>
         <v>0</v>
       </c>
-      <c r="J18" s="56">
+      <c r="K18" s="56">
         <f>+'PASO 1'!K20</f>
         <v>0</v>
       </c>
-      <c r="K18" s="56">
+      <c r="L18" s="56">
         <f>+'PASO 1'!L20</f>
         <v>0</v>
       </c>
-      <c r="L18" s="56">
+      <c r="M18" s="56">
         <f>+'PASO 1'!M20</f>
         <v>0</v>
       </c>
-      <c r="M18" s="56">
+      <c r="N18" s="56">
         <f>+'PASO 1'!N20</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="56">
-        <f>+'PASO 1'!C20</f>
         <v>0</v>
       </c>
       <c r="O18" s="56">
@@ -4857,51 +4948,51 @@
         <v>SAC sobre Integración mes de despido</v>
       </c>
       <c r="C19" s="56">
+        <f>+'PASO 1'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="56">
         <f>+'PASO 1'!D21</f>
         <v>0</v>
       </c>
-      <c r="D19" s="56">
+      <c r="E19" s="56">
         <f>+'PASO 1'!E21</f>
         <v>0</v>
       </c>
-      <c r="E19" s="56">
+      <c r="F19" s="56">
         <f>+'PASO 1'!F21</f>
         <v>0</v>
       </c>
-      <c r="F19" s="56">
+      <c r="G19" s="56">
         <f>+'PASO 1'!G21</f>
         <v>0</v>
       </c>
-      <c r="G19" s="56">
+      <c r="H19" s="56">
         <f>+'PASO 1'!H21</f>
         <v>0</v>
       </c>
-      <c r="H19" s="56">
+      <c r="I19" s="56">
         <f>+'PASO 1'!I21</f>
         <v>0</v>
       </c>
-      <c r="I19" s="56">
+      <c r="J19" s="56">
         <f>+'PASO 1'!J21</f>
         <v>0</v>
       </c>
-      <c r="J19" s="56">
+      <c r="K19" s="56">
         <f>+'PASO 1'!K21</f>
         <v>0</v>
       </c>
-      <c r="K19" s="56">
+      <c r="L19" s="56">
         <f>+'PASO 1'!L21</f>
         <v>0</v>
       </c>
-      <c r="L19" s="56">
+      <c r="M19" s="56">
         <f>+'PASO 1'!M21</f>
         <v>0</v>
       </c>
-      <c r="M19" s="56">
+      <c r="N19" s="56">
         <f>+'PASO 1'!N21</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="56">
-        <f>+'PASO 1'!C21</f>
         <v>0</v>
       </c>
       <c r="O19" s="56">
@@ -4920,51 +5011,51 @@
         <v>SAC sobre PREAVISO</v>
       </c>
       <c r="C20" s="56">
+        <f>+'PASO 1'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="56">
         <f>+'PASO 1'!D22</f>
         <v>0</v>
       </c>
-      <c r="D20" s="56">
+      <c r="E20" s="56">
         <f>+'PASO 1'!E22</f>
         <v>0</v>
       </c>
-      <c r="E20" s="56">
+      <c r="F20" s="56">
         <f>+'PASO 1'!F22</f>
         <v>0</v>
       </c>
-      <c r="F20" s="56">
+      <c r="G20" s="56">
         <f>+'PASO 1'!G22</f>
         <v>0</v>
       </c>
-      <c r="G20" s="56">
+      <c r="H20" s="56">
         <f>+'PASO 1'!H22</f>
         <v>0</v>
       </c>
-      <c r="H20" s="56">
+      <c r="I20" s="56">
         <f>+'PASO 1'!I22</f>
         <v>0</v>
       </c>
-      <c r="I20" s="56">
+      <c r="J20" s="56">
         <f>+'PASO 1'!J22</f>
         <v>0</v>
       </c>
-      <c r="J20" s="56">
+      <c r="K20" s="56">
         <f>+'PASO 1'!K22</f>
         <v>0</v>
       </c>
-      <c r="K20" s="56">
+      <c r="L20" s="56">
         <f>+'PASO 1'!L22</f>
         <v>0</v>
       </c>
-      <c r="L20" s="56">
+      <c r="M20" s="56">
         <f>+'PASO 1'!M22</f>
         <v>0</v>
       </c>
-      <c r="M20" s="56">
+      <c r="N20" s="56">
         <f>+'PASO 1'!N22</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="56">
-        <f>+'PASO 1'!C22</f>
         <v>0</v>
       </c>
       <c r="O20" s="56">
@@ -4983,51 +5074,51 @@
         <v>ANTIGUEDAD.S/VACACIONES</v>
       </c>
       <c r="C21" s="56">
+        <f>+'PASO 1'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="56">
         <f>+'PASO 1'!D23</f>
         <v>0</v>
       </c>
-      <c r="D21" s="56">
+      <c r="E21" s="56">
         <f>+'PASO 1'!E23</f>
         <v>0</v>
       </c>
-      <c r="E21" s="56">
+      <c r="F21" s="56">
         <f>+'PASO 1'!F23</f>
         <v>0</v>
       </c>
-      <c r="F21" s="56">
+      <c r="G21" s="56">
         <f>+'PASO 1'!G23</f>
         <v>0</v>
       </c>
-      <c r="G21" s="56">
+      <c r="H21" s="56">
         <f>+'PASO 1'!H23</f>
         <v>0</v>
       </c>
-      <c r="H21" s="56">
+      <c r="I21" s="56">
         <f>+'PASO 1'!I23</f>
         <v>0</v>
       </c>
-      <c r="I21" s="56">
+      <c r="J21" s="56">
         <f>+'PASO 1'!J23</f>
         <v>0</v>
       </c>
-      <c r="J21" s="56">
+      <c r="K21" s="56">
         <f>+'PASO 1'!K23</f>
         <v>0</v>
       </c>
-      <c r="K21" s="56">
+      <c r="L21" s="56">
         <f>+'PASO 1'!L23</f>
         <v>0</v>
       </c>
-      <c r="L21" s="56">
+      <c r="M21" s="56">
         <f>+'PASO 1'!M23</f>
         <v>0</v>
       </c>
-      <c r="M21" s="56">
+      <c r="N21" s="56">
         <f>+'PASO 1'!N23</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="56">
-        <f>+'PASO 1'!C23</f>
         <v>0</v>
       </c>
       <c r="O21" s="56">
@@ -5046,51 +5137,51 @@
         <v>ANTIGUEDAD.S/Primera Relacion Laboral</v>
       </c>
       <c r="C22" s="56">
+        <f>+'PASO 1'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="56">
         <f>+'PASO 1'!D24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="56">
+      <c r="E22" s="56">
         <f>+'PASO 1'!E24</f>
         <v>0</v>
       </c>
-      <c r="E22" s="56">
+      <c r="F22" s="56">
         <f>+'PASO 1'!F24</f>
         <v>0</v>
       </c>
-      <c r="F22" s="56">
+      <c r="G22" s="56">
         <f>+'PASO 1'!G24</f>
         <v>0</v>
       </c>
-      <c r="G22" s="56">
+      <c r="H22" s="56">
         <f>+'PASO 1'!H24</f>
         <v>0</v>
       </c>
-      <c r="H22" s="56">
+      <c r="I22" s="56">
         <f>+'PASO 1'!I24</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="56">
+        <v>1586</v>
+      </c>
+      <c r="J22" s="56">
         <f>+'PASO 1'!J24</f>
-        <v>1586</v>
-      </c>
-      <c r="J22" s="56">
+        <v>0</v>
+      </c>
+      <c r="K22" s="56">
         <f>+'PASO 1'!K24</f>
         <v>0</v>
       </c>
-      <c r="K22" s="56">
+      <c r="L22" s="56">
         <f>+'PASO 1'!L24</f>
         <v>0</v>
       </c>
-      <c r="L22" s="56">
+      <c r="M22" s="56">
         <f>+'PASO 1'!M24</f>
         <v>0</v>
       </c>
-      <c r="M22" s="56">
+      <c r="N22" s="56">
         <f>+'PASO 1'!N24</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="56">
-        <f>+'PASO 1'!C24</f>
         <v>0</v>
       </c>
       <c r="O22" s="56">
@@ -5109,51 +5200,51 @@
         <v>ANTIGÜEDAD  1% LEY 26727</v>
       </c>
       <c r="C23" s="56">
+        <f>+'PASO 1'!C25</f>
+        <v>502.82</v>
+      </c>
+      <c r="D23" s="56">
         <f>+'PASO 1'!D25</f>
-        <v>502.82</v>
-      </c>
-      <c r="D23" s="56">
+        <v>537.26</v>
+      </c>
+      <c r="E23" s="56">
         <f>+'PASO 1'!E25</f>
-        <v>537.26</v>
-      </c>
-      <c r="E23" s="56">
+        <v>511.43</v>
+      </c>
+      <c r="F23" s="56">
         <f>+'PASO 1'!F25</f>
-        <v>511.43</v>
-      </c>
-      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
         <f>+'PASO 1'!G25</f>
         <v>0</v>
       </c>
-      <c r="G23" s="56">
+      <c r="H23" s="56">
         <f>+'PASO 1'!H25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="56">
+      <c r="I23" s="56">
         <f>+'PASO 1'!I25</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="56">
+        <v>2643.25</v>
+      </c>
+      <c r="J23" s="56">
         <f>+'PASO 1'!J25</f>
-        <v>2643.25</v>
-      </c>
-      <c r="J23" s="56">
+        <v>988.42</v>
+      </c>
+      <c r="K23" s="56" t="str">
         <f>+'PASO 1'!K25</f>
-        <v>988.42</v>
-      </c>
-      <c r="K23" s="56" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L23" s="56">
         <f>+'PASO 1'!L25</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L23" s="56">
+        <v>0</v>
+      </c>
+      <c r="M23" s="56">
         <f>+'PASO 1'!M25</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="56">
+        <v>2686.3</v>
+      </c>
+      <c r="N23" s="56">
         <f>+'PASO 1'!N25</f>
-        <v>2686.3</v>
-      </c>
-      <c r="N23" s="56">
-        <f>+'PASO 1'!C25</f>
         <v>1146.52</v>
       </c>
       <c r="O23" s="56">
@@ -5172,51 +5263,51 @@
         <v>VACACIONES</v>
       </c>
       <c r="C24" s="56">
+        <f>+'PASO 1'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="56">
         <f>+'PASO 1'!D26</f>
         <v>0</v>
       </c>
-      <c r="D24" s="56">
+      <c r="E24" s="56">
         <f>+'PASO 1'!E26</f>
         <v>0</v>
       </c>
-      <c r="E24" s="56">
+      <c r="F24" s="56">
         <f>+'PASO 1'!F26</f>
         <v>0</v>
       </c>
-      <c r="F24" s="56">
+      <c r="G24" s="56">
         <f>+'PASO 1'!G26</f>
         <v>0</v>
       </c>
-      <c r="G24" s="56">
+      <c r="H24" s="56">
         <f>+'PASO 1'!H26</f>
         <v>0</v>
       </c>
-      <c r="H24" s="56">
+      <c r="I24" s="56">
         <f>+'PASO 1'!I26</f>
         <v>0</v>
       </c>
-      <c r="I24" s="56">
+      <c r="J24" s="56">
         <f>+'PASO 1'!J26</f>
         <v>0</v>
       </c>
-      <c r="J24" s="56">
+      <c r="K24" s="56">
         <f>+'PASO 1'!K26</f>
         <v>0</v>
       </c>
-      <c r="K24" s="56">
+      <c r="L24" s="56">
         <f>+'PASO 1'!L26</f>
         <v>0</v>
       </c>
-      <c r="L24" s="56">
+      <c r="M24" s="56">
         <f>+'PASO 1'!M26</f>
         <v>0</v>
       </c>
-      <c r="M24" s="56">
+      <c r="N24" s="56">
         <f>+'PASO 1'!N26</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="56">
-        <f>+'PASO 1'!C26</f>
         <v>0</v>
       </c>
       <c r="O24" s="56">
@@ -5235,51 +5326,51 @@
         <v xml:space="preserve"> SAC 1º SEMESTRE</v>
       </c>
       <c r="C25" s="56">
+        <f>+'PASO 1'!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="56">
         <f>+'PASO 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D25" s="56">
+      <c r="E25" s="56">
         <f>+'PASO 1'!E27</f>
         <v>0</v>
       </c>
-      <c r="E25" s="56">
+      <c r="F25" s="56">
         <f>+'PASO 1'!F27</f>
         <v>0</v>
       </c>
-      <c r="F25" s="56">
+      <c r="G25" s="56">
         <f>+'PASO 1'!G27</f>
         <v>0</v>
       </c>
-      <c r="G25" s="56">
+      <c r="H25" s="56">
         <f>+'PASO 1'!H27</f>
         <v>0</v>
       </c>
-      <c r="H25" s="56">
+      <c r="I25" s="56">
         <f>+'PASO 1'!I27</f>
         <v>0</v>
       </c>
-      <c r="I25" s="56">
+      <c r="J25" s="56">
         <f>+'PASO 1'!J27</f>
         <v>0</v>
       </c>
-      <c r="J25" s="56">
+      <c r="K25" s="56">
         <f>+'PASO 1'!K27</f>
         <v>0</v>
       </c>
-      <c r="K25" s="56">
+      <c r="L25" s="56">
         <f>+'PASO 1'!L27</f>
         <v>0</v>
       </c>
-      <c r="L25" s="56">
+      <c r="M25" s="56">
         <f>+'PASO 1'!M27</f>
         <v>0</v>
       </c>
-      <c r="M25" s="56">
+      <c r="N25" s="56">
         <f>+'PASO 1'!N27</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="56">
-        <f>+'PASO 1'!C27</f>
         <v>0</v>
       </c>
       <c r="O25" s="56">
@@ -5298,51 +5389,51 @@
         <v>SAC PROPORCIONAL</v>
       </c>
       <c r="C26" s="56">
+        <f>+'PASO 1'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="56">
         <f>+'PASO 1'!D28</f>
         <v>0</v>
       </c>
-      <c r="D26" s="56">
+      <c r="E26" s="56">
         <f>+'PASO 1'!E28</f>
         <v>0</v>
       </c>
-      <c r="E26" s="56">
+      <c r="F26" s="56">
         <f>+'PASO 1'!F28</f>
         <v>0</v>
       </c>
-      <c r="F26" s="56">
+      <c r="G26" s="56">
         <f>+'PASO 1'!G28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="56">
+      <c r="H26" s="56">
         <f>+'PASO 1'!H28</f>
         <v>0</v>
       </c>
-      <c r="H26" s="56">
+      <c r="I26" s="56">
         <f>+'PASO 1'!I28</f>
         <v>0</v>
       </c>
-      <c r="I26" s="56">
+      <c r="J26" s="56">
         <f>+'PASO 1'!J28</f>
         <v>0</v>
       </c>
-      <c r="J26" s="56">
+      <c r="K26" s="56">
         <f>+'PASO 1'!K28</f>
         <v>0</v>
       </c>
-      <c r="K26" s="56">
+      <c r="L26" s="56">
         <f>+'PASO 1'!L28</f>
         <v>0</v>
       </c>
-      <c r="L26" s="56">
+      <c r="M26" s="56">
         <f>+'PASO 1'!M28</f>
         <v>0</v>
       </c>
-      <c r="M26" s="56">
+      <c r="N26" s="56">
         <f>+'PASO 1'!N28</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="56">
-        <f>+'PASO 1'!C28</f>
         <v>0</v>
       </c>
       <c r="O26" s="56">
@@ -5361,51 +5452,51 @@
         <v>VACACIONES PROPORCIONAL</v>
       </c>
       <c r="C27" s="56">
+        <f>+'PASO 1'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="56">
         <f>+'PASO 1'!D29</f>
         <v>0</v>
       </c>
-      <c r="D27" s="56">
+      <c r="E27" s="56">
         <f>+'PASO 1'!E29</f>
         <v>0</v>
       </c>
-      <c r="E27" s="56">
+      <c r="F27" s="56">
         <f>+'PASO 1'!F29</f>
         <v>0</v>
       </c>
-      <c r="F27" s="56">
+      <c r="G27" s="56">
         <f>+'PASO 1'!G29</f>
         <v>0</v>
       </c>
-      <c r="G27" s="56">
+      <c r="H27" s="56">
         <f>+'PASO 1'!H29</f>
         <v>0</v>
       </c>
-      <c r="H27" s="56">
+      <c r="I27" s="56">
         <f>+'PASO 1'!I29</f>
         <v>0</v>
       </c>
-      <c r="I27" s="56">
+      <c r="J27" s="56">
         <f>+'PASO 1'!J29</f>
         <v>0</v>
       </c>
-      <c r="J27" s="56">
+      <c r="K27" s="56">
         <f>+'PASO 1'!K29</f>
         <v>0</v>
       </c>
-      <c r="K27" s="56">
+      <c r="L27" s="56">
         <f>+'PASO 1'!L29</f>
         <v>0</v>
       </c>
-      <c r="L27" s="56">
+      <c r="M27" s="56">
         <f>+'PASO 1'!M29</f>
         <v>0</v>
       </c>
-      <c r="M27" s="56">
+      <c r="N27" s="56">
         <f>+'PASO 1'!N29</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="56">
-        <f>+'PASO 1'!C29</f>
         <v>0</v>
       </c>
       <c r="O27" s="56">
@@ -5424,51 +5515,51 @@
         <v>INDEMNIZACION art.20 Ley 26727 P.Temporario</v>
       </c>
       <c r="C28" s="56">
+        <f>+'PASO 1'!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="56">
         <f>+'PASO 1'!D32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="56">
+      <c r="E28" s="56">
         <f>+'PASO 1'!E32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="56">
+      <c r="F28" s="56">
         <f>+'PASO 1'!F32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="56">
+      <c r="G28" s="56">
         <f>+'PASO 1'!G32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="56">
+      <c r="H28" s="56">
         <f>+'PASO 1'!H32</f>
         <v>0</v>
       </c>
-      <c r="H28" s="56">
+      <c r="I28" s="56">
         <f>+'PASO 1'!I32</f>
         <v>0</v>
       </c>
-      <c r="I28" s="56">
+      <c r="J28" s="56">
         <f>+'PASO 1'!J32</f>
         <v>0</v>
       </c>
-      <c r="J28" s="56">
+      <c r="K28" s="56">
         <f>+'PASO 1'!K32</f>
         <v>0</v>
       </c>
-      <c r="K28" s="56">
+      <c r="L28" s="56">
         <f>+'PASO 1'!L32</f>
         <v>0</v>
       </c>
-      <c r="L28" s="56">
+      <c r="M28" s="56">
         <f>+'PASO 1'!M32</f>
         <v>0</v>
       </c>
-      <c r="M28" s="56">
+      <c r="N28" s="56">
         <f>+'PASO 1'!N32</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="56">
-        <f>+'PASO 1'!C32</f>
         <v>0</v>
       </c>
       <c r="O28" s="56">
@@ -5487,51 +5578,51 @@
         <v>INDEMNIZACION ART 22 LEY 26727</v>
       </c>
       <c r="C29" s="56">
+        <f>+'PASO 1'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="56">
         <f>+'PASO 1'!D33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="56">
+      <c r="E29" s="56">
         <f>+'PASO 1'!E33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="56">
+      <c r="F29" s="56">
         <f>+'PASO 1'!F33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="56">
+      <c r="G29" s="56">
         <f>+'PASO 1'!G33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="56">
+      <c r="H29" s="56">
         <f>+'PASO 1'!H33</f>
         <v>0</v>
       </c>
-      <c r="H29" s="56">
+      <c r="I29" s="56">
         <f>+'PASO 1'!I33</f>
         <v>0</v>
       </c>
-      <c r="I29" s="56">
+      <c r="J29" s="56">
         <f>+'PASO 1'!J33</f>
         <v>0</v>
       </c>
-      <c r="J29" s="56">
+      <c r="K29" s="56">
         <f>+'PASO 1'!K33</f>
         <v>0</v>
       </c>
-      <c r="K29" s="56">
+      <c r="L29" s="56">
         <f>+'PASO 1'!L33</f>
         <v>0</v>
       </c>
-      <c r="L29" s="56">
+      <c r="M29" s="56">
         <f>+'PASO 1'!M33</f>
         <v>0</v>
       </c>
-      <c r="M29" s="56">
+      <c r="N29" s="56">
         <f>+'PASO 1'!N33</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="56">
-        <f>+'PASO 1'!C33</f>
         <v>0</v>
       </c>
       <c r="O29" s="56">
@@ -5550,51 +5641,51 @@
         <v>INDEMNIZACION SUSTITUTIVA DE PREAVISO</v>
       </c>
       <c r="C30" s="56">
+        <f>+'PASO 1'!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="56">
         <f>+'PASO 1'!D34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="56">
+      <c r="E30" s="56">
         <f>+'PASO 1'!E34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="56">
+      <c r="F30" s="56">
         <f>+'PASO 1'!F34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="56">
+      <c r="G30" s="56">
         <f>+'PASO 1'!G34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="56">
+      <c r="H30" s="56">
         <f>+'PASO 1'!H34</f>
         <v>0</v>
       </c>
-      <c r="H30" s="56">
+      <c r="I30" s="56">
         <f>+'PASO 1'!I34</f>
         <v>0</v>
       </c>
-      <c r="I30" s="56">
+      <c r="J30" s="56">
         <f>+'PASO 1'!J34</f>
         <v>0</v>
       </c>
-      <c r="J30" s="56">
+      <c r="K30" s="56">
         <f>+'PASO 1'!K34</f>
         <v>0</v>
       </c>
-      <c r="K30" s="56">
+      <c r="L30" s="56">
         <f>+'PASO 1'!L34</f>
         <v>0</v>
       </c>
-      <c r="L30" s="56">
+      <c r="M30" s="56">
         <f>+'PASO 1'!M34</f>
         <v>0</v>
       </c>
-      <c r="M30" s="56">
+      <c r="N30" s="56">
         <f>+'PASO 1'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="56">
-        <f>+'PASO 1'!C34</f>
         <v>0</v>
       </c>
       <c r="O30" s="56">
@@ -5613,51 +5704,51 @@
         <v>INTEGRACION MES DE DESPIDO</v>
       </c>
       <c r="C31" s="56">
+        <f>+'PASO 1'!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="56">
         <f>+'PASO 1'!D35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="56">
+      <c r="E31" s="56">
         <f>+'PASO 1'!E35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="56">
+      <c r="F31" s="56">
         <f>+'PASO 1'!F35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="56">
+      <c r="G31" s="56">
         <f>+'PASO 1'!G35</f>
         <v>0</v>
       </c>
-      <c r="G31" s="56">
+      <c r="H31" s="56">
         <f>+'PASO 1'!H35</f>
         <v>0</v>
       </c>
-      <c r="H31" s="56">
+      <c r="I31" s="56">
         <f>+'PASO 1'!I35</f>
         <v>0</v>
       </c>
-      <c r="I31" s="56">
+      <c r="J31" s="56">
         <f>+'PASO 1'!J35</f>
         <v>0</v>
       </c>
-      <c r="J31" s="56">
+      <c r="K31" s="56">
         <f>+'PASO 1'!K35</f>
         <v>0</v>
       </c>
-      <c r="K31" s="56">
+      <c r="L31" s="56">
         <f>+'PASO 1'!L35</f>
         <v>0</v>
       </c>
-      <c r="L31" s="56">
+      <c r="M31" s="56">
         <f>+'PASO 1'!M35</f>
         <v>0</v>
       </c>
-      <c r="M31" s="56">
+      <c r="N31" s="56">
         <f>+'PASO 1'!N35</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="56">
-        <f>+'PASO 1'!C35</f>
         <v>0</v>
       </c>
       <c r="O31" s="56">
@@ -5676,51 +5767,51 @@
         <v>Asignacion no remunerativa</v>
       </c>
       <c r="C32" s="56">
+        <f>+'PASO 1'!C36</f>
+        <v>7790</v>
+      </c>
+      <c r="D32" s="56">
         <f>+'PASO 1'!D36</f>
         <v>7790</v>
       </c>
-      <c r="D32" s="56">
+      <c r="E32" s="56">
         <f>+'PASO 1'!E36</f>
         <v>7790</v>
       </c>
-      <c r="E32" s="56">
+      <c r="F32" s="56">
         <f>+'PASO 1'!F36</f>
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="G32" s="56">
+        <f>+'PASO 1'!G36</f>
         <v>7790</v>
       </c>
-      <c r="F32" s="56">
-        <f>+'PASO 1'!G36</f>
+      <c r="H32" s="56">
+        <f>+'PASO 1'!H36</f>
         <v>9473.2099999999991</v>
       </c>
-      <c r="G32" s="56">
-        <f>+'PASO 1'!H36</f>
+      <c r="I32" s="56">
+        <f>+'PASO 1'!I36</f>
         <v>7790</v>
       </c>
-      <c r="H32" s="56">
-        <f>+'PASO 1'!I36</f>
-        <v>9473.2099999999991</v>
-      </c>
-      <c r="I32" s="56">
+      <c r="J32" s="56">
         <f>+'PASO 1'!J36</f>
         <v>7790</v>
       </c>
-      <c r="J32" s="56">
+      <c r="K32" s="56">
         <f>+'PASO 1'!K36</f>
+        <v>9993</v>
+      </c>
+      <c r="L32" s="56">
+        <f>+'PASO 1'!L36</f>
         <v>7790</v>
       </c>
-      <c r="K32" s="56">
-        <f>+'PASO 1'!L36</f>
-        <v>9993</v>
-      </c>
-      <c r="L32" s="56">
+      <c r="M32" s="56">
         <f>+'PASO 1'!M36</f>
         <v>7790</v>
       </c>
-      <c r="M32" s="56">
+      <c r="N32" s="56">
         <f>+'PASO 1'!N36</f>
-        <v>7790</v>
-      </c>
-      <c r="N32" s="56">
-        <f>+'PASO 1'!C36</f>
         <v>8312</v>
       </c>
       <c r="O32" s="56">
@@ -5739,52 +5830,52 @@
         <v>OBRA SOCIAL OSPRERA</v>
       </c>
       <c r="C33" s="56">
+        <f>+'PASO 1'!C39</f>
+        <v>1757.2446</v>
+      </c>
+      <c r="D33" s="56">
         <f>+'PASO 1'!D39</f>
-        <v>1757.2446</v>
-      </c>
-      <c r="D33" s="56">
+        <v>1861.5978</v>
+      </c>
+      <c r="E33" s="56">
         <f>+'PASO 1'!E39</f>
-        <v>1861.5978</v>
-      </c>
-      <c r="E33" s="56">
+        <v>1783.3328999999999</v>
+      </c>
+      <c r="F33" s="56">
         <f>+'PASO 1'!F39</f>
-        <v>1783.3328999999999</v>
-      </c>
-      <c r="F33" s="56">
+        <v>2570.3703</v>
+      </c>
+      <c r="G33" s="56">
         <f>+'PASO 1'!G39</f>
-        <v>2570.3703</v>
-      </c>
-      <c r="G33" s="56">
+        <v>2311.29</v>
+      </c>
+      <c r="H33" s="56">
         <f>+'PASO 1'!H39</f>
-        <v>2311.29</v>
-      </c>
-      <c r="H33" s="56">
+        <v>2578.4198999999994</v>
+      </c>
+      <c r="I33" s="56">
         <f>+'PASO 1'!I39</f>
-        <v>2578.4198999999994</v>
-      </c>
-      <c r="I33" s="56">
+        <v>1946.5274999999999</v>
+      </c>
+      <c r="J33" s="56">
         <f>+'PASO 1'!J39</f>
-        <v>1946.5274999999999</v>
-      </c>
-      <c r="J33" s="56">
+        <v>1745.9825999999998</v>
+      </c>
+      <c r="K33" s="56">
         <f>+'PASO 1'!K39</f>
-        <v>1745.9825999999998</v>
-      </c>
-      <c r="K33" s="56">
+        <v>2776.7444999999998</v>
+      </c>
+      <c r="L33" s="56">
         <f>+'PASO 1'!L39</f>
-        <v>2776.7444999999998</v>
-      </c>
-      <c r="L33" s="56">
+        <v>2393.4899999999998</v>
+      </c>
+      <c r="M33" s="56">
         <f>+'PASO 1'!M39</f>
-        <v>2393.4899999999998</v>
-      </c>
-      <c r="M33" s="56">
+        <v>1926.069</v>
+      </c>
+      <c r="N33" s="56">
         <f>+'PASO 1'!N39</f>
-        <v>1926.069</v>
-      </c>
-      <c r="N33" s="56">
-        <f>+'PASO 1'!C39</f>
-        <v>1871.2463999999998</v>
+        <v>2003.5464000000002</v>
       </c>
       <c r="O33" s="56">
         <f>+'PASO 1'!O39</f>
@@ -5802,52 +5893,52 @@
         <v>CUOTA SIND. UATRE</v>
       </c>
       <c r="C34" s="56">
+        <f>+'PASO 1'!C40</f>
+        <v>1015.6964</v>
+      </c>
+      <c r="D34" s="56">
         <f>+'PASO 1'!D40</f>
-        <v>1015.6964</v>
-      </c>
-      <c r="D34" s="56">
+        <v>1085.2652</v>
+      </c>
+      <c r="E34" s="56">
         <f>+'PASO 1'!E40</f>
-        <v>1085.2652</v>
-      </c>
-      <c r="E34" s="56">
+        <v>1033.0886</v>
+      </c>
+      <c r="F34" s="56">
         <f>+'PASO 1'!F40</f>
-        <v>1033.0886</v>
-      </c>
-      <c r="F34" s="56">
+        <v>1524.116</v>
+      </c>
+      <c r="G34" s="56">
         <f>+'PASO 1'!G40</f>
-        <v>1524.116</v>
-      </c>
-      <c r="G34" s="56">
+        <v>1385.06</v>
+      </c>
+      <c r="H34" s="56">
         <f>+'PASO 1'!H40</f>
-        <v>1385.06</v>
-      </c>
-      <c r="H34" s="56">
+        <v>1529.4823999999999</v>
+      </c>
+      <c r="I34" s="56">
         <f>+'PASO 1'!I40</f>
-        <v>1529.4823999999999</v>
-      </c>
-      <c r="I34" s="56">
+        <v>1141.885</v>
+      </c>
+      <c r="J34" s="56">
         <f>+'PASO 1'!J40</f>
-        <v>1141.885</v>
-      </c>
-      <c r="J34" s="56">
+        <v>1008.1884</v>
+      </c>
+      <c r="K34" s="56">
         <f>+'PASO 1'!K40</f>
-        <v>1008.1884</v>
-      </c>
-      <c r="K34" s="56">
+        <v>1651.3029999999999</v>
+      </c>
+      <c r="L34" s="56">
         <f>+'PASO 1'!L40</f>
-        <v>1651.3029999999999</v>
-      </c>
-      <c r="L34" s="56">
+        <v>1439.8600000000001</v>
+      </c>
+      <c r="M34" s="56">
         <f>+'PASO 1'!M40</f>
-        <v>1439.8600000000001</v>
-      </c>
-      <c r="M34" s="56">
+        <v>1128.2460000000001</v>
+      </c>
+      <c r="N34" s="56">
         <f>+'PASO 1'!N40</f>
-        <v>1128.2460000000001</v>
-      </c>
-      <c r="N34" s="56">
-        <f>+'PASO 1'!C40</f>
-        <v>1081.2575999999999</v>
+        <v>1169.4576</v>
       </c>
       <c r="O34" s="56">
         <f>+'PASO 1'!O40</f>
@@ -5865,52 +5956,52 @@
         <v>JUBILACION D.N.R.P.</v>
       </c>
       <c r="C35" s="56">
+        <f>+'PASO 1'!C41</f>
+        <v>5586.3302000000003</v>
+      </c>
+      <c r="D35" s="56">
         <f>+'PASO 1'!D41</f>
-        <v>5586.3302000000003</v>
-      </c>
-      <c r="D35" s="56">
+        <v>5968.9585999999999</v>
+      </c>
+      <c r="E35" s="56">
         <f>+'PASO 1'!E41</f>
-        <v>5968.9585999999999</v>
-      </c>
-      <c r="E35" s="56">
+        <v>5681.9872999999998</v>
+      </c>
+      <c r="F35" s="56">
         <f>+'PASO 1'!F41</f>
-        <v>5681.9872999999998</v>
-      </c>
-      <c r="F35" s="56">
+        <v>8382.6380000000008</v>
+      </c>
+      <c r="G35" s="56">
         <f>+'PASO 1'!G41</f>
-        <v>8382.6380000000008</v>
-      </c>
-      <c r="G35" s="56">
+        <v>7617.83</v>
+      </c>
+      <c r="H35" s="56">
         <f>+'PASO 1'!H41</f>
-        <v>7617.83</v>
-      </c>
-      <c r="H35" s="56">
+        <v>8412.1531999999988</v>
+      </c>
+      <c r="I35" s="56">
         <f>+'PASO 1'!I41</f>
-        <v>8412.1531999999988</v>
-      </c>
-      <c r="I35" s="56">
+        <v>6280.3675000000003</v>
+      </c>
+      <c r="J35" s="56">
         <f>+'PASO 1'!J41</f>
-        <v>6280.3675000000003</v>
-      </c>
-      <c r="J35" s="56">
+        <v>5545.0361999999996</v>
+      </c>
+      <c r="K35" s="56">
         <f>+'PASO 1'!K41</f>
-        <v>5545.0361999999996</v>
-      </c>
-      <c r="K35" s="56">
+        <v>9082.1664999999994</v>
+      </c>
+      <c r="L35" s="56">
         <f>+'PASO 1'!L41</f>
-        <v>9082.1664999999994</v>
-      </c>
-      <c r="L35" s="56">
+        <v>7919.2300000000005</v>
+      </c>
+      <c r="M35" s="56">
         <f>+'PASO 1'!M41</f>
-        <v>7919.2300000000005</v>
-      </c>
-      <c r="M35" s="56">
+        <v>6205.3530000000001</v>
+      </c>
+      <c r="N35" s="56">
         <f>+'PASO 1'!N41</f>
-        <v>6205.3530000000001</v>
-      </c>
-      <c r="N35" s="56">
-        <f>+'PASO 1'!C41</f>
-        <v>5946.9168</v>
+        <v>6432.0167999999994</v>
       </c>
       <c r="O35" s="56">
         <f>+'PASO 1'!O41</f>
@@ -5928,52 +6019,52 @@
         <v>LEY 19032 - I.S.S.J.P.</v>
       </c>
       <c r="C36" s="56">
+        <f>+'PASO 1'!C42</f>
+        <v>1523.5445999999999</v>
+      </c>
+      <c r="D36" s="56">
         <f>+'PASO 1'!D42</f>
-        <v>1523.5445999999999</v>
-      </c>
-      <c r="D36" s="56">
+        <v>1627.8978</v>
+      </c>
+      <c r="E36" s="56">
         <f>+'PASO 1'!E42</f>
-        <v>1627.8978</v>
-      </c>
-      <c r="E36" s="56">
+        <v>1549.6329000000001</v>
+      </c>
+      <c r="F36" s="56">
         <f>+'PASO 1'!F42</f>
-        <v>1549.6329000000001</v>
-      </c>
-      <c r="F36" s="56">
+        <v>2286.174</v>
+      </c>
+      <c r="G36" s="56">
         <f>+'PASO 1'!G42</f>
-        <v>2286.174</v>
-      </c>
-      <c r="G36" s="56">
+        <v>2077.59</v>
+      </c>
+      <c r="H36" s="56">
         <f>+'PASO 1'!H42</f>
-        <v>2077.59</v>
-      </c>
-      <c r="H36" s="56">
+        <v>2294.2235999999998</v>
+      </c>
+      <c r="I36" s="56">
         <f>+'PASO 1'!I42</f>
-        <v>2294.2235999999998</v>
-      </c>
-      <c r="I36" s="56">
+        <v>1712.8274999999999</v>
+      </c>
+      <c r="J36" s="56">
         <f>+'PASO 1'!J42</f>
-        <v>1712.8274999999999</v>
-      </c>
-      <c r="J36" s="56">
+        <v>1512.2826</v>
+      </c>
+      <c r="K36" s="56">
         <f>+'PASO 1'!K42</f>
-        <v>1512.2826</v>
-      </c>
-      <c r="K36" s="56">
+        <v>2476.9544999999998</v>
+      </c>
+      <c r="L36" s="56">
         <f>+'PASO 1'!L42</f>
-        <v>2476.9544999999998</v>
-      </c>
-      <c r="L36" s="56">
+        <v>2159.79</v>
+      </c>
+      <c r="M36" s="56">
         <f>+'PASO 1'!M42</f>
-        <v>2159.79</v>
-      </c>
-      <c r="M36" s="56">
+        <v>1692.3689999999999</v>
+      </c>
+      <c r="N36" s="56">
         <f>+'PASO 1'!N42</f>
-        <v>1692.3689999999999</v>
-      </c>
-      <c r="N36" s="56">
-        <f>+'PASO 1'!C42</f>
-        <v>1621.8863999999999</v>
+        <v>1754.1863999999998</v>
       </c>
       <c r="O36" s="56">
         <f>+'PASO 1'!O42</f>
@@ -5991,52 +6082,52 @@
         <v>F. SALUD PUBLICA</v>
       </c>
       <c r="C37" s="56">
+        <f>+'PASO 1'!C43</f>
+        <v>380.88614999999999</v>
+      </c>
+      <c r="D37" s="56">
         <f>+'PASO 1'!D43</f>
-        <v>380.88614999999999</v>
-      </c>
-      <c r="D37" s="56">
+        <v>406.97444999999999</v>
+      </c>
+      <c r="E37" s="56">
         <f>+'PASO 1'!E43</f>
-        <v>406.97444999999999</v>
-      </c>
-      <c r="E37" s="56">
+        <v>387.40822500000002</v>
+      </c>
+      <c r="F37" s="56">
         <f>+'PASO 1'!F43</f>
-        <v>387.40822500000002</v>
-      </c>
-      <c r="F37" s="56">
+        <v>571.54349999999999</v>
+      </c>
+      <c r="G37" s="56">
         <f>+'PASO 1'!G43</f>
-        <v>571.54349999999999</v>
-      </c>
-      <c r="G37" s="56">
+        <v>519.39750000000004</v>
+      </c>
+      <c r="H37" s="56">
         <f>+'PASO 1'!H43</f>
-        <v>519.39750000000004</v>
-      </c>
-      <c r="H37" s="56">
+        <v>573.55589999999995</v>
+      </c>
+      <c r="I37" s="56">
         <f>+'PASO 1'!I43</f>
-        <v>573.55589999999995</v>
-      </c>
-      <c r="I37" s="56">
+        <v>428.20687499999997</v>
+      </c>
+      <c r="J37" s="56">
         <f>+'PASO 1'!J43</f>
-        <v>428.20687499999997</v>
-      </c>
-      <c r="J37" s="56">
+        <v>378.07065</v>
+      </c>
+      <c r="K37" s="56">
         <f>+'PASO 1'!K43</f>
-        <v>378.07065</v>
-      </c>
-      <c r="K37" s="56">
+        <v>619.23862499999996</v>
+      </c>
+      <c r="L37" s="56">
         <f>+'PASO 1'!L43</f>
-        <v>619.23862499999996</v>
-      </c>
-      <c r="L37" s="56">
+        <v>539.94749999999999</v>
+      </c>
+      <c r="M37" s="56">
         <f>+'PASO 1'!M43</f>
-        <v>539.94749999999999</v>
-      </c>
-      <c r="M37" s="56">
+        <v>423.09224999999998</v>
+      </c>
+      <c r="N37" s="56">
         <f>+'PASO 1'!N43</f>
-        <v>423.09224999999998</v>
-      </c>
-      <c r="N37" s="56">
-        <f>+'PASO 1'!C43</f>
-        <v>405.47159999999997</v>
+        <v>438.54659999999996</v>
       </c>
       <c r="O37" s="56">
         <f>+'PASO 1'!O43</f>
@@ -6054,51 +6145,51 @@
         <v>UATRE s/ asig no rem</v>
       </c>
       <c r="C38" s="56">
+        <f>+'PASO 1'!C44</f>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="D38" s="56">
         <f>+'PASO 1'!D44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="D38" s="56">
+      <c r="E38" s="56">
         <f>+'PASO 1'!E44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="E38" s="56">
+      <c r="F38" s="56">
         <f>+'PASO 1'!F44</f>
+        <v>189.46419999999998</v>
+      </c>
+      <c r="G38" s="56">
+        <f>+'PASO 1'!G44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="F38" s="56">
-        <f>+'PASO 1'!G44</f>
+      <c r="H38" s="56">
+        <f>+'PASO 1'!H44</f>
         <v>189.46419999999998</v>
       </c>
-      <c r="G38" s="56">
-        <f>+'PASO 1'!H44</f>
+      <c r="I38" s="56">
+        <f>+'PASO 1'!I44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="H38" s="56">
-        <f>+'PASO 1'!I44</f>
-        <v>189.46419999999998</v>
-      </c>
-      <c r="I38" s="56">
+      <c r="J38" s="56">
         <f>+'PASO 1'!J44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="J38" s="56">
+      <c r="K38" s="56">
         <f>+'PASO 1'!K44</f>
+        <v>199.86</v>
+      </c>
+      <c r="L38" s="56">
+        <f>+'PASO 1'!L44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="K38" s="56">
-        <f>+'PASO 1'!L44</f>
-        <v>199.86</v>
-      </c>
-      <c r="L38" s="56">
+      <c r="M38" s="56">
         <f>+'PASO 1'!M44</f>
         <v>155.80000000000001</v>
       </c>
-      <c r="M38" s="56">
+      <c r="N38" s="56">
         <f>+'PASO 1'!N44</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="N38" s="56">
-        <f>+'PASO 1'!C44</f>
         <v>166.24</v>
       </c>
       <c r="O38" s="56">
@@ -6117,52 +6208,52 @@
         <v>SEGURO SEPELIOUATRE</v>
       </c>
       <c r="C39" s="56">
+        <f>+'PASO 1'!C45</f>
+        <v>761.77229999999997</v>
+      </c>
+      <c r="D39" s="56">
         <f>+'PASO 1'!D45</f>
-        <v>761.77229999999997</v>
-      </c>
-      <c r="D39" s="56">
+        <v>813.94889999999998</v>
+      </c>
+      <c r="E39" s="56">
         <f>+'PASO 1'!E45</f>
-        <v>813.94889999999998</v>
-      </c>
-      <c r="E39" s="56">
+        <v>774.81645000000003</v>
+      </c>
+      <c r="F39" s="56">
         <f>+'PASO 1'!F45</f>
-        <v>774.81645000000003</v>
-      </c>
-      <c r="F39" s="56">
+        <v>1143.087</v>
+      </c>
+      <c r="G39" s="56">
         <f>+'PASO 1'!G45</f>
-        <v>1143.087</v>
-      </c>
-      <c r="G39" s="56">
+        <v>1038.7950000000001</v>
+      </c>
+      <c r="H39" s="56">
         <f>+'PASO 1'!H45</f>
-        <v>1038.7950000000001</v>
-      </c>
-      <c r="H39" s="56">
+        <v>1147.1117999999999</v>
+      </c>
+      <c r="I39" s="56">
         <f>+'PASO 1'!I45</f>
-        <v>1147.1117999999999</v>
-      </c>
-      <c r="I39" s="56">
+        <v>856.41374999999994</v>
+      </c>
+      <c r="J39" s="56">
         <f>+'PASO 1'!J45</f>
-        <v>856.41374999999994</v>
-      </c>
-      <c r="J39" s="56">
+        <v>756.1413</v>
+      </c>
+      <c r="K39" s="56">
         <f>+'PASO 1'!K45</f>
-        <v>756.1413</v>
-      </c>
-      <c r="K39" s="56">
+        <v>1238.4772499999999</v>
+      </c>
+      <c r="L39" s="56">
         <f>+'PASO 1'!L45</f>
-        <v>1238.4772499999999</v>
-      </c>
-      <c r="L39" s="56">
+        <v>1079.895</v>
+      </c>
+      <c r="M39" s="56">
         <f>+'PASO 1'!M45</f>
-        <v>1079.895</v>
-      </c>
-      <c r="M39" s="56">
+        <v>846.18449999999996</v>
+      </c>
+      <c r="N39" s="56">
         <f>+'PASO 1'!N45</f>
-        <v>846.18449999999996</v>
-      </c>
-      <c r="N39" s="56">
-        <f>+'PASO 1'!C45</f>
-        <v>810.94319999999993</v>
+        <v>877.09319999999991</v>
       </c>
       <c r="O39" s="56">
         <f>+'PASO 1'!O45</f>
@@ -6180,51 +6271,51 @@
         <v xml:space="preserve">MERCADERIAS </v>
       </c>
       <c r="C40" s="56">
+        <f>+'PASO 1'!C46</f>
+        <v>650</v>
+      </c>
+      <c r="D40" s="56">
         <f>+'PASO 1'!D46</f>
         <v>650</v>
       </c>
-      <c r="D40" s="56">
+      <c r="E40" s="56">
         <f>+'PASO 1'!E46</f>
         <v>650</v>
       </c>
-      <c r="E40" s="56">
+      <c r="F40" s="56">
         <f>+'PASO 1'!F46</f>
+        <v>1630</v>
+      </c>
+      <c r="G40" s="56">
+        <f>+'PASO 1'!G46</f>
         <v>650</v>
       </c>
-      <c r="F40" s="56">
-        <f>+'PASO 1'!G46</f>
+      <c r="H40" s="56">
+        <f>+'PASO 1'!H46</f>
         <v>1630</v>
       </c>
-      <c r="G40" s="56">
-        <f>+'PASO 1'!H46</f>
-        <v>650</v>
-      </c>
-      <c r="H40" s="56">
+      <c r="I40" s="56">
         <f>+'PASO 1'!I46</f>
+        <v>4330</v>
+      </c>
+      <c r="J40" s="56">
+        <f>+'PASO 1'!J46</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="56">
+        <f>+'PASO 1'!K46</f>
         <v>1630</v>
       </c>
-      <c r="I40" s="56">
-        <f>+'PASO 1'!J46</f>
-        <v>4330</v>
-      </c>
-      <c r="J40" s="56">
-        <f>+'PASO 1'!K46</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="56">
+      <c r="L40" s="56">
         <f>+'PASO 1'!L46</f>
-        <v>1630</v>
-      </c>
-      <c r="L40" s="56">
+        <v>800</v>
+      </c>
+      <c r="M40" s="56">
         <f>+'PASO 1'!M46</f>
         <v>800</v>
       </c>
-      <c r="M40" s="56">
+      <c r="N40" s="56">
         <f>+'PASO 1'!N46</f>
-        <v>800</v>
-      </c>
-      <c r="N40" s="56">
-        <f>+'PASO 1'!C46</f>
         <v>650</v>
       </c>
       <c r="O40" s="56">
@@ -6243,52 +6334,52 @@
         <v>Base imponible 1</v>
       </c>
       <c r="C41" s="56">
+        <f>+'PASO 1'!C50</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D41" s="56">
         <f>+'PASO 1'!D50</f>
-        <v>50784.82</v>
-      </c>
-      <c r="D41" s="56">
+        <v>54263.26</v>
+      </c>
+      <c r="E41" s="56">
         <f>+'PASO 1'!E50</f>
-        <v>54263.26</v>
-      </c>
-      <c r="E41" s="56">
+        <v>51654.43</v>
+      </c>
+      <c r="F41" s="56">
         <f>+'PASO 1'!F50</f>
-        <v>51654.43</v>
-      </c>
-      <c r="F41" s="56">
+        <v>76205.8</v>
+      </c>
+      <c r="G41" s="56">
         <f>+'PASO 1'!G50</f>
-        <v>76205.8</v>
-      </c>
-      <c r="G41" s="56">
+        <v>69253</v>
+      </c>
+      <c r="H41" s="56">
         <f>+'PASO 1'!H50</f>
-        <v>69253</v>
-      </c>
-      <c r="H41" s="56">
+        <v>76474.12</v>
+      </c>
+      <c r="I41" s="56">
         <f>+'PASO 1'!I50</f>
-        <v>76474.12</v>
-      </c>
-      <c r="I41" s="56">
+        <v>57094.25</v>
+      </c>
+      <c r="J41" s="56">
         <f>+'PASO 1'!J50</f>
-        <v>57094.25</v>
-      </c>
-      <c r="J41" s="56">
+        <v>50409.42</v>
+      </c>
+      <c r="K41" s="56">
         <f>+'PASO 1'!K50</f>
-        <v>50409.42</v>
-      </c>
-      <c r="K41" s="56">
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L41" s="56">
         <f>+'PASO 1'!L50</f>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="L41" s="56">
+        <v>71993</v>
+      </c>
+      <c r="M41" s="56">
         <f>+'PASO 1'!M50</f>
-        <v>71993</v>
-      </c>
-      <c r="M41" s="56">
+        <v>56412.3</v>
+      </c>
+      <c r="N41" s="56">
         <f>+'PASO 1'!N50</f>
-        <v>56412.3</v>
-      </c>
-      <c r="N41" s="56">
-        <f>+'PASO 1'!C50</f>
-        <v>54062.879999999997</v>
+        <v>58472.88</v>
       </c>
       <c r="O41" s="56">
         <f>+'PASO 1'!O50</f>
@@ -6310,52 +6401,52 @@
         <v>Base imponible 2</v>
       </c>
       <c r="C42" s="56">
+        <f>+'PASO 1'!C51</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D42" s="56">
         <f>+'PASO 1'!D51</f>
-        <v>50784.82</v>
-      </c>
-      <c r="D42" s="56">
+        <v>54263.26</v>
+      </c>
+      <c r="E42" s="56">
         <f>+'PASO 1'!E51</f>
-        <v>54263.26</v>
-      </c>
-      <c r="E42" s="56">
+        <v>51654.43</v>
+      </c>
+      <c r="F42" s="56">
         <f>+'PASO 1'!F51</f>
-        <v>51654.43</v>
-      </c>
-      <c r="F42" s="56">
+        <v>76205.8</v>
+      </c>
+      <c r="G42" s="56">
         <f>+'PASO 1'!G51</f>
-        <v>76205.8</v>
-      </c>
-      <c r="G42" s="56">
+        <v>69253</v>
+      </c>
+      <c r="H42" s="56">
         <f>+'PASO 1'!H51</f>
-        <v>69253</v>
-      </c>
-      <c r="H42" s="56">
+        <v>76474.12</v>
+      </c>
+      <c r="I42" s="56">
         <f>+'PASO 1'!I51</f>
-        <v>76474.12</v>
-      </c>
-      <c r="I42" s="56">
+        <v>57094.25</v>
+      </c>
+      <c r="J42" s="56">
         <f>+'PASO 1'!J51</f>
-        <v>57094.25</v>
-      </c>
-      <c r="J42" s="56">
+        <v>50409.42</v>
+      </c>
+      <c r="K42" s="56">
         <f>+'PASO 1'!K51</f>
-        <v>50409.42</v>
-      </c>
-      <c r="K42" s="56">
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L42" s="56">
         <f>+'PASO 1'!L51</f>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="L42" s="56">
+        <v>71993</v>
+      </c>
+      <c r="M42" s="56">
         <f>+'PASO 1'!M51</f>
-        <v>71993</v>
-      </c>
-      <c r="M42" s="56">
+        <v>56412.3</v>
+      </c>
+      <c r="N42" s="56">
         <f>+'PASO 1'!N51</f>
-        <v>56412.3</v>
-      </c>
-      <c r="N42" s="56">
-        <f>+'PASO 1'!C51</f>
-        <v>54062.879999999997</v>
+        <v>58472.88</v>
       </c>
       <c r="O42" s="56">
         <f>+'PASO 1'!O51</f>
@@ -6373,52 +6464,52 @@
         <v>Base imponible 3</v>
       </c>
       <c r="C43" s="56">
+        <f>+'PASO 1'!C52</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D43" s="56">
         <f>+'PASO 1'!D52</f>
-        <v>50784.82</v>
-      </c>
-      <c r="D43" s="56">
+        <v>54263.26</v>
+      </c>
+      <c r="E43" s="56">
         <f>+'PASO 1'!E52</f>
-        <v>54263.26</v>
-      </c>
-      <c r="E43" s="56">
+        <v>51654.43</v>
+      </c>
+      <c r="F43" s="56">
         <f>+'PASO 1'!F52</f>
-        <v>51654.43</v>
-      </c>
-      <c r="F43" s="56">
+        <v>76205.8</v>
+      </c>
+      <c r="G43" s="56">
         <f>+'PASO 1'!G52</f>
-        <v>76205.8</v>
-      </c>
-      <c r="G43" s="56">
+        <v>69253</v>
+      </c>
+      <c r="H43" s="56">
         <f>+'PASO 1'!H52</f>
-        <v>69253</v>
-      </c>
-      <c r="H43" s="56">
+        <v>76474.12</v>
+      </c>
+      <c r="I43" s="56">
         <f>+'PASO 1'!I52</f>
-        <v>76474.12</v>
-      </c>
-      <c r="I43" s="56">
+        <v>57094.25</v>
+      </c>
+      <c r="J43" s="56">
         <f>+'PASO 1'!J52</f>
-        <v>57094.25</v>
-      </c>
-      <c r="J43" s="56">
+        <v>50409.42</v>
+      </c>
+      <c r="K43" s="56">
         <f>+'PASO 1'!K52</f>
-        <v>50409.42</v>
-      </c>
-      <c r="K43" s="56">
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L43" s="56">
         <f>+'PASO 1'!L52</f>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="L43" s="56">
+        <v>71993</v>
+      </c>
+      <c r="M43" s="56">
         <f>+'PASO 1'!M52</f>
-        <v>71993</v>
-      </c>
-      <c r="M43" s="56">
+        <v>56412.3</v>
+      </c>
+      <c r="N43" s="56">
         <f>+'PASO 1'!N52</f>
-        <v>56412.3</v>
-      </c>
-      <c r="N43" s="56">
-        <f>+'PASO 1'!C52</f>
-        <v>54062.879999999997</v>
+        <v>58472.88</v>
       </c>
       <c r="O43" s="56">
         <f>+'PASO 1'!O52</f>
@@ -6435,52 +6526,52 @@
         <v>Base imponible 4</v>
       </c>
       <c r="C44" s="56">
+        <f>+'PASO 1'!C53</f>
+        <v>58574.82</v>
+      </c>
+      <c r="D44" s="56">
         <f>+'PASO 1'!D53</f>
-        <v>58574.82</v>
-      </c>
-      <c r="D44" s="56">
+        <v>62053.26</v>
+      </c>
+      <c r="E44" s="56">
         <f>+'PASO 1'!E53</f>
-        <v>62053.26</v>
-      </c>
-      <c r="E44" s="56">
+        <v>59444.43</v>
+      </c>
+      <c r="F44" s="56">
         <f>+'PASO 1'!F53</f>
-        <v>59444.43</v>
-      </c>
-      <c r="F44" s="56">
+        <v>85679.010000000009</v>
+      </c>
+      <c r="G44" s="56">
         <f>+'PASO 1'!G53</f>
-        <v>85679.010000000009</v>
-      </c>
-      <c r="G44" s="56">
+        <v>77043</v>
+      </c>
+      <c r="H44" s="56">
         <f>+'PASO 1'!H53</f>
-        <v>77043</v>
-      </c>
-      <c r="H44" s="56">
+        <v>85947.329999999987</v>
+      </c>
+      <c r="I44" s="56">
         <f>+'PASO 1'!I53</f>
-        <v>85947.329999999987</v>
-      </c>
-      <c r="I44" s="56">
+        <v>64884.25</v>
+      </c>
+      <c r="J44" s="56">
         <f>+'PASO 1'!J53</f>
-        <v>64884.25</v>
-      </c>
-      <c r="J44" s="56">
+        <v>58199.42</v>
+      </c>
+      <c r="K44" s="56">
         <f>+'PASO 1'!K53</f>
-        <v>58199.42</v>
-      </c>
-      <c r="K44" s="56">
+        <v>92558.15</v>
+      </c>
+      <c r="L44" s="56">
         <f>+'PASO 1'!L53</f>
-        <v>92558.15</v>
-      </c>
-      <c r="L44" s="56">
+        <v>79783</v>
+      </c>
+      <c r="M44" s="56">
         <f>+'PASO 1'!M53</f>
-        <v>79783</v>
-      </c>
-      <c r="M44" s="56">
+        <v>64202.3</v>
+      </c>
+      <c r="N44" s="56">
         <f>+'PASO 1'!N53</f>
-        <v>64202.3</v>
-      </c>
-      <c r="N44" s="56">
-        <f>+'PASO 1'!C53</f>
-        <v>62374.879999999997</v>
+        <v>66784.88</v>
       </c>
       <c r="O44" s="56">
         <f>+'PASO 1'!O53</f>
@@ -6497,52 +6588,52 @@
         <v>Base imponible 5</v>
       </c>
       <c r="C45" s="56">
+        <f>+'PASO 1'!C54</f>
+        <v>50784.82</v>
+      </c>
+      <c r="D45" s="56">
         <f>+'PASO 1'!D54</f>
-        <v>50784.82</v>
-      </c>
-      <c r="D45" s="56">
+        <v>54263.26</v>
+      </c>
+      <c r="E45" s="56">
         <f>+'PASO 1'!E54</f>
-        <v>54263.26</v>
-      </c>
-      <c r="E45" s="56">
+        <v>51654.43</v>
+      </c>
+      <c r="F45" s="56">
         <f>+'PASO 1'!F54</f>
-        <v>51654.43</v>
-      </c>
-      <c r="F45" s="56">
+        <v>76205.8</v>
+      </c>
+      <c r="G45" s="56">
         <f>+'PASO 1'!G54</f>
-        <v>76205.8</v>
-      </c>
-      <c r="G45" s="56">
+        <v>69253</v>
+      </c>
+      <c r="H45" s="56">
         <f>+'PASO 1'!H54</f>
-        <v>69253</v>
-      </c>
-      <c r="H45" s="56">
+        <v>76474.12</v>
+      </c>
+      <c r="I45" s="56">
         <f>+'PASO 1'!I54</f>
-        <v>76474.12</v>
-      </c>
-      <c r="I45" s="56">
+        <v>57094.25</v>
+      </c>
+      <c r="J45" s="56">
         <f>+'PASO 1'!J54</f>
-        <v>57094.25</v>
-      </c>
-      <c r="J45" s="56">
+        <v>50409.42</v>
+      </c>
+      <c r="K45" s="56">
         <f>+'PASO 1'!K54</f>
-        <v>50409.42</v>
-      </c>
-      <c r="K45" s="56">
+        <v>82565.149999999994</v>
+      </c>
+      <c r="L45" s="56">
         <f>+'PASO 1'!L54</f>
-        <v>82565.149999999994</v>
-      </c>
-      <c r="L45" s="56">
+        <v>71993</v>
+      </c>
+      <c r="M45" s="56">
         <f>+'PASO 1'!M54</f>
-        <v>71993</v>
-      </c>
-      <c r="M45" s="56">
+        <v>56412.3</v>
+      </c>
+      <c r="N45" s="56">
         <f>+'PASO 1'!N54</f>
-        <v>56412.3</v>
-      </c>
-      <c r="N45" s="56">
-        <f>+'PASO 1'!C54</f>
-        <v>54062.879999999997</v>
+        <v>58472.88</v>
       </c>
       <c r="O45" s="56">
         <f>+'PASO 1'!O54</f>
@@ -6560,51 +6651,51 @@
         <v>Base imponible 6</v>
       </c>
       <c r="C46" s="56">
+        <f>+'PASO 1'!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="56">
         <f>+'PASO 1'!D55</f>
         <v>0</v>
       </c>
-      <c r="D46" s="56">
+      <c r="E46" s="56">
         <f>+'PASO 1'!E55</f>
         <v>0</v>
       </c>
-      <c r="E46" s="56">
+      <c r="F46" s="56">
         <f>+'PASO 1'!F55</f>
         <v>0</v>
       </c>
-      <c r="F46" s="56">
+      <c r="G46" s="56">
         <f>+'PASO 1'!G55</f>
         <v>0</v>
       </c>
-      <c r="G46" s="56">
+      <c r="H46" s="56">
         <f>+'PASO 1'!H55</f>
         <v>0</v>
       </c>
-      <c r="H46" s="56">
+      <c r="I46" s="56">
         <f>+'PASO 1'!I55</f>
         <v>0</v>
       </c>
-      <c r="I46" s="56">
+      <c r="J46" s="56">
         <f>+'PASO 1'!J55</f>
         <v>0</v>
       </c>
-      <c r="J46" s="56">
+      <c r="K46" s="56">
         <f>+'PASO 1'!K55</f>
         <v>0</v>
       </c>
-      <c r="K46" s="56">
+      <c r="L46" s="56">
         <f>+'PASO 1'!L55</f>
         <v>0</v>
       </c>
-      <c r="L46" s="56">
+      <c r="M46" s="56">
         <f>+'PASO 1'!M55</f>
         <v>0</v>
       </c>
-      <c r="M46" s="56">
+      <c r="N46" s="56">
         <f>+'PASO 1'!N55</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="56">
-        <f>+'PASO 1'!C55</f>
         <v>0</v>
       </c>
       <c r="O46" s="56">
@@ -6622,51 +6713,51 @@
         <v>Base imponible 7</v>
       </c>
       <c r="C47" s="56">
+        <f>+'PASO 1'!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="56">
         <f>+'PASO 1'!D56</f>
         <v>0</v>
       </c>
-      <c r="D47" s="56">
+      <c r="E47" s="56">
         <f>+'PASO 1'!E56</f>
         <v>0</v>
       </c>
-      <c r="E47" s="56">
+      <c r="F47" s="56">
         <f>+'PASO 1'!F56</f>
         <v>0</v>
       </c>
-      <c r="F47" s="56">
+      <c r="G47" s="56">
         <f>+'PASO 1'!G56</f>
         <v>0</v>
       </c>
-      <c r="G47" s="56">
+      <c r="H47" s="56">
         <f>+'PASO 1'!H56</f>
         <v>0</v>
       </c>
-      <c r="H47" s="56">
+      <c r="I47" s="56">
         <f>+'PASO 1'!I56</f>
         <v>0</v>
       </c>
-      <c r="I47" s="56">
+      <c r="J47" s="56">
         <f>+'PASO 1'!J56</f>
         <v>0</v>
       </c>
-      <c r="J47" s="56">
+      <c r="K47" s="56">
         <f>+'PASO 1'!K56</f>
         <v>0</v>
       </c>
-      <c r="K47" s="56">
+      <c r="L47" s="56">
         <f>+'PASO 1'!L56</f>
         <v>0</v>
       </c>
-      <c r="L47" s="56">
+      <c r="M47" s="56">
         <f>+'PASO 1'!M56</f>
         <v>0</v>
       </c>
-      <c r="M47" s="56">
+      <c r="N47" s="56">
         <f>+'PASO 1'!N56</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="56">
-        <f>+'PASO 1'!C56</f>
         <v>0</v>
       </c>
       <c r="O47" s="56">
@@ -6684,52 +6775,52 @@
         <v>Base imponible 8</v>
       </c>
       <c r="C48" s="56">
+        <f>+'PASO 1'!C57</f>
+        <v>58574.82</v>
+      </c>
+      <c r="D48" s="56">
         <f>+'PASO 1'!D57</f>
-        <v>58574.82</v>
-      </c>
-      <c r="D48" s="56">
+        <v>62053.26</v>
+      </c>
+      <c r="E48" s="56">
         <f>+'PASO 1'!E57</f>
-        <v>62053.26</v>
-      </c>
-      <c r="E48" s="56">
+        <v>59444.43</v>
+      </c>
+      <c r="F48" s="56">
         <f>+'PASO 1'!F57</f>
-        <v>59444.43</v>
-      </c>
-      <c r="F48" s="56">
+        <v>85679.010000000009</v>
+      </c>
+      <c r="G48" s="56">
         <f>+'PASO 1'!G57</f>
-        <v>85679.010000000009</v>
-      </c>
-      <c r="G48" s="56">
+        <v>77043</v>
+      </c>
+      <c r="H48" s="56">
         <f>+'PASO 1'!H57</f>
-        <v>77043</v>
-      </c>
-      <c r="H48" s="56">
+        <v>85947.329999999987</v>
+      </c>
+      <c r="I48" s="56">
         <f>+'PASO 1'!I57</f>
-        <v>85947.329999999987</v>
-      </c>
-      <c r="I48" s="56">
+        <v>64884.25</v>
+      </c>
+      <c r="J48" s="56">
         <f>+'PASO 1'!J57</f>
-        <v>64884.25</v>
-      </c>
-      <c r="J48" s="56">
+        <v>58199.42</v>
+      </c>
+      <c r="K48" s="56">
         <f>+'PASO 1'!K57</f>
-        <v>58199.42</v>
-      </c>
-      <c r="K48" s="56">
+        <v>92558.15</v>
+      </c>
+      <c r="L48" s="56">
         <f>+'PASO 1'!L57</f>
-        <v>92558.15</v>
-      </c>
-      <c r="L48" s="56">
+        <v>79783</v>
+      </c>
+      <c r="M48" s="56">
         <f>+'PASO 1'!M57</f>
-        <v>79783</v>
-      </c>
-      <c r="M48" s="56">
+        <v>64202.3</v>
+      </c>
+      <c r="N48" s="56">
         <f>+'PASO 1'!N57</f>
-        <v>64202.3</v>
-      </c>
-      <c r="N48" s="56">
-        <f>+'PASO 1'!C57</f>
-        <v>62374.879999999997</v>
+        <v>66784.88</v>
       </c>
       <c r="O48" s="56">
         <f>+'PASO 1'!O57</f>
@@ -6746,52 +6837,52 @@
         <v>Base imponible 9</v>
       </c>
       <c r="C49" s="56">
+        <f>+'PASO 1'!C58</f>
+        <v>58574.82</v>
+      </c>
+      <c r="D49" s="56">
         <f>+'PASO 1'!D58</f>
-        <v>58574.82</v>
-      </c>
-      <c r="D49" s="56">
+        <v>62053.26</v>
+      </c>
+      <c r="E49" s="56">
         <f>+'PASO 1'!E58</f>
-        <v>62053.26</v>
-      </c>
-      <c r="E49" s="56">
+        <v>59444.43</v>
+      </c>
+      <c r="F49" s="56">
         <f>+'PASO 1'!F58</f>
-        <v>59444.43</v>
-      </c>
-      <c r="F49" s="56">
+        <v>85679.010000000009</v>
+      </c>
+      <c r="G49" s="56">
         <f>+'PASO 1'!G58</f>
-        <v>85679.010000000009</v>
-      </c>
-      <c r="G49" s="56">
+        <v>77043</v>
+      </c>
+      <c r="H49" s="56">
         <f>+'PASO 1'!H58</f>
-        <v>77043</v>
-      </c>
-      <c r="H49" s="56">
+        <v>85947.329999999987</v>
+      </c>
+      <c r="I49" s="56">
         <f>+'PASO 1'!I58</f>
-        <v>85947.329999999987</v>
-      </c>
-      <c r="I49" s="56">
+        <v>64884.25</v>
+      </c>
+      <c r="J49" s="56">
         <f>+'PASO 1'!J58</f>
-        <v>64884.25</v>
-      </c>
-      <c r="J49" s="56">
+        <v>58199.42</v>
+      </c>
+      <c r="K49" s="56">
         <f>+'PASO 1'!K58</f>
-        <v>58199.42</v>
-      </c>
-      <c r="K49" s="56">
+        <v>92558.15</v>
+      </c>
+      <c r="L49" s="56">
         <f>+'PASO 1'!L58</f>
-        <v>92558.15</v>
-      </c>
-      <c r="L49" s="56">
+        <v>79783</v>
+      </c>
+      <c r="M49" s="56">
         <f>+'PASO 1'!M58</f>
-        <v>79783</v>
-      </c>
-      <c r="M49" s="56">
+        <v>64202.3</v>
+      </c>
+      <c r="N49" s="56">
         <f>+'PASO 1'!N58</f>
-        <v>64202.3</v>
-      </c>
-      <c r="N49" s="56">
-        <f>+'PASO 1'!C58</f>
-        <v>62374.879999999997</v>
+        <v>66784.88</v>
       </c>
       <c r="O49" s="56">
         <f>+'PASO 1'!O58</f>
@@ -6808,51 +6899,51 @@
         <v>Base para el cálculo diferencial de aporte de Seg. Social</v>
       </c>
       <c r="C50" s="56">
+        <f>+'PASO 1'!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="56">
         <f>+'PASO 1'!D59</f>
         <v>0</v>
       </c>
-      <c r="D50" s="56">
+      <c r="E50" s="56">
         <f>+'PASO 1'!E59</f>
         <v>0</v>
       </c>
-      <c r="E50" s="56">
+      <c r="F50" s="56">
         <f>+'PASO 1'!F59</f>
         <v>0</v>
       </c>
-      <c r="F50" s="56">
+      <c r="G50" s="56">
         <f>+'PASO 1'!G59</f>
         <v>0</v>
       </c>
-      <c r="G50" s="56">
+      <c r="H50" s="56">
         <f>+'PASO 1'!H59</f>
         <v>0</v>
       </c>
-      <c r="H50" s="56">
+      <c r="I50" s="56">
         <f>+'PASO 1'!I59</f>
         <v>0</v>
       </c>
-      <c r="I50" s="56">
+      <c r="J50" s="56">
         <f>+'PASO 1'!J59</f>
         <v>0</v>
       </c>
-      <c r="J50" s="56">
+      <c r="K50" s="56">
         <f>+'PASO 1'!K59</f>
         <v>0</v>
       </c>
-      <c r="K50" s="56">
+      <c r="L50" s="56">
         <f>+'PASO 1'!L59</f>
         <v>0</v>
       </c>
-      <c r="L50" s="56">
+      <c r="M50" s="56">
         <f>+'PASO 1'!M59</f>
         <v>0</v>
       </c>
-      <c r="M50" s="56">
+      <c r="N50" s="56">
         <f>+'PASO 1'!N59</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="56">
-        <f>+'PASO 1'!C59</f>
         <v>0</v>
       </c>
       <c r="O50" s="56">
@@ -6870,51 +6961,51 @@
         <v>Base para el cálculo diferencial de contribuciones de Seg. Social</v>
       </c>
       <c r="C51" s="56">
+        <f>+'PASO 1'!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="56">
         <f>+'PASO 1'!D60</f>
         <v>0</v>
       </c>
-      <c r="D51" s="56">
+      <c r="E51" s="56">
         <f>+'PASO 1'!E60</f>
         <v>0</v>
       </c>
-      <c r="E51" s="56">
+      <c r="F51" s="56">
         <f>+'PASO 1'!F60</f>
         <v>0</v>
       </c>
-      <c r="F51" s="56">
+      <c r="G51" s="56">
         <f>+'PASO 1'!G60</f>
         <v>0</v>
       </c>
-      <c r="G51" s="56">
+      <c r="H51" s="56">
         <f>+'PASO 1'!H60</f>
         <v>0</v>
       </c>
-      <c r="H51" s="56">
+      <c r="I51" s="56">
         <f>+'PASO 1'!I60</f>
         <v>0</v>
       </c>
-      <c r="I51" s="56">
+      <c r="J51" s="56">
         <f>+'PASO 1'!J60</f>
         <v>0</v>
       </c>
-      <c r="J51" s="56">
+      <c r="K51" s="56">
         <f>+'PASO 1'!K60</f>
         <v>0</v>
       </c>
-      <c r="K51" s="56">
+      <c r="L51" s="56">
         <f>+'PASO 1'!L60</f>
         <v>0</v>
       </c>
-      <c r="L51" s="56">
+      <c r="M51" s="56">
         <f>+'PASO 1'!M60</f>
         <v>0</v>
       </c>
-      <c r="M51" s="56">
+      <c r="N51" s="56">
         <f>+'PASO 1'!N60</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="56">
-        <f>+'PASO 1'!C60</f>
         <v>0</v>
       </c>
       <c r="O51" s="56">
@@ -6932,52 +7023,52 @@
         <v>Base imponible 10</v>
       </c>
       <c r="C52" s="56">
+        <f>+'PASO 1'!C61</f>
+        <v>43781.14</v>
+      </c>
+      <c r="D52" s="56">
         <f>+'PASO 1'!D61</f>
-        <v>43781.14</v>
-      </c>
-      <c r="D52" s="56">
+        <v>47259.58</v>
+      </c>
+      <c r="E52" s="56">
         <f>+'PASO 1'!E61</f>
-        <v>47259.58</v>
-      </c>
-      <c r="E52" s="56">
+        <v>44650.75</v>
+      </c>
+      <c r="F52" s="56">
         <f>+'PASO 1'!F61</f>
-        <v>44650.75</v>
-      </c>
-      <c r="F52" s="56">
+        <v>69202.12</v>
+      </c>
+      <c r="G52" s="56">
         <f>+'PASO 1'!G61</f>
-        <v>69202.12</v>
-      </c>
-      <c r="G52" s="56">
+        <v>62249.32</v>
+      </c>
+      <c r="H52" s="56">
         <f>+'PASO 1'!H61</f>
-        <v>62249.32</v>
-      </c>
-      <c r="H52" s="56">
+        <v>69470.44</v>
+      </c>
+      <c r="I52" s="56">
         <f>+'PASO 1'!I61</f>
-        <v>69470.44</v>
-      </c>
-      <c r="I52" s="56">
+        <v>50090.57</v>
+      </c>
+      <c r="J52" s="56">
         <f>+'PASO 1'!J61</f>
-        <v>50090.57</v>
-      </c>
-      <c r="J52" s="56">
+        <v>43405.74</v>
+      </c>
+      <c r="K52" s="56">
         <f>+'PASO 1'!K61</f>
-        <v>43405.74</v>
-      </c>
-      <c r="K52" s="56">
+        <v>75561.47</v>
+      </c>
+      <c r="L52" s="56">
         <f>+'PASO 1'!L61</f>
-        <v>75561.47</v>
-      </c>
-      <c r="L52" s="56">
+        <v>64989.32</v>
+      </c>
+      <c r="M52" s="56">
         <f>+'PASO 1'!M61</f>
-        <v>64989.32</v>
-      </c>
-      <c r="M52" s="56">
+        <v>49408.62</v>
+      </c>
+      <c r="N52" s="56">
         <f>+'PASO 1'!N61</f>
-        <v>49408.62</v>
-      </c>
-      <c r="N52" s="56">
-        <f>+'PASO 1'!C61</f>
-        <v>47059.199999999997</v>
+        <v>51469.2</v>
       </c>
       <c r="O52" s="56">
         <f>+'PASO 1'!O61</f>
@@ -6994,51 +7085,51 @@
         <v>Importe a detraer</v>
       </c>
       <c r="C53" s="56">
+        <f>+'PASO 1'!C62</f>
+        <v>7003.68</v>
+      </c>
+      <c r="D53" s="56">
         <f>+'PASO 1'!D62</f>
         <v>7003.68</v>
       </c>
-      <c r="D53" s="56">
+      <c r="E53" s="56">
         <f>+'PASO 1'!E62</f>
         <v>7003.68</v>
       </c>
-      <c r="E53" s="56">
+      <c r="F53" s="56">
         <f>+'PASO 1'!F62</f>
         <v>7003.68</v>
       </c>
-      <c r="F53" s="56">
+      <c r="G53" s="56">
         <f>+'PASO 1'!G62</f>
         <v>7003.68</v>
       </c>
-      <c r="G53" s="56">
+      <c r="H53" s="56">
         <f>+'PASO 1'!H62</f>
         <v>7003.68</v>
       </c>
-      <c r="H53" s="56">
+      <c r="I53" s="56">
         <f>+'PASO 1'!I62</f>
         <v>7003.68</v>
       </c>
-      <c r="I53" s="56">
+      <c r="J53" s="56">
         <f>+'PASO 1'!J62</f>
         <v>7003.68</v>
       </c>
-      <c r="J53" s="56">
+      <c r="K53" s="56">
         <f>+'PASO 1'!K62</f>
         <v>7003.68</v>
       </c>
-      <c r="K53" s="56">
+      <c r="L53" s="56">
         <f>+'PASO 1'!L62</f>
         <v>7003.68</v>
       </c>
-      <c r="L53" s="56">
+      <c r="M53" s="56">
         <f>+'PASO 1'!M62</f>
         <v>7003.68</v>
       </c>
-      <c r="M53" s="56">
+      <c r="N53" s="56">
         <f>+'PASO 1'!N62</f>
-        <v>7003.68</v>
-      </c>
-      <c r="N53" s="56">
-        <f>+'PASO 1'!C62</f>
         <v>7003.68</v>
       </c>
       <c r="O53" s="56">
@@ -7058,19 +7149,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="61"/>
     <col min="2" max="2" width="27.5703125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="61"/>
+    <col min="3" max="16384" width="11.42578125" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -7081,40 +7171,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="61" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>64</v>
       </c>
       <c r="O1" s="61" t="s">
         <v>66</v>
@@ -7128,40 +7218,40 @@
         <v>0</v>
       </c>
       <c r="C2" s="61">
+        <v>23373230529</v>
+      </c>
+      <c r="D2" s="61">
+        <v>20412270089</v>
+      </c>
+      <c r="E2" s="61">
+        <v>20363899952</v>
+      </c>
+      <c r="F2" s="61">
+        <v>20280474682</v>
+      </c>
+      <c r="G2" s="61">
+        <v>20177508293</v>
+      </c>
+      <c r="H2" s="61">
+        <v>20215465676</v>
+      </c>
+      <c r="I2" s="61">
+        <v>20302390224</v>
+      </c>
+      <c r="J2" s="61">
+        <v>20397771262</v>
+      </c>
+      <c r="K2" s="61">
+        <v>20222706042</v>
+      </c>
+      <c r="L2" s="61">
+        <v>20146494669</v>
+      </c>
+      <c r="M2" s="61">
+        <v>20260202031</v>
+      </c>
+      <c r="N2" s="61">
         <v>20229337700</v>
-      </c>
-      <c r="D2" s="61">
-        <v>23373230529</v>
-      </c>
-      <c r="E2" s="61">
-        <v>20412270089</v>
-      </c>
-      <c r="F2" s="61">
-        <v>20363899952</v>
-      </c>
-      <c r="G2" s="61">
-        <v>20280474682</v>
-      </c>
-      <c r="H2" s="61">
-        <v>20177508293</v>
-      </c>
-      <c r="I2" s="61">
-        <v>20215465676</v>
-      </c>
-      <c r="J2" s="61">
-        <v>20302390224</v>
-      </c>
-      <c r="K2" s="61">
-        <v>20397771262</v>
-      </c>
-      <c r="L2" s="61">
-        <v>20222706042</v>
-      </c>
-      <c r="M2" s="61">
-        <v>20146494669</v>
-      </c>
-      <c r="N2" s="61">
-        <v>20260202031</v>
       </c>
       <c r="O2" s="61">
         <v>20179209927</v>
@@ -7175,40 +7265,40 @@
         <v>0</v>
       </c>
       <c r="C3" s="61">
-        <v>62374.879999999997</v>
+        <v>58574.82</v>
       </c>
       <c r="D3" s="61">
-        <v>58574.82</v>
+        <v>62053.26</v>
       </c>
       <c r="E3" s="61">
-        <v>62053.26</v>
+        <v>59444.43</v>
       </c>
       <c r="F3" s="61">
-        <v>59444.43</v>
+        <v>85679.010000000009</v>
       </c>
       <c r="G3" s="61">
-        <v>85679.010000000009</v>
+        <v>77043</v>
       </c>
       <c r="H3" s="61">
-        <v>77043</v>
+        <v>85947.329999999987</v>
       </c>
       <c r="I3" s="61">
-        <v>85947.329999999987</v>
+        <v>64884.25</v>
       </c>
       <c r="J3" s="61">
-        <v>64884.25</v>
+        <v>58199.42</v>
       </c>
       <c r="K3" s="61">
-        <v>58199.42</v>
+        <v>92558.15</v>
       </c>
       <c r="L3" s="61">
-        <v>92558.15</v>
+        <v>79783</v>
       </c>
       <c r="M3" s="61">
-        <v>79783</v>
+        <v>64202.3</v>
       </c>
       <c r="N3" s="61">
-        <v>64202.3</v>
+        <v>66784.88</v>
       </c>
       <c r="O3" s="61">
         <v>63127.78</v>
@@ -7504,40 +7594,40 @@
         <v>0</v>
       </c>
       <c r="C10" s="61">
-        <v>55121.36</v>
+        <v>51660</v>
       </c>
       <c r="D10" s="61">
         <v>51660</v>
       </c>
       <c r="E10" s="61">
+        <v>0</v>
+      </c>
+      <c r="F10" s="61">
+        <v>62822.36</v>
+      </c>
+      <c r="G10" s="61">
         <v>51660</v>
       </c>
-      <c r="F10" s="61">
-        <v>0</v>
-      </c>
-      <c r="G10" s="61">
+      <c r="H10" s="61">
         <v>62822.36</v>
       </c>
-      <c r="H10" s="61">
+      <c r="I10" s="61">
         <v>51660</v>
-      </c>
-      <c r="I10" s="61">
-        <v>62822.36</v>
       </c>
       <c r="J10" s="61">
         <v>51660</v>
       </c>
       <c r="K10" s="61">
+        <v>66271.149999999994</v>
+      </c>
+      <c r="L10" s="61">
         <v>51660</v>
-      </c>
-      <c r="L10" s="61">
-        <v>66271.149999999994</v>
       </c>
       <c r="M10" s="61">
         <v>51660</v>
       </c>
       <c r="N10" s="61">
-        <v>51660</v>
+        <v>55121.36</v>
       </c>
       <c r="O10" s="61">
         <v>51660</v>
@@ -7560,28 +7650,28 @@
         <v>0</v>
       </c>
       <c r="F11" s="61">
-        <v>0</v>
+        <v>12964.44</v>
       </c>
       <c r="G11" s="61">
-        <v>12964.44</v>
+        <v>16388</v>
       </c>
       <c r="H11" s="61">
-        <v>16388</v>
+        <v>17421</v>
       </c>
       <c r="I11" s="61">
-        <v>17421</v>
+        <v>0</v>
       </c>
       <c r="J11" s="61">
         <v>0</v>
       </c>
       <c r="K11" s="61">
-        <v>0</v>
+        <v>18061</v>
       </c>
       <c r="L11" s="61">
-        <v>18061</v>
+        <v>18267</v>
       </c>
       <c r="M11" s="61">
-        <v>18267</v>
+        <v>0</v>
       </c>
       <c r="N11" s="61">
         <v>0</v>
@@ -7598,34 +7688,34 @@
         <v>23</v>
       </c>
       <c r="C12" s="61">
-        <v>-2205</v>
+        <v>-3444</v>
       </c>
       <c r="D12" s="61">
-        <v>-3444</v>
+        <v>0</v>
       </c>
       <c r="E12" s="61">
-        <v>0</v>
+        <v>-2583</v>
       </c>
       <c r="F12" s="61">
-        <v>-2583</v>
+        <v>-2094</v>
       </c>
       <c r="G12" s="61">
-        <v>-2094</v>
+        <v>-861</v>
       </c>
       <c r="H12" s="61">
+        <v>-6282.24</v>
+      </c>
+      <c r="I12" s="61">
         <v>-861</v>
       </c>
-      <c r="I12" s="61">
-        <v>-6282.24</v>
-      </c>
       <c r="J12" s="61">
-        <v>-861</v>
+        <v>-4305</v>
       </c>
       <c r="K12" s="61">
-        <v>-4305</v>
+        <v>-4418</v>
       </c>
       <c r="L12" s="61">
-        <v>-4418</v>
+        <v>0</v>
       </c>
       <c r="M12" s="61">
         <v>0</v>
@@ -7645,7 +7735,7 @@
         <v>101</v>
       </c>
       <c r="C13" s="61">
-        <v>0</v>
+        <v>2066</v>
       </c>
       <c r="D13" s="61">
         <v>2066</v>
@@ -7654,31 +7744,31 @@
         <v>2066</v>
       </c>
       <c r="F13" s="61">
+        <v>2513</v>
+      </c>
+      <c r="G13" s="61">
         <v>2066</v>
       </c>
-      <c r="G13" s="61">
+      <c r="H13" s="61">
         <v>2513</v>
       </c>
-      <c r="H13" s="61">
+      <c r="I13" s="61">
         <v>2066</v>
-      </c>
-      <c r="I13" s="61">
-        <v>2513</v>
       </c>
       <c r="J13" s="61">
         <v>2066</v>
       </c>
       <c r="K13" s="61">
+        <v>2651</v>
+      </c>
+      <c r="L13" s="61">
         <v>2066</v>
-      </c>
-      <c r="L13" s="61">
-        <v>2651</v>
       </c>
       <c r="M13" s="61">
         <v>2066</v>
       </c>
       <c r="N13" s="61">
-        <v>2066</v>
+        <v>2205</v>
       </c>
       <c r="O13" s="61">
         <v>2066</v>
@@ -7698,10 +7788,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="61">
-        <v>0</v>
+        <v>51660</v>
       </c>
       <c r="F14" s="61">
-        <v>51660</v>
+        <v>0</v>
       </c>
       <c r="G14" s="61">
         <v>0</v>
@@ -8086,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="61">
-        <v>0</v>
+        <v>1586</v>
       </c>
       <c r="J22" s="61">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="K22" s="61">
         <v>0</v>
@@ -8115,40 +8205,40 @@
         <v>27</v>
       </c>
       <c r="C23" s="61">
+        <v>502.82</v>
+      </c>
+      <c r="D23" s="61">
+        <v>537.26</v>
+      </c>
+      <c r="E23" s="61">
+        <v>511.43</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0</v>
+      </c>
+      <c r="I23" s="61">
+        <v>2643.25</v>
+      </c>
+      <c r="J23" s="61">
+        <v>988.42</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="61">
+        <v>0</v>
+      </c>
+      <c r="M23" s="61">
+        <v>2686.3</v>
+      </c>
+      <c r="N23" s="61">
         <v>1146.52</v>
-      </c>
-      <c r="D23" s="61">
-        <v>502.82</v>
-      </c>
-      <c r="E23" s="61">
-        <v>537.26</v>
-      </c>
-      <c r="F23" s="61">
-        <v>511.43</v>
-      </c>
-      <c r="G23" s="61">
-        <v>0</v>
-      </c>
-      <c r="H23" s="61">
-        <v>0</v>
-      </c>
-      <c r="I23" s="61">
-        <v>0</v>
-      </c>
-      <c r="J23" s="61">
-        <v>2643.25</v>
-      </c>
-      <c r="K23" s="61">
-        <v>988.42</v>
-      </c>
-      <c r="L23" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" s="61">
-        <v>0</v>
-      </c>
-      <c r="N23" s="61">
-        <v>2686.3</v>
       </c>
       <c r="O23" s="61">
         <v>1611.78</v>
@@ -8538,7 +8628,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="61">
-        <v>8312</v>
+        <v>7790</v>
       </c>
       <c r="D32" s="61">
         <v>7790</v>
@@ -8547,31 +8637,31 @@
         <v>7790</v>
       </c>
       <c r="F32" s="61">
+        <v>9473.2099999999991</v>
+      </c>
+      <c r="G32" s="61">
         <v>7790</v>
       </c>
-      <c r="G32" s="61">
+      <c r="H32" s="61">
         <v>9473.2099999999991</v>
       </c>
-      <c r="H32" s="61">
+      <c r="I32" s="61">
         <v>7790</v>
-      </c>
-      <c r="I32" s="61">
-        <v>9473.2099999999991</v>
       </c>
       <c r="J32" s="61">
         <v>7790</v>
       </c>
       <c r="K32" s="61">
+        <v>9993</v>
+      </c>
+      <c r="L32" s="61">
         <v>7790</v>
-      </c>
-      <c r="L32" s="61">
-        <v>9993</v>
       </c>
       <c r="M32" s="61">
         <v>7790</v>
       </c>
       <c r="N32" s="61">
-        <v>7790</v>
+        <v>8312</v>
       </c>
       <c r="O32" s="61">
         <v>7790</v>
@@ -8585,40 +8675,40 @@
         <v>2</v>
       </c>
       <c r="C33" s="61">
+        <v>1757.2446</v>
+      </c>
+      <c r="D33" s="61">
+        <v>1861.5978</v>
+      </c>
+      <c r="E33" s="61">
+        <v>1783.3328999999999</v>
+      </c>
+      <c r="F33" s="61">
+        <v>2570.3703</v>
+      </c>
+      <c r="G33" s="61">
+        <v>2311.29</v>
+      </c>
+      <c r="H33" s="61">
+        <v>2578.4198999999994</v>
+      </c>
+      <c r="I33" s="61">
+        <v>1946.5274999999999</v>
+      </c>
+      <c r="J33" s="61">
+        <v>1745.9825999999998</v>
+      </c>
+      <c r="K33" s="61">
+        <v>2776.7444999999998</v>
+      </c>
+      <c r="L33" s="61">
+        <v>2393.4899999999998</v>
+      </c>
+      <c r="M33" s="61">
+        <v>1926.069</v>
+      </c>
+      <c r="N33" s="61">
         <v>2003.5464000000002</v>
-      </c>
-      <c r="D33" s="61">
-        <v>1757.2446</v>
-      </c>
-      <c r="E33" s="61">
-        <v>1861.5978</v>
-      </c>
-      <c r="F33" s="61">
-        <v>1783.3328999999999</v>
-      </c>
-      <c r="G33" s="61">
-        <v>2570.3703</v>
-      </c>
-      <c r="H33" s="61">
-        <v>2311.29</v>
-      </c>
-      <c r="I33" s="61">
-        <v>2578.4198999999994</v>
-      </c>
-      <c r="J33" s="61">
-        <v>1946.5274999999999</v>
-      </c>
-      <c r="K33" s="61">
-        <v>1745.9825999999998</v>
-      </c>
-      <c r="L33" s="61">
-        <v>2776.7444999999998</v>
-      </c>
-      <c r="M33" s="61">
-        <v>2393.4899999999998</v>
-      </c>
-      <c r="N33" s="61">
-        <v>1926.069</v>
       </c>
       <c r="O33" s="61">
         <v>1893.8334</v>
@@ -8632,40 +8722,40 @@
         <v>3</v>
       </c>
       <c r="C34" s="61">
+        <v>1015.6964</v>
+      </c>
+      <c r="D34" s="61">
+        <v>1085.2652</v>
+      </c>
+      <c r="E34" s="61">
+        <v>1033.0886</v>
+      </c>
+      <c r="F34" s="61">
+        <v>1524.116</v>
+      </c>
+      <c r="G34" s="61">
+        <v>1385.06</v>
+      </c>
+      <c r="H34" s="61">
+        <v>1529.4823999999999</v>
+      </c>
+      <c r="I34" s="61">
+        <v>1141.885</v>
+      </c>
+      <c r="J34" s="61">
+        <v>1008.1884</v>
+      </c>
+      <c r="K34" s="61">
+        <v>1651.3029999999999</v>
+      </c>
+      <c r="L34" s="61">
+        <v>1439.8600000000001</v>
+      </c>
+      <c r="M34" s="61">
+        <v>1128.2460000000001</v>
+      </c>
+      <c r="N34" s="61">
         <v>1169.4576</v>
-      </c>
-      <c r="D34" s="61">
-        <v>1015.6964</v>
-      </c>
-      <c r="E34" s="61">
-        <v>1085.2652</v>
-      </c>
-      <c r="F34" s="61">
-        <v>1033.0886</v>
-      </c>
-      <c r="G34" s="61">
-        <v>1524.116</v>
-      </c>
-      <c r="H34" s="61">
-        <v>1385.06</v>
-      </c>
-      <c r="I34" s="61">
-        <v>1529.4823999999999</v>
-      </c>
-      <c r="J34" s="61">
-        <v>1141.885</v>
-      </c>
-      <c r="K34" s="61">
-        <v>1008.1884</v>
-      </c>
-      <c r="L34" s="61">
-        <v>1651.3029999999999</v>
-      </c>
-      <c r="M34" s="61">
-        <v>1439.8600000000001</v>
-      </c>
-      <c r="N34" s="61">
-        <v>1128.2460000000001</v>
       </c>
       <c r="O34" s="61">
         <v>1106.7556</v>
@@ -8679,40 +8769,40 @@
         <v>4</v>
       </c>
       <c r="C35" s="61">
+        <v>5586.3302000000003</v>
+      </c>
+      <c r="D35" s="61">
+        <v>5968.9585999999999</v>
+      </c>
+      <c r="E35" s="61">
+        <v>5681.9872999999998</v>
+      </c>
+      <c r="F35" s="61">
+        <v>8382.6380000000008</v>
+      </c>
+      <c r="G35" s="61">
+        <v>7617.83</v>
+      </c>
+      <c r="H35" s="61">
+        <v>8412.1531999999988</v>
+      </c>
+      <c r="I35" s="61">
+        <v>6280.3675000000003</v>
+      </c>
+      <c r="J35" s="61">
+        <v>5545.0361999999996</v>
+      </c>
+      <c r="K35" s="61">
+        <v>9082.1664999999994</v>
+      </c>
+      <c r="L35" s="61">
+        <v>7919.2300000000005</v>
+      </c>
+      <c r="M35" s="61">
+        <v>6205.3530000000001</v>
+      </c>
+      <c r="N35" s="61">
         <v>6432.0167999999994</v>
-      </c>
-      <c r="D35" s="61">
-        <v>5586.3302000000003</v>
-      </c>
-      <c r="E35" s="61">
-        <v>5968.9585999999999</v>
-      </c>
-      <c r="F35" s="61">
-        <v>5681.9872999999998</v>
-      </c>
-      <c r="G35" s="61">
-        <v>8382.6380000000008</v>
-      </c>
-      <c r="H35" s="61">
-        <v>7617.83</v>
-      </c>
-      <c r="I35" s="61">
-        <v>8412.1531999999988</v>
-      </c>
-      <c r="J35" s="61">
-        <v>6280.3675000000003</v>
-      </c>
-      <c r="K35" s="61">
-        <v>5545.0361999999996</v>
-      </c>
-      <c r="L35" s="61">
-        <v>9082.1664999999994</v>
-      </c>
-      <c r="M35" s="61">
-        <v>7919.2300000000005</v>
-      </c>
-      <c r="N35" s="61">
-        <v>6205.3530000000001</v>
       </c>
       <c r="O35" s="61">
         <v>6087.1557999999995</v>
@@ -8726,40 +8816,40 @@
         <v>5</v>
       </c>
       <c r="C36" s="61">
+        <v>1523.5445999999999</v>
+      </c>
+      <c r="D36" s="61">
+        <v>1627.8978</v>
+      </c>
+      <c r="E36" s="61">
+        <v>1549.6329000000001</v>
+      </c>
+      <c r="F36" s="61">
+        <v>2286.174</v>
+      </c>
+      <c r="G36" s="61">
+        <v>2077.59</v>
+      </c>
+      <c r="H36" s="61">
+        <v>2294.2235999999998</v>
+      </c>
+      <c r="I36" s="61">
+        <v>1712.8274999999999</v>
+      </c>
+      <c r="J36" s="61">
+        <v>1512.2826</v>
+      </c>
+      <c r="K36" s="61">
+        <v>2476.9544999999998</v>
+      </c>
+      <c r="L36" s="61">
+        <v>2159.79</v>
+      </c>
+      <c r="M36" s="61">
+        <v>1692.3689999999999</v>
+      </c>
+      <c r="N36" s="61">
         <v>1754.1863999999998</v>
-      </c>
-      <c r="D36" s="61">
-        <v>1523.5445999999999</v>
-      </c>
-      <c r="E36" s="61">
-        <v>1627.8978</v>
-      </c>
-      <c r="F36" s="61">
-        <v>1549.6329000000001</v>
-      </c>
-      <c r="G36" s="61">
-        <v>2286.174</v>
-      </c>
-      <c r="H36" s="61">
-        <v>2077.59</v>
-      </c>
-      <c r="I36" s="61">
-        <v>2294.2235999999998</v>
-      </c>
-      <c r="J36" s="61">
-        <v>1712.8274999999999</v>
-      </c>
-      <c r="K36" s="61">
-        <v>1512.2826</v>
-      </c>
-      <c r="L36" s="61">
-        <v>2476.9544999999998</v>
-      </c>
-      <c r="M36" s="61">
-        <v>2159.79</v>
-      </c>
-      <c r="N36" s="61">
-        <v>1692.3689999999999</v>
       </c>
       <c r="O36" s="61">
         <v>1660.1333999999999</v>
@@ -8773,40 +8863,40 @@
         <v>6</v>
       </c>
       <c r="C37" s="61">
+        <v>380.88614999999999</v>
+      </c>
+      <c r="D37" s="61">
+        <v>406.97444999999999</v>
+      </c>
+      <c r="E37" s="61">
+        <v>387.40822500000002</v>
+      </c>
+      <c r="F37" s="61">
+        <v>571.54349999999999</v>
+      </c>
+      <c r="G37" s="61">
+        <v>519.39750000000004</v>
+      </c>
+      <c r="H37" s="61">
+        <v>573.55589999999995</v>
+      </c>
+      <c r="I37" s="61">
+        <v>428.20687499999997</v>
+      </c>
+      <c r="J37" s="61">
+        <v>378.07065</v>
+      </c>
+      <c r="K37" s="61">
+        <v>619.23862499999996</v>
+      </c>
+      <c r="L37" s="61">
+        <v>539.94749999999999</v>
+      </c>
+      <c r="M37" s="61">
+        <v>423.09224999999998</v>
+      </c>
+      <c r="N37" s="61">
         <v>438.54659999999996</v>
-      </c>
-      <c r="D37" s="61">
-        <v>380.88614999999999</v>
-      </c>
-      <c r="E37" s="61">
-        <v>406.97444999999999</v>
-      </c>
-      <c r="F37" s="61">
-        <v>387.40822500000002</v>
-      </c>
-      <c r="G37" s="61">
-        <v>571.54349999999999</v>
-      </c>
-      <c r="H37" s="61">
-        <v>519.39750000000004</v>
-      </c>
-      <c r="I37" s="61">
-        <v>573.55589999999995</v>
-      </c>
-      <c r="J37" s="61">
-        <v>428.20687499999997</v>
-      </c>
-      <c r="K37" s="61">
-        <v>378.07065</v>
-      </c>
-      <c r="L37" s="61">
-        <v>619.23862499999996</v>
-      </c>
-      <c r="M37" s="61">
-        <v>539.94749999999999</v>
-      </c>
-      <c r="N37" s="61">
-        <v>423.09224999999998</v>
       </c>
       <c r="O37" s="61">
         <v>415.03334999999998</v>
@@ -8820,7 +8910,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="61">
-        <v>166.24</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="D38" s="61">
         <v>155.80000000000001</v>
@@ -8829,31 +8919,31 @@
         <v>155.80000000000001</v>
       </c>
       <c r="F38" s="61">
+        <v>189.46419999999998</v>
+      </c>
+      <c r="G38" s="61">
         <v>155.80000000000001</v>
       </c>
-      <c r="G38" s="61">
+      <c r="H38" s="61">
         <v>189.46419999999998</v>
       </c>
-      <c r="H38" s="61">
+      <c r="I38" s="61">
         <v>155.80000000000001</v>
-      </c>
-      <c r="I38" s="61">
-        <v>189.46419999999998</v>
       </c>
       <c r="J38" s="61">
         <v>155.80000000000001</v>
       </c>
       <c r="K38" s="61">
+        <v>199.86</v>
+      </c>
+      <c r="L38" s="61">
         <v>155.80000000000001</v>
-      </c>
-      <c r="L38" s="61">
-        <v>199.86</v>
       </c>
       <c r="M38" s="61">
         <v>155.80000000000001</v>
       </c>
       <c r="N38" s="61">
-        <v>155.80000000000001</v>
+        <v>166.24</v>
       </c>
       <c r="O38" s="61">
         <v>155.80000000000001</v>
@@ -8867,40 +8957,40 @@
         <v>103</v>
       </c>
       <c r="C39" s="61">
+        <v>761.77229999999997</v>
+      </c>
+      <c r="D39" s="61">
+        <v>813.94889999999998</v>
+      </c>
+      <c r="E39" s="61">
+        <v>774.81645000000003</v>
+      </c>
+      <c r="F39" s="61">
+        <v>1143.087</v>
+      </c>
+      <c r="G39" s="61">
+        <v>1038.7950000000001</v>
+      </c>
+      <c r="H39" s="61">
+        <v>1147.1117999999999</v>
+      </c>
+      <c r="I39" s="61">
+        <v>856.41374999999994</v>
+      </c>
+      <c r="J39" s="61">
+        <v>756.1413</v>
+      </c>
+      <c r="K39" s="61">
+        <v>1238.4772499999999</v>
+      </c>
+      <c r="L39" s="61">
+        <v>1079.895</v>
+      </c>
+      <c r="M39" s="61">
+        <v>846.18449999999996</v>
+      </c>
+      <c r="N39" s="61">
         <v>877.09319999999991</v>
-      </c>
-      <c r="D39" s="61">
-        <v>761.77229999999997</v>
-      </c>
-      <c r="E39" s="61">
-        <v>813.94889999999998</v>
-      </c>
-      <c r="F39" s="61">
-        <v>774.81645000000003</v>
-      </c>
-      <c r="G39" s="61">
-        <v>1143.087</v>
-      </c>
-      <c r="H39" s="61">
-        <v>1038.7950000000001</v>
-      </c>
-      <c r="I39" s="61">
-        <v>1147.1117999999999</v>
-      </c>
-      <c r="J39" s="61">
-        <v>856.41374999999994</v>
-      </c>
-      <c r="K39" s="61">
-        <v>756.1413</v>
-      </c>
-      <c r="L39" s="61">
-        <v>1238.4772499999999</v>
-      </c>
-      <c r="M39" s="61">
-        <v>1079.895</v>
-      </c>
-      <c r="N39" s="61">
-        <v>846.18449999999996</v>
       </c>
       <c r="O39" s="61">
         <v>830.06669999999997</v>
@@ -8923,31 +9013,31 @@
         <v>650</v>
       </c>
       <c r="F40" s="61">
+        <v>1630</v>
+      </c>
+      <c r="G40" s="61">
         <v>650</v>
       </c>
-      <c r="G40" s="61">
+      <c r="H40" s="61">
         <v>1630</v>
       </c>
-      <c r="H40" s="61">
-        <v>650</v>
-      </c>
       <c r="I40" s="61">
+        <v>4330</v>
+      </c>
+      <c r="J40" s="61">
+        <v>0</v>
+      </c>
+      <c r="K40" s="61">
         <v>1630</v>
       </c>
-      <c r="J40" s="61">
-        <v>4330</v>
-      </c>
-      <c r="K40" s="61">
-        <v>0</v>
-      </c>
       <c r="L40" s="61">
-        <v>1630</v>
+        <v>800</v>
       </c>
       <c r="M40" s="61">
         <v>800</v>
       </c>
       <c r="N40" s="61">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="O40" s="61">
         <v>8730</v>
@@ -8961,40 +9051,40 @@
         <v>74</v>
       </c>
       <c r="C41" s="61">
-        <v>54062.879999999997</v>
+        <v>50784.82</v>
       </c>
       <c r="D41" s="61">
-        <v>50784.82</v>
+        <v>54263.26</v>
       </c>
       <c r="E41" s="61">
-        <v>54263.26</v>
+        <v>51654.43</v>
       </c>
       <c r="F41" s="61">
-        <v>51654.43</v>
+        <v>76205.8</v>
       </c>
       <c r="G41" s="61">
-        <v>76205.8</v>
+        <v>69253</v>
       </c>
       <c r="H41" s="61">
-        <v>69253</v>
+        <v>76474.12</v>
       </c>
       <c r="I41" s="61">
-        <v>76474.12</v>
+        <v>57094.25</v>
       </c>
       <c r="J41" s="61">
-        <v>57094.25</v>
+        <v>50409.42</v>
       </c>
       <c r="K41" s="61">
-        <v>50409.42</v>
+        <v>82565.149999999994</v>
       </c>
       <c r="L41" s="61">
-        <v>82565.149999999994</v>
+        <v>71993</v>
       </c>
       <c r="M41" s="61">
-        <v>71993</v>
+        <v>56412.3</v>
       </c>
       <c r="N41" s="61">
-        <v>56412.3</v>
+        <v>58472.88</v>
       </c>
       <c r="O41" s="61">
         <v>55337.78</v>
@@ -9008,40 +9098,40 @@
         <v>76</v>
       </c>
       <c r="C42" s="61">
-        <v>54062.879999999997</v>
+        <v>50784.82</v>
       </c>
       <c r="D42" s="61">
-        <v>50784.82</v>
+        <v>54263.26</v>
       </c>
       <c r="E42" s="61">
-        <v>54263.26</v>
+        <v>51654.43</v>
       </c>
       <c r="F42" s="61">
-        <v>51654.43</v>
+        <v>76205.8</v>
       </c>
       <c r="G42" s="61">
-        <v>76205.8</v>
+        <v>69253</v>
       </c>
       <c r="H42" s="61">
-        <v>69253</v>
+        <v>76474.12</v>
       </c>
       <c r="I42" s="61">
-        <v>76474.12</v>
+        <v>57094.25</v>
       </c>
       <c r="J42" s="61">
-        <v>57094.25</v>
+        <v>50409.42</v>
       </c>
       <c r="K42" s="61">
-        <v>50409.42</v>
+        <v>82565.149999999994</v>
       </c>
       <c r="L42" s="61">
-        <v>82565.149999999994</v>
+        <v>71993</v>
       </c>
       <c r="M42" s="61">
-        <v>71993</v>
+        <v>56412.3</v>
       </c>
       <c r="N42" s="61">
-        <v>56412.3</v>
+        <v>58472.88</v>
       </c>
       <c r="O42" s="61">
         <v>55337.78</v>
@@ -9059,40 +9149,40 @@
         <v>78</v>
       </c>
       <c r="C43" s="61">
-        <v>54062.879999999997</v>
+        <v>50784.82</v>
       </c>
       <c r="D43" s="61">
-        <v>50784.82</v>
+        <v>54263.26</v>
       </c>
       <c r="E43" s="61">
-        <v>54263.26</v>
+        <v>51654.43</v>
       </c>
       <c r="F43" s="61">
-        <v>51654.43</v>
+        <v>76205.8</v>
       </c>
       <c r="G43" s="61">
-        <v>76205.8</v>
+        <v>69253</v>
       </c>
       <c r="H43" s="61">
-        <v>69253</v>
+        <v>76474.12</v>
       </c>
       <c r="I43" s="61">
-        <v>76474.12</v>
+        <v>57094.25</v>
       </c>
       <c r="J43" s="61">
-        <v>57094.25</v>
+        <v>50409.42</v>
       </c>
       <c r="K43" s="61">
-        <v>50409.42</v>
+        <v>82565.149999999994</v>
       </c>
       <c r="L43" s="61">
-        <v>82565.149999999994</v>
+        <v>71993</v>
       </c>
       <c r="M43" s="61">
-        <v>71993</v>
+        <v>56412.3</v>
       </c>
       <c r="N43" s="61">
-        <v>56412.3</v>
+        <v>58472.88</v>
       </c>
       <c r="O43" s="61">
         <v>55337.78</v>
@@ -9106,40 +9196,40 @@
         <v>80</v>
       </c>
       <c r="C44" s="61">
-        <v>62374.879999999997</v>
+        <v>58574.82</v>
       </c>
       <c r="D44" s="61">
-        <v>58574.82</v>
+        <v>62053.26</v>
       </c>
       <c r="E44" s="61">
-        <v>62053.26</v>
+        <v>59444.43</v>
       </c>
       <c r="F44" s="61">
-        <v>59444.43</v>
+        <v>85679.010000000009</v>
       </c>
       <c r="G44" s="61">
-        <v>85679.010000000009</v>
+        <v>77043</v>
       </c>
       <c r="H44" s="61">
-        <v>77043</v>
+        <v>85947.329999999987</v>
       </c>
       <c r="I44" s="61">
-        <v>85947.329999999987</v>
+        <v>64884.25</v>
       </c>
       <c r="J44" s="61">
-        <v>64884.25</v>
+        <v>58199.42</v>
       </c>
       <c r="K44" s="61">
-        <v>58199.42</v>
+        <v>92558.15</v>
       </c>
       <c r="L44" s="61">
-        <v>92558.15</v>
+        <v>79783</v>
       </c>
       <c r="M44" s="61">
-        <v>79783</v>
+        <v>64202.3</v>
       </c>
       <c r="N44" s="61">
-        <v>64202.3</v>
+        <v>66784.88</v>
       </c>
       <c r="O44" s="61">
         <v>63127.78</v>
@@ -9153,40 +9243,40 @@
         <v>82</v>
       </c>
       <c r="C45" s="61">
-        <v>54062.879999999997</v>
+        <v>50784.82</v>
       </c>
       <c r="D45" s="61">
-        <v>50784.82</v>
+        <v>54263.26</v>
       </c>
       <c r="E45" s="61">
-        <v>54263.26</v>
+        <v>51654.43</v>
       </c>
       <c r="F45" s="61">
-        <v>51654.43</v>
+        <v>76205.8</v>
       </c>
       <c r="G45" s="61">
-        <v>76205.8</v>
+        <v>69253</v>
       </c>
       <c r="H45" s="61">
-        <v>69253</v>
+        <v>76474.12</v>
       </c>
       <c r="I45" s="61">
-        <v>76474.12</v>
+        <v>57094.25</v>
       </c>
       <c r="J45" s="61">
-        <v>57094.25</v>
+        <v>50409.42</v>
       </c>
       <c r="K45" s="61">
-        <v>50409.42</v>
+        <v>82565.149999999994</v>
       </c>
       <c r="L45" s="61">
-        <v>82565.149999999994</v>
+        <v>71993</v>
       </c>
       <c r="M45" s="61">
-        <v>71993</v>
+        <v>56412.3</v>
       </c>
       <c r="N45" s="61">
-        <v>56412.3</v>
+        <v>58472.88</v>
       </c>
       <c r="O45" s="61">
         <v>55337.78</v>
@@ -9298,40 +9388,40 @@
         <v>88</v>
       </c>
       <c r="C48" s="61">
-        <v>62374.879999999997</v>
+        <v>58574.82</v>
       </c>
       <c r="D48" s="61">
-        <v>58574.82</v>
+        <v>62053.26</v>
       </c>
       <c r="E48" s="61">
-        <v>62053.26</v>
+        <v>59444.43</v>
       </c>
       <c r="F48" s="61">
-        <v>59444.43</v>
+        <v>85679.010000000009</v>
       </c>
       <c r="G48" s="61">
-        <v>85679.010000000009</v>
+        <v>77043</v>
       </c>
       <c r="H48" s="61">
-        <v>77043</v>
+        <v>85947.329999999987</v>
       </c>
       <c r="I48" s="61">
-        <v>85947.329999999987</v>
+        <v>64884.25</v>
       </c>
       <c r="J48" s="61">
-        <v>64884.25</v>
+        <v>58199.42</v>
       </c>
       <c r="K48" s="61">
-        <v>58199.42</v>
+        <v>92558.15</v>
       </c>
       <c r="L48" s="61">
-        <v>92558.15</v>
+        <v>79783</v>
       </c>
       <c r="M48" s="61">
-        <v>79783</v>
+        <v>64202.3</v>
       </c>
       <c r="N48" s="61">
-        <v>64202.3</v>
+        <v>66784.88</v>
       </c>
       <c r="O48" s="61">
         <v>63127.78</v>
@@ -9345,40 +9435,40 @@
         <v>90</v>
       </c>
       <c r="C49" s="61">
-        <v>62374.879999999997</v>
+        <v>58574.82</v>
       </c>
       <c r="D49" s="61">
-        <v>58574.82</v>
+        <v>62053.26</v>
       </c>
       <c r="E49" s="61">
-        <v>62053.26</v>
+        <v>59444.43</v>
       </c>
       <c r="F49" s="61">
-        <v>59444.43</v>
+        <v>85679.010000000009</v>
       </c>
       <c r="G49" s="61">
-        <v>85679.010000000009</v>
+        <v>77043</v>
       </c>
       <c r="H49" s="61">
-        <v>77043</v>
+        <v>85947.329999999987</v>
       </c>
       <c r="I49" s="61">
-        <v>85947.329999999987</v>
+        <v>64884.25</v>
       </c>
       <c r="J49" s="61">
-        <v>64884.25</v>
+        <v>58199.42</v>
       </c>
       <c r="K49" s="61">
-        <v>58199.42</v>
+        <v>92558.15</v>
       </c>
       <c r="L49" s="61">
-        <v>92558.15</v>
+        <v>79783</v>
       </c>
       <c r="M49" s="61">
-        <v>79783</v>
+        <v>64202.3</v>
       </c>
       <c r="N49" s="61">
-        <v>64202.3</v>
+        <v>66784.88</v>
       </c>
       <c r="O49" s="61">
         <v>63127.78</v>
@@ -9486,40 +9576,40 @@
         <v>96</v>
       </c>
       <c r="C52" s="61">
-        <v>47059.199999999997</v>
+        <v>43781.14</v>
       </c>
       <c r="D52" s="61">
-        <v>43781.14</v>
+        <v>47259.58</v>
       </c>
       <c r="E52" s="61">
-        <v>47259.58</v>
+        <v>44650.75</v>
       </c>
       <c r="F52" s="61">
-        <v>44650.75</v>
+        <v>69202.12</v>
       </c>
       <c r="G52" s="61">
-        <v>69202.12</v>
+        <v>62249.32</v>
       </c>
       <c r="H52" s="61">
-        <v>62249.32</v>
+        <v>69470.44</v>
       </c>
       <c r="I52" s="61">
-        <v>69470.44</v>
+        <v>50090.57</v>
       </c>
       <c r="J52" s="61">
-        <v>50090.57</v>
+        <v>43405.74</v>
       </c>
       <c r="K52" s="61">
-        <v>43405.74</v>
+        <v>75561.47</v>
       </c>
       <c r="L52" s="61">
-        <v>75561.47</v>
+        <v>64989.32</v>
       </c>
       <c r="M52" s="61">
-        <v>64989.32</v>
+        <v>49408.62</v>
       </c>
       <c r="N52" s="61">
-        <v>49408.62</v>
+        <v>51469.2</v>
       </c>
       <c r="O52" s="61">
         <v>48334.1</v>
@@ -9590,25 +9680,13 @@
       <c r="N54" s="62"/>
       <c r="O54" s="62"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C57" s="62">
-        <v>62374.879999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C59" s="62">
-        <f>C48-C57</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -11677,7 +11755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -13746,7 +13824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
